--- a/doc/物品ID.xlsx
+++ b/doc/物品ID.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="245">
   <si>
     <t>CustomModelData</t>
   </si>
@@ -263,205 +263,493 @@
     <t>Carbon Chunk</t>
   </si>
   <si>
+    <t>金锭(24克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (24-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(22克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (22-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(20克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (20-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(18克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (18-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(16克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (16-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(14克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (14-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(12克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (12-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(10克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (10-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(8克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (8-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(6克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (6-Carat)</t>
+  </si>
+  <si>
+    <t>金锭(4克拉)</t>
+  </si>
+  <si>
+    <t>Gold Ingot (4-Carat)</t>
+  </si>
+  <si>
+    <t>硅</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>镀金铁锭</t>
+  </si>
+  <si>
+    <t>Gilded Iron</t>
+  </si>
+  <si>
+    <t>人造绿宝石</t>
+  </si>
+  <si>
+    <t>Synthetic Emerald</t>
+  </si>
+  <si>
+    <t>铀</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>红石合金锭</t>
+  </si>
+  <si>
+    <t>Redstone Alloy Ingot</t>
+  </si>
+  <si>
+    <t>镁盐</t>
+  </si>
+  <si>
+    <t>Magnesium Salt</t>
+  </si>
+  <si>
+    <t>原油桶</t>
+  </si>
+  <si>
+    <t>Bucket of Oil</t>
+  </si>
+  <si>
+    <t>燃料桶</t>
+  </si>
+  <si>
+    <t>Bucket of Fuel</t>
+  </si>
+  <si>
+    <t>下界冰</t>
+  </si>
+  <si>
+    <t>Nether Ice</t>
+  </si>
+  <si>
+    <t>起泡锭(33%)</t>
+  </si>
+  <si>
+    <t>Blistering Ingot (33%)</t>
+  </si>
+  <si>
+    <t>起泡锭(66%)</t>
+  </si>
+  <si>
+    <t>Blistering Ingot (66%)</t>
+  </si>
+  <si>
+    <t>起泡锭</t>
+  </si>
+  <si>
+    <t>Blistering Ingot</t>
+  </si>
+  <si>
+    <t>浓缩下界冰</t>
+  </si>
+  <si>
+    <t>Enriched Nether Ice</t>
+  </si>
+  <si>
+    <t>镎</t>
+  </si>
+  <si>
+    <t>Neptunium</t>
+  </si>
+  <si>
+    <t>钚</t>
+  </si>
+  <si>
+    <t>Plutonium</t>
+  </si>
+  <si>
+    <t>高纯度铀</t>
+  </si>
+  <si>
+    <t>Boosted Uranium</t>
+  </si>
+  <si>
+    <t>更多的合成 (Crafting++)</t>
+  </si>
+  <si>
+    <t>RF的原版工艺 (RFTR's Craft)</t>
+  </si>
+  <si>
+    <t>粘液科技数据包（Slimefunction）</t>
+  </si>
+  <si>
+    <t>锭</t>
+  </si>
+  <si>
+    <t>redstone_ingot</t>
+  </si>
+  <si>
+    <t>红石锭</t>
+  </si>
+  <si>
+    <t>redstone_alloy_ingot</t>
+  </si>
+  <si>
+    <t>tungsten_ingot</t>
+  </si>
+  <si>
+    <t>钨锭</t>
+  </si>
+  <si>
+    <t>lead_ingot</t>
+  </si>
+  <si>
+    <t>zinc_ingot</t>
+  </si>
+  <si>
+    <t>tin_ingot</t>
+  </si>
+  <si>
+    <t>nickel_ingot</t>
+  </si>
+  <si>
+    <t>reinforced_alloy_ingot</t>
+  </si>
+  <si>
+    <t>hardened_metal</t>
+  </si>
+  <si>
+    <t>damascus_steel_ingot</t>
+  </si>
+  <si>
+    <t>steel_ingot</t>
+  </si>
+  <si>
+    <t>bronze_ingot</t>
+  </si>
+  <si>
+    <t>duralumin_ingot</t>
+  </si>
+  <si>
+    <t>billon_ingot</t>
+  </si>
+  <si>
+    <t>brass_ingot</t>
+  </si>
+  <si>
+    <t>aluminum_brass_ingot</t>
+  </si>
+  <si>
+    <t>aluminum_bronze_ingot</t>
+  </si>
+  <si>
+    <t>corinthian_bronze_ingot</t>
+  </si>
+  <si>
+    <t>solder_ingot</t>
+  </si>
+  <si>
     <t>gold_ingot_24_carat</t>
   </si>
   <si>
-    <t>金锭(24克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (24-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_22_carat</t>
   </si>
   <si>
-    <t>金锭(22克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (22-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_20_carat</t>
   </si>
   <si>
-    <t>金锭(20克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (20-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_18_carat</t>
   </si>
   <si>
-    <t>金锭(18克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (18-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_16_carat</t>
   </si>
   <si>
-    <t>金锭(16克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (16-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_14_carat</t>
   </si>
   <si>
-    <t>金锭(14克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (14-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_12_carat</t>
   </si>
   <si>
-    <t>金锭(12克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (12-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_10_carat</t>
   </si>
   <si>
-    <t>金锭(10克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (10-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_8_carat</t>
   </si>
   <si>
-    <t>金锭(8克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (8-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_6_carat</t>
   </si>
   <si>
-    <t>金锭(6克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (6-Carat)</t>
-  </si>
-  <si>
     <t>gold_ingot_4_carat</t>
   </si>
   <si>
-    <t>金锭(4克拉)</t>
-  </si>
-  <si>
-    <t>Gold Ingot (4-Carat)</t>
-  </si>
-  <si>
-    <t>硅</t>
-  </si>
-  <si>
-    <t>Silicon</t>
-  </si>
-  <si>
-    <t>镀金铁锭</t>
-  </si>
-  <si>
-    <t>Gilded Iron</t>
-  </si>
-  <si>
-    <t>人造绿宝石</t>
-  </si>
-  <si>
-    <t>Synthetic Emerald</t>
-  </si>
-  <si>
-    <t>铀</t>
-  </si>
-  <si>
-    <t>Uranium</t>
-  </si>
-  <si>
-    <t>红石合金锭</t>
-  </si>
-  <si>
-    <t>Redstone Alloy Ingot</t>
-  </si>
-  <si>
-    <t>镁盐</t>
-  </si>
-  <si>
-    <t>Magnesium Salt</t>
-  </si>
-  <si>
-    <t>原油桶</t>
-  </si>
-  <si>
-    <t>Bucket of Oil</t>
-  </si>
-  <si>
-    <t>燃料桶</t>
-  </si>
-  <si>
-    <t>Bucket of Fuel</t>
-  </si>
-  <si>
-    <t>下界冰</t>
-  </si>
-  <si>
-    <t>Nether Ice</t>
-  </si>
-  <si>
-    <t>起泡锭(33%)</t>
-  </si>
-  <si>
-    <t>Blistering Ingot (33%)</t>
-  </si>
-  <si>
-    <t>起泡锭(66%)</t>
-  </si>
-  <si>
-    <t>Blistering Ingot (66%)</t>
-  </si>
-  <si>
-    <t>起泡锭</t>
-  </si>
-  <si>
-    <t>Blistering Ingot</t>
-  </si>
-  <si>
-    <t>浓缩下界冰</t>
-  </si>
-  <si>
-    <t>Enriched Nether Ice</t>
-  </si>
-  <si>
-    <t>镎</t>
-  </si>
-  <si>
-    <t>Neptunium</t>
-  </si>
-  <si>
-    <t>钚</t>
-  </si>
-  <si>
-    <t>Plutonium</t>
-  </si>
-  <si>
-    <t>高纯度铀</t>
-  </si>
-  <si>
-    <t>Boosted Uranium</t>
-  </si>
-  <si>
-    <t>实际效果</t>
-  </si>
-  <si>
-    <t>目标</t>
+    <t>cobalt_ingot</t>
+  </si>
+  <si>
+    <t>copper_ingot</t>
+  </si>
+  <si>
+    <t>silver_ingot</t>
+  </si>
+  <si>
+    <t>magnesium_ingot</t>
+  </si>
+  <si>
+    <t>gilded_iron</t>
+  </si>
+  <si>
+    <t>blistering_ingot_33</t>
+  </si>
+  <si>
+    <t>blistering_ingot_66</t>
+  </si>
+  <si>
+    <t>blistering_ingot</t>
+  </si>
+  <si>
+    <t>粉</t>
+  </si>
+  <si>
+    <t>iron_dust</t>
+  </si>
+  <si>
+    <t>gold_dust</t>
+  </si>
+  <si>
+    <t>carbon_dust</t>
+  </si>
+  <si>
+    <t>碳粉</t>
+  </si>
+  <si>
+    <t>emerald_dust</t>
+  </si>
+  <si>
+    <t>绿宝石粉</t>
+  </si>
+  <si>
+    <t>diamond_dust</t>
+  </si>
+  <si>
+    <t>钻石粉</t>
+  </si>
+  <si>
+    <t>quartz_dust</t>
+  </si>
+  <si>
+    <t>石英粉</t>
+  </si>
+  <si>
+    <t>steel_dust</t>
+  </si>
+  <si>
+    <t>钢粉</t>
+  </si>
+  <si>
+    <t>tungsten_dust</t>
+  </si>
+  <si>
+    <t>钨粉</t>
+  </si>
+  <si>
+    <t>lead_dust</t>
+  </si>
+  <si>
+    <t>zinc_dust</t>
+  </si>
+  <si>
+    <t>tin_dust</t>
+  </si>
+  <si>
+    <t>nickel_dust</t>
+  </si>
+  <si>
+    <t>镍粉</t>
+  </si>
+  <si>
+    <t>copper_dust</t>
+  </si>
+  <si>
+    <t>silver_dust</t>
+  </si>
+  <si>
+    <t>aluminum_dust</t>
+  </si>
+  <si>
+    <t>magnesium_dust</t>
+  </si>
+  <si>
+    <t>sulphur</t>
+  </si>
+  <si>
+    <t>硫粉</t>
+  </si>
+  <si>
+    <t>板</t>
+  </si>
+  <si>
+    <t>redstone_plate</t>
+  </si>
+  <si>
+    <t>红石板</t>
+  </si>
+  <si>
+    <t>tungsten_plate</t>
+  </si>
+  <si>
+    <t>钨板</t>
+  </si>
+  <si>
+    <t>lead_plate</t>
+  </si>
+  <si>
+    <t>铅板</t>
+  </si>
+  <si>
+    <t>zinc_plate</t>
+  </si>
+  <si>
+    <t>锌板</t>
+  </si>
+  <si>
+    <t>tin_plate</t>
+  </si>
+  <si>
+    <t>锡板</t>
+  </si>
+  <si>
+    <t>nickel_plate</t>
+  </si>
+  <si>
+    <t>镍板</t>
+  </si>
+  <si>
+    <t>粒</t>
+  </si>
+  <si>
+    <t>diamond_nugget</t>
+  </si>
+  <si>
+    <t>碎钻</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>盐瓶</t>
+  </si>
+  <si>
+    <t>synthetic_sapphire</t>
+  </si>
+  <si>
+    <t>synthetic_diamond</t>
+  </si>
+  <si>
+    <t>raw_carbonado</t>
+  </si>
+  <si>
+    <t>carbonado</t>
+  </si>
+  <si>
+    <t>ferrosilicon</t>
+  </si>
+  <si>
+    <t>sulfate</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>compressed_carbon</t>
+  </si>
+  <si>
+    <t>carbon_chunk</t>
+  </si>
+  <si>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>synthetic_emerald</t>
+  </si>
+  <si>
+    <t>uranium</t>
+  </si>
+  <si>
+    <t>magnesium_salt</t>
+  </si>
+  <si>
+    <t>bucket_of_oil</t>
+  </si>
+  <si>
+    <t>bucket_of_fuel</t>
+  </si>
+  <si>
+    <t>nether_ice</t>
+  </si>
+  <si>
+    <t>enriched_nether_ice</t>
+  </si>
+  <si>
+    <t>neptunium</t>
+  </si>
+  <si>
+    <t>plutonium</t>
+  </si>
+  <si>
+    <t>boosted_uranium</t>
   </si>
 </sst>
 </file>
@@ -469,10 +757,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -498,22 +786,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,9 +884,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,13 +916,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,19 +930,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +1002,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +1032,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,13 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,66 +1069,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,25 +1092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,26 +1124,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,6 +1150,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,17 +1198,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,10 +1229,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,153 +1241,189 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1423,4233 +1747,4244 @@
   <sheetPr/>
   <dimension ref="A1:D425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153:C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.775" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5333333333333" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.775" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="32.175" style="16" customWidth="1"/>
+    <col min="6" max="6" width="25.5333333333333" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="15" customFormat="1" spans="1:4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="16">
         <v>7270001</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B2" s="16" t="str">
+        <f t="shared" ref="B2:B33" si="0">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="16">
         <v>7270002</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B66" si="0">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B3" s="16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="16">
         <v>7270003</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="16">
         <v>7270004</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="16">
         <v>7270005</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="16">
         <v>7270006</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="16">
         <v>7270007</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="16">
         <v>7270008</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="16">
         <v>7270009</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="16">
         <v>7270010</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="16">
         <v>7270011</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="16">
         <v>7270012</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="16">
         <v>7270013</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="16">
         <v>7270014</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="16">
         <v>7270015</v>
       </c>
-      <c r="B16" s="1" t="str">
+      <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="16">
         <v>7270016</v>
       </c>
-      <c r="B17" s="1" t="str">
+      <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="16">
         <v>7270017</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="16">
         <v>7270018</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="16">
         <v>7270019</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="16">
         <v>7270020</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="16">
         <v>7270021</v>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="16">
         <v>7270022</v>
       </c>
-      <c r="B23" s="1" t="str">
+      <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="16">
         <v>7270023</v>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="16">
         <v>7270024</v>
       </c>
-      <c r="B25" s="1" t="str">
+      <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="16">
         <v>7270025</v>
       </c>
-      <c r="B26" s="1" t="str">
+      <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="16">
         <v>7270026</v>
       </c>
-      <c r="B27" s="1" t="str">
+      <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="16">
         <v>7270027</v>
       </c>
-      <c r="B28" s="1" t="str">
+      <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="16">
         <v>7270028</v>
       </c>
-      <c r="B29" s="1" t="str">
+      <c r="B29" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="16">
         <v>7270029</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="16">
         <v>7270030</v>
       </c>
-      <c r="B31" s="1" t="str">
+      <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="16">
         <v>7270031</v>
       </c>
-      <c r="B32" s="1" t="str">
+      <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="16">
         <v>7270032</v>
       </c>
-      <c r="B33" s="1" t="str">
+      <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="16">
         <v>7270033</v>
       </c>
-      <c r="B34" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B34" s="16" t="str">
+        <f t="shared" ref="B34:B65" si="1">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="16">
         <v>7270034</v>
       </c>
-      <c r="B35" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B35" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="16">
         <v>7270035</v>
       </c>
-      <c r="B36" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B36" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="16">
         <v>7270036</v>
       </c>
-      <c r="B37" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B37" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1">
+      <c r="A38" s="16">
         <v>7270037</v>
       </c>
-      <c r="B38" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B38" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1">
+      <c r="A39" s="16">
         <v>7270038</v>
       </c>
-      <c r="B39" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B39" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1">
+      <c r="A40" s="16">
         <v>7270039</v>
       </c>
-      <c r="B40" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B40" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1">
+      <c r="A41" s="16">
         <v>7270040</v>
       </c>
-      <c r="B41" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B41" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1">
+      <c r="A42" s="16">
         <v>7270041</v>
       </c>
-      <c r="B42" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B42" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1">
+      <c r="A43" s="16">
         <v>7270042</v>
       </c>
-      <c r="B43" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B43" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1">
+      <c r="A44" s="16">
         <v>7270043</v>
       </c>
-      <c r="B44" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B44" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1">
+      <c r="A45" s="16">
         <v>7270044</v>
       </c>
-      <c r="B45" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B45" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1">
+      <c r="A46" s="16">
         <v>7270045</v>
       </c>
-      <c r="B46" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B46" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1">
+      <c r="A47" s="16">
         <v>7270046</v>
       </c>
-      <c r="B47" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B47" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1">
+      <c r="A48" s="16">
         <v>7270047</v>
       </c>
-      <c r="B48" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B48" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1">
+      <c r="A49" s="16">
         <v>7270048</v>
       </c>
-      <c r="B49" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B49" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1">
+      <c r="A50" s="16">
         <v>7270049</v>
       </c>
-      <c r="B50" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B50" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1">
+      <c r="A51" s="16">
         <v>7270050</v>
       </c>
-      <c r="B51" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B51" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1">
+      <c r="A52" s="16">
         <v>7270051</v>
       </c>
-      <c r="B52" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B52" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1">
+      <c r="A53" s="16">
         <v>7270052</v>
       </c>
-      <c r="B53" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B53" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1">
+      <c r="A54" s="16">
         <v>7270053</v>
       </c>
-      <c r="B54" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B54" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1">
+      <c r="A55" s="16">
         <v>7270054</v>
       </c>
-      <c r="B55" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B55" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1">
+      <c r="A56" s="16">
         <v>7270055</v>
       </c>
-      <c r="B56" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B56" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1">
+      <c r="A57" s="16">
         <v>7270056</v>
       </c>
-      <c r="B57" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B57" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1">
+      <c r="A58" s="16">
         <v>7270057</v>
       </c>
-      <c r="B58" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B58" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1">
+      <c r="A59" s="16">
         <v>7270058</v>
       </c>
-      <c r="B59" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B59" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1">
+      <c r="A60" s="16">
         <v>7270059</v>
       </c>
-      <c r="B60" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B60" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1">
+      <c r="A61" s="16">
         <v>7270060</v>
       </c>
-      <c r="B61" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B61" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1">
+      <c r="A62" s="16">
         <v>7270061</v>
       </c>
-      <c r="B62" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B62" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1">
+      <c r="A63" s="16">
         <v>7270062</v>
       </c>
-      <c r="B63" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B63" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1">
+      <c r="A64" s="16">
         <v>7270063</v>
       </c>
-      <c r="B64" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B64" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1">
+      <c r="A65" s="16">
         <v>7270064</v>
       </c>
-      <c r="B65" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B65" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1">
+      <c r="A66" s="16">
         <v>7270065</v>
       </c>
-      <c r="B66" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B66" s="16" t="str">
+        <f t="shared" ref="B66:B97" si="2">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1">
+      <c r="A67" s="16">
         <v>7270066</v>
       </c>
-      <c r="B67" s="1" t="str">
-        <f t="shared" ref="B67:B130" si="1">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B67" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1">
+      <c r="A68" s="16">
         <v>7270067</v>
       </c>
-      <c r="B68" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B68" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1">
+      <c r="A69" s="16">
         <v>7270068</v>
       </c>
-      <c r="B69" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B69" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1">
+      <c r="A70" s="16">
         <v>7270069</v>
       </c>
-      <c r="B70" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B70" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1">
+      <c r="A71" s="16">
         <v>7270070</v>
       </c>
-      <c r="B71" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B71" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1">
+      <c r="A72" s="16">
         <v>7270071</v>
       </c>
-      <c r="B72" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B72" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1">
+      <c r="A73" s="16">
         <v>7270072</v>
       </c>
-      <c r="B73" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B73" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1">
+      <c r="A74" s="16">
         <v>7270073</v>
       </c>
-      <c r="B74" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B74" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1">
+      <c r="A75" s="16">
         <v>7270074</v>
       </c>
-      <c r="B75" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B75" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1">
+      <c r="A76" s="16">
         <v>7270075</v>
       </c>
-      <c r="B76" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B76" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1">
+      <c r="A77" s="16">
         <v>7270076</v>
       </c>
-      <c r="B77" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B77" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1">
+      <c r="A78" s="16">
         <v>7270077</v>
       </c>
-      <c r="B78" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B78" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1">
+      <c r="A79" s="16">
         <v>7270078</v>
       </c>
-      <c r="B79" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B79" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1">
+      <c r="A80" s="16">
         <v>7270079</v>
       </c>
-      <c r="B80" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B80" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1">
+      <c r="A81" s="16">
         <v>7270080</v>
       </c>
-      <c r="B81" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B81" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1">
+      <c r="A82" s="16">
         <v>7270081</v>
       </c>
-      <c r="B82" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B82" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1">
+      <c r="A83" s="16">
         <v>7270082</v>
       </c>
-      <c r="B83" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B83" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1">
+      <c r="A84" s="16">
         <v>7270083</v>
       </c>
-      <c r="B84" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B84" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1">
+      <c r="A85" s="16">
         <v>7270084</v>
       </c>
-      <c r="B85" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B85" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1">
+      <c r="A86" s="16">
         <v>7270085</v>
       </c>
-      <c r="B86" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B86" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1">
+      <c r="A87" s="16">
         <v>7270086</v>
       </c>
-      <c r="B87" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B87" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1">
+      <c r="A88" s="16">
         <v>7270087</v>
       </c>
-      <c r="B88" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B88" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1">
+      <c r="A89" s="16">
         <v>7270088</v>
       </c>
-      <c r="B89" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B89" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1">
+      <c r="A90" s="16">
         <v>7270089</v>
       </c>
-      <c r="B90" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B90" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1">
+      <c r="A91" s="16">
         <v>7270090</v>
       </c>
-      <c r="B91" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B91" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1">
+      <c r="A92" s="16">
         <v>7270091</v>
       </c>
-      <c r="B92" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B92" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1">
+      <c r="A93" s="16">
         <v>7270092</v>
       </c>
-      <c r="B93" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B93" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1">
+      <c r="A94" s="16">
         <v>7270093</v>
       </c>
-      <c r="B94" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B94" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1">
+      <c r="A95" s="16">
         <v>7270094</v>
       </c>
-      <c r="B95" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B95" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1">
+      <c r="A96" s="16">
         <v>7270095</v>
       </c>
-      <c r="B96" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B96" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1">
+      <c r="A97" s="16">
         <v>7270096</v>
       </c>
-      <c r="B97" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B97" s="16" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1">
+      <c r="A98" s="16">
         <v>7270097</v>
       </c>
-      <c r="B98" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B98" s="16" t="str">
+        <f t="shared" ref="B98:B129" si="3">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1">
+      <c r="A99" s="16">
         <v>7270098</v>
       </c>
-      <c r="B99" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B99" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1">
+      <c r="A100" s="16">
         <v>7270099</v>
       </c>
-      <c r="B100" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B100" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1">
+      <c r="A101" s="16">
         <v>7270100</v>
       </c>
-      <c r="B101" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B101" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1">
+      <c r="A102" s="16">
         <v>7270101</v>
       </c>
-      <c r="B102" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B102" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1">
+      <c r="A103" s="16">
         <v>7270102</v>
       </c>
-      <c r="B103" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B103" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1">
+      <c r="A104" s="16">
         <v>7270103</v>
       </c>
-      <c r="B104" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B104" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1">
+      <c r="A105" s="16">
         <v>7270104</v>
       </c>
-      <c r="B105" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B105" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1">
+      <c r="A106" s="16">
         <v>7270105</v>
       </c>
-      <c r="B106" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B106" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1">
+      <c r="A107" s="16">
         <v>7270106</v>
       </c>
-      <c r="B107" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B107" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1">
+      <c r="A108" s="16">
         <v>7270107</v>
       </c>
-      <c r="B108" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B108" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1">
+      <c r="A109" s="16">
         <v>7270108</v>
       </c>
-      <c r="B109" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B109" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1">
+      <c r="A110" s="16">
         <v>7270109</v>
       </c>
-      <c r="B110" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B110" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1">
+      <c r="A111" s="16">
         <v>7270110</v>
       </c>
-      <c r="B111" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B111" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1">
+      <c r="A112" s="16">
         <v>7270111</v>
       </c>
-      <c r="B112" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B112" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1">
+      <c r="A113" s="16">
         <v>7270112</v>
       </c>
-      <c r="B113" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B113" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1">
+      <c r="A114" s="16">
         <v>7270113</v>
       </c>
-      <c r="B114" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B114" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1">
+      <c r="A115" s="16">
         <v>7270114</v>
       </c>
-      <c r="B115" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B115" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1">
+      <c r="A116" s="16">
         <v>7270115</v>
       </c>
-      <c r="B116" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B116" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1">
+      <c r="A117" s="16">
         <v>7270116</v>
       </c>
-      <c r="B117" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B117" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1">
+      <c r="A118" s="16">
         <v>7270117</v>
       </c>
-      <c r="B118" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B118" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1">
+      <c r="A119" s="16">
         <v>7270118</v>
       </c>
-      <c r="B119" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B119" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1">
+      <c r="A120" s="16">
         <v>7270119</v>
       </c>
-      <c r="B120" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B120" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1">
+      <c r="A121" s="16">
         <v>7270120</v>
       </c>
-      <c r="B121" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B121" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1">
+      <c r="A122" s="16">
         <v>7270121</v>
       </c>
-      <c r="B122" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B122" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1">
+      <c r="A123" s="16">
         <v>7270122</v>
       </c>
-      <c r="B123" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B123" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1">
+      <c r="A124" s="16">
         <v>7270123</v>
       </c>
-      <c r="B124" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B124" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1">
+      <c r="A125" s="16">
         <v>7270124</v>
       </c>
-      <c r="B125" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B125" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1">
+      <c r="A126" s="16">
         <v>7270125</v>
       </c>
-      <c r="B126" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B126" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1">
+      <c r="A127" s="16">
         <v>7270126</v>
       </c>
-      <c r="B127" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B127" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1">
+      <c r="A128" s="16">
         <v>7270127</v>
       </c>
-      <c r="B128" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B128" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1">
+      <c r="A129" s="16">
         <v>7270128</v>
       </c>
-      <c r="B129" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B129" s="16" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1">
+      <c r="A130" s="16">
         <v>7270129</v>
       </c>
-      <c r="B130" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="B130" s="16" t="str">
+        <f t="shared" ref="B130:B161" si="4">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1">
+      <c r="A131" s="16">
         <v>7270130</v>
       </c>
-      <c r="B131" s="1" t="str">
-        <f t="shared" ref="B131:B194" si="2">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B131" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1">
+      <c r="A132" s="16">
         <v>7270131</v>
       </c>
-      <c r="B132" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B132" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1">
+      <c r="A133" s="16">
         <v>7270132</v>
       </c>
-      <c r="B133" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B133" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1">
+      <c r="A134" s="16">
         <v>7270133</v>
       </c>
-      <c r="B134" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B134" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1">
+      <c r="A135" s="16">
         <v>7270134</v>
       </c>
-      <c r="B135" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B135" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1">
+      <c r="A136" s="16">
         <v>7270135</v>
       </c>
-      <c r="B136" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B136" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1">
+      <c r="A137" s="16">
         <v>7270136</v>
       </c>
-      <c r="B137" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B137" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1">
+      <c r="A138" s="16">
         <v>7270137</v>
       </c>
-      <c r="B138" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B138" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1">
+      <c r="A139" s="16">
         <v>7270138</v>
       </c>
-      <c r="B139" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B139" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1">
+      <c r="A140" s="16">
         <v>7270139</v>
       </c>
-      <c r="B140" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B140" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1">
+      <c r="A141" s="16">
         <v>7270140</v>
       </c>
-      <c r="B141" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B141" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1">
+      <c r="A142" s="16">
         <v>7270141</v>
       </c>
-      <c r="B142" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B142" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1">
+      <c r="A143" s="16">
         <v>7270142</v>
       </c>
-      <c r="B143" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B143" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1">
+      <c r="A144" s="16">
         <v>7270143</v>
       </c>
-      <c r="B144" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B144" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1">
+      <c r="A145" s="16">
         <v>7270144</v>
       </c>
-      <c r="B145" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B145" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1">
+      <c r="A146" s="16">
         <v>7270145</v>
       </c>
-      <c r="B146" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B146" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1">
+      <c r="A147" s="16">
         <v>7270146</v>
       </c>
-      <c r="B147" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B147" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1">
+      <c r="A148" s="16">
         <v>7270147</v>
       </c>
-      <c r="B148" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B148" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1">
+      <c r="A149" s="16">
         <v>7270148</v>
       </c>
-      <c r="B149" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B149" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1">
+      <c r="A150" s="16">
         <v>7270149</v>
       </c>
-      <c r="B150" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B150" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1">
+      <c r="A151" s="16">
         <v>7270150</v>
       </c>
-      <c r="B151" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B151" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1">
+      <c r="A152" s="16">
         <v>7270151</v>
       </c>
-      <c r="B152" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B152" s="16" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="1">
+      <c r="A153" s="16">
         <v>7270152</v>
       </c>
-      <c r="B153" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B153" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>reinforced_alloy_ingot</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="1">
+      <c r="A154" s="16">
         <v>7270153</v>
       </c>
-      <c r="B154" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B154" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>hardened_metal</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="1">
+      <c r="A155" s="16">
         <v>7270154</v>
       </c>
-      <c r="B155" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B155" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>damascus_steel_ingot</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="1">
+      <c r="A156" s="16">
         <v>7270155</v>
       </c>
-      <c r="B156" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B156" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>steel_ingot</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="1">
+      <c r="A157" s="16">
         <v>7270156</v>
       </c>
-      <c r="B157" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B157" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>bronze_ingot</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="1">
+      <c r="A158" s="16">
         <v>7270157</v>
       </c>
-      <c r="B158" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B158" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>duralumin_ingot</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="1">
+      <c r="A159" s="16">
         <v>7270158</v>
       </c>
-      <c r="B159" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B159" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>billon_ingot</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="1">
+      <c r="A160" s="16">
         <v>7270159</v>
       </c>
-      <c r="B160" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B160" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>brass_ingot</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="1">
+      <c r="A161" s="16">
         <v>7270160</v>
       </c>
-      <c r="B161" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B161" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>aluminum_brass_ingot</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="1">
+      <c r="A162" s="16">
         <v>7270161</v>
       </c>
-      <c r="B162" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B162" s="16" t="str">
+        <f t="shared" ref="B162:B190" si="5">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>aluminum_bronze_ingot</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="1">
+      <c r="A163" s="16">
         <v>7270162</v>
       </c>
-      <c r="B163" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B163" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>corinthian_bronze_ingot</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="1">
+      <c r="A164" s="16">
         <v>7270163</v>
       </c>
-      <c r="B164" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B164" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>solder_ingot</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="1">
+      <c r="A165" s="16">
         <v>7270164</v>
       </c>
-      <c r="B165" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B165" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>synthetic_sapphire</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="1">
+      <c r="A166" s="16">
         <v>7270165</v>
       </c>
-      <c r="B166" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B166" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>synthetic_diamond</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="1">
+      <c r="A167" s="16">
         <v>7270166</v>
       </c>
-      <c r="B167" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B167" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>raw_carbonado</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="1">
+      <c r="A168" s="16">
         <v>7270167</v>
       </c>
-      <c r="B168" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B168" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>nickel_ingot</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="1">
+      <c r="A169" s="16">
         <v>7270168</v>
       </c>
-      <c r="B169" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B169" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>cobalt_ingot</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="1">
+      <c r="A170" s="16">
         <v>7270169</v>
       </c>
-      <c r="B170" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B170" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>carbonado</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="1">
+      <c r="A171" s="16">
         <v>7270170</v>
       </c>
-      <c r="B171" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B171" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>ferrosilicon</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="1">
+      <c r="A172" s="16">
         <v>7270171</v>
       </c>
-      <c r="B172" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B172" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>iron_dust</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="1">
+      <c r="A173" s="16">
         <v>7270172</v>
       </c>
-      <c r="B173" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B173" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>gold_dust</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="1">
+      <c r="A174" s="16">
         <v>7270173</v>
       </c>
-      <c r="B174" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B174" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>copper_dust</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="1">
+      <c r="A175" s="16">
         <v>7270174</v>
       </c>
-      <c r="B175" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B175" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>tin_dust</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="1">
+      <c r="A176" s="16">
         <v>7270175</v>
       </c>
-      <c r="B176" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B176" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>silver_dust</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="1">
+      <c r="A177" s="16">
         <v>7270176</v>
       </c>
-      <c r="B177" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B177" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>aluminum_dust</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="1">
+      <c r="A178" s="16">
         <v>7270177</v>
       </c>
-      <c r="B178" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B178" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>lead_dust</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="1">
+      <c r="A179" s="16">
         <v>7270178</v>
       </c>
-      <c r="B179" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B179" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>zinc_dust</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="1">
+      <c r="A180" s="16">
         <v>7270179</v>
       </c>
-      <c r="B180" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B180" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>magnesium_dust</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="1">
+      <c r="A181" s="16">
         <v>7270180</v>
       </c>
-      <c r="B181" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B181" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>copper_ingot</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="1">
+      <c r="A182" s="16">
         <v>7270181</v>
       </c>
-      <c r="B182" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B182" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>tin_ingot</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="1">
+      <c r="A183" s="16">
         <v>7270182</v>
       </c>
-      <c r="B183" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B183" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>silver_ingot</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="1">
+      <c r="A184" s="16">
         <v>7270183</v>
       </c>
-      <c r="B184" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B184" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>aluminum_ingot</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="1">
+      <c r="A185" s="16">
         <v>7270184</v>
       </c>
-      <c r="B185" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B185" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>lead_ingot</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="1">
+      <c r="A186" s="16">
         <v>7270185</v>
       </c>
-      <c r="B186" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B186" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>zinc_ingot</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="1">
+      <c r="A187" s="16">
         <v>7270186</v>
       </c>
-      <c r="B187" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B187" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>magnesium_ingot</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="1">
+      <c r="A188" s="16">
         <v>7270187</v>
       </c>
-      <c r="B188" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B188" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>sulfate</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="1">
+      <c r="A189" s="16">
         <v>7270188</v>
       </c>
-      <c r="B189" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B189" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>carbon</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="1">
+      <c r="A190" s="16">
         <v>7270189</v>
       </c>
-      <c r="B190" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B190" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>compressed_carbon</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="1">
+      <c r="A191" s="16">
         <v>7270190</v>
       </c>
-      <c r="B191" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="B191" s="16" t="str">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>carbon_chunk</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="1">
+      <c r="A192" s="16">
         <v>7270191</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="16" t="str">
+        <f t="shared" ref="B192:B255" si="6">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>gold_ingot_24_carat</v>
+      </c>
+      <c r="C192" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="D192" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="1" t="s">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="16">
+        <v>7270192</v>
+      </c>
+      <c r="B193" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_22_carat</v>
+      </c>
+      <c r="C193" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="1">
-        <v>7270192</v>
-      </c>
-      <c r="B193" s="5" t="s">
+      <c r="D193" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C193" s="5" t="s">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="16">
+        <v>7270193</v>
+      </c>
+      <c r="B194" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_20_carat</v>
+      </c>
+      <c r="C194" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D194" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="1">
-        <v>7270193</v>
-      </c>
-      <c r="B194" s="5" t="s">
+    <row r="195" spans="1:4">
+      <c r="A195" s="16">
+        <v>7270194</v>
+      </c>
+      <c r="B195" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_18_carat</v>
+      </c>
+      <c r="C195" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="D195" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D194" s="1" t="s">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="16">
+        <v>7270195</v>
+      </c>
+      <c r="B196" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_16_carat</v>
+      </c>
+      <c r="C196" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="1">
-        <v>7270194</v>
-      </c>
-      <c r="B195" s="5" t="s">
+      <c r="D196" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C195" s="5" t="s">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="16">
+        <v>7270196</v>
+      </c>
+      <c r="B197" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_14_carat</v>
+      </c>
+      <c r="C197" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D197" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="1">
-        <v>7270195</v>
-      </c>
-      <c r="B196" s="5" t="s">
+    <row r="198" spans="1:4">
+      <c r="A198" s="16">
+        <v>7270197</v>
+      </c>
+      <c r="B198" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_12_carat</v>
+      </c>
+      <c r="C198" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="D198" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D196" s="1" t="s">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="16">
+        <v>7270198</v>
+      </c>
+      <c r="B199" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_10_carat</v>
+      </c>
+      <c r="C199" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="1">
-        <v>7270196</v>
-      </c>
-      <c r="B197" s="5" t="s">
+      <c r="D199" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C197" s="5" t="s">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="16">
+        <v>7270199</v>
+      </c>
+      <c r="B200" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_8_carat</v>
+      </c>
+      <c r="C200" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D200" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="1">
-        <v>7270197</v>
-      </c>
-      <c r="B198" s="5" t="s">
+    <row r="201" spans="1:4">
+      <c r="A201" s="16">
+        <v>7270200</v>
+      </c>
+      <c r="B201" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_6_carat</v>
+      </c>
+      <c r="C201" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="D201" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D198" s="1" t="s">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="16">
+        <v>7270201</v>
+      </c>
+      <c r="B202" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gold_ingot_4_carat</v>
+      </c>
+      <c r="C202" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="1">
-        <v>7270198</v>
-      </c>
-      <c r="B199" s="5" t="s">
+      <c r="D202" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C199" s="5" t="s">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="16">
+        <v>7270202</v>
+      </c>
+      <c r="B203" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>silicon</v>
+      </c>
+      <c r="C203" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D203" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="1">
-        <v>7270199</v>
-      </c>
-      <c r="B200" s="5" t="s">
+    <row r="204" spans="1:4">
+      <c r="A204" s="16">
+        <v>7270203</v>
+      </c>
+      <c r="B204" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>gilded_iron</v>
+      </c>
+      <c r="C204" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="D204" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D200" s="1" t="s">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="16">
+        <v>7270204</v>
+      </c>
+      <c r="B205" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>synthetic_emerald</v>
+      </c>
+      <c r="C205" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="1">
-        <v>7270200</v>
-      </c>
-      <c r="B201" s="5" t="s">
+      <c r="D205" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C201" s="5" t="s">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="16">
+        <v>7270205</v>
+      </c>
+      <c r="B206" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>uranium</v>
+      </c>
+      <c r="C206" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D206" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="1">
-        <v>7270201</v>
-      </c>
-      <c r="B202" s="5" t="s">
+    <row r="207" spans="1:4">
+      <c r="A207" s="16">
+        <v>7270206</v>
+      </c>
+      <c r="B207" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>redstone_alloy_ingot</v>
+      </c>
+      <c r="C207" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="D207" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D202" s="1" t="s">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="16">
+        <v>7270207</v>
+      </c>
+      <c r="B208" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>magnesium_salt</v>
+      </c>
+      <c r="C208" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="1">
-        <v>7270202</v>
-      </c>
-      <c r="B203" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>silicon</v>
-      </c>
-      <c r="C203" s="5" t="s">
+      <c r="D208" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D203" s="1" t="s">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="16">
+        <v>7270208</v>
+      </c>
+      <c r="B209" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>bucket_of_oil</v>
+      </c>
+      <c r="C209" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="1">
-        <v>7270203</v>
-      </c>
-      <c r="B204" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>gilded_iron</v>
-      </c>
-      <c r="C204" s="5" t="s">
+      <c r="D209" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D204" s="1" t="s">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="16">
+        <v>7270209</v>
+      </c>
+      <c r="B210" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>bucket_of_fuel</v>
+      </c>
+      <c r="C210" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="1">
-        <v>7270204</v>
-      </c>
-      <c r="B205" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>synthetic_emerald</v>
-      </c>
-      <c r="C205" s="5" t="s">
+      <c r="D210" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D205" s="1" t="s">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="16">
+        <v>7270210</v>
+      </c>
+      <c r="B211" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>nether_ice</v>
+      </c>
+      <c r="C211" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="1">
-        <v>7270205</v>
-      </c>
-      <c r="B206" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>uranium</v>
-      </c>
-      <c r="C206" s="5" t="s">
+      <c r="D211" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D206" s="1" t="s">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="16">
+        <v>7270211</v>
+      </c>
+      <c r="B212" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>blistering_ingot_33</v>
+      </c>
+      <c r="C212" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="1">
-        <v>7270206</v>
-      </c>
-      <c r="B207" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>redstone_alloy_ingot</v>
-      </c>
-      <c r="C207" s="5" t="s">
+      <c r="D212" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D207" s="1" t="s">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="16">
+        <v>7270212</v>
+      </c>
+      <c r="B213" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>blistering_ingot_66</v>
+      </c>
+      <c r="C213" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="1">
-        <v>7270207</v>
-      </c>
-      <c r="B208" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>magnesium_salt</v>
-      </c>
-      <c r="C208" s="5" t="s">
+      <c r="D213" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D208" s="1" t="s">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="16">
+        <v>7270213</v>
+      </c>
+      <c r="B214" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>blistering_ingot</v>
+      </c>
+      <c r="C214" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="1">
-        <v>7270208</v>
-      </c>
-      <c r="B209" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>bucket_of_oil</v>
-      </c>
-      <c r="C209" s="5" t="s">
+      <c r="D214" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D209" s="1" t="s">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="16">
+        <v>7270214</v>
+      </c>
+      <c r="B215" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>enriched_nether_ice</v>
+      </c>
+      <c r="C215" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="1">
-        <v>7270209</v>
-      </c>
-      <c r="B210" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>bucket_of_fuel</v>
-      </c>
-      <c r="C210" s="5" t="s">
+      <c r="D215" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D210" s="1" t="s">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="16">
+        <v>7270215</v>
+      </c>
+      <c r="B216" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>neptunium</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="1">
-        <v>7270210</v>
-      </c>
-      <c r="B211" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>nether_ice</v>
-      </c>
-      <c r="C211" s="5" t="s">
+      <c r="D216" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D211" s="1" t="s">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="16">
+        <v>7270216</v>
+      </c>
+      <c r="B217" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>plutonium</v>
+      </c>
+      <c r="C217" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="1">
-        <v>7270211</v>
-      </c>
-      <c r="B212" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>blistering_ingot_33</v>
-      </c>
-      <c r="C212" s="5" t="s">
+      <c r="D217" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D212" s="1" t="s">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="16">
+        <v>7270217</v>
+      </c>
+      <c r="B218" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>boosted_uranium</v>
+      </c>
+      <c r="C218" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="1">
-        <v>7270212</v>
-      </c>
-      <c r="B213" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>blistering_ingot_66</v>
-      </c>
-      <c r="C213" s="5" t="s">
+      <c r="D218" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="1">
-        <v>7270213</v>
-      </c>
-      <c r="B214" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>blistering_ingot</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="1">
-        <v>7270214</v>
-      </c>
-      <c r="B215" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>enriched_nether_ice</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="1">
-        <v>7270215</v>
-      </c>
-      <c r="B216" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>neptunium</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="1">
-        <v>7270216</v>
-      </c>
-      <c r="B217" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>plutonium</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="1">
-        <v>7270217</v>
-      </c>
-      <c r="B218" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>boosted_uranium</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1">
+      <c r="A219" s="16">
         <v>7270218</v>
       </c>
-      <c r="B219" s="1" t="str">
-        <f t="shared" ref="B219:B282" si="3">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B219" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1">
+      <c r="A220" s="16">
         <v>7270219</v>
       </c>
-      <c r="B220" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B220" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1">
+      <c r="A221" s="16">
         <v>7270220</v>
       </c>
-      <c r="B221" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B221" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="1">
+      <c r="A222" s="16">
         <v>7270221</v>
       </c>
-      <c r="B222" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B222" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1">
+      <c r="A223" s="16">
         <v>7270222</v>
       </c>
-      <c r="B223" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B223" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1">
+      <c r="A224" s="16">
         <v>7270223</v>
       </c>
-      <c r="B224" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B224" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1">
+      <c r="A225" s="16">
         <v>7270224</v>
       </c>
-      <c r="B225" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B225" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1">
+      <c r="A226" s="16">
         <v>7270225</v>
       </c>
-      <c r="B226" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B226" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1">
+      <c r="A227" s="16">
         <v>7270226</v>
       </c>
-      <c r="B227" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B227" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="1">
+      <c r="A228" s="16">
         <v>7270227</v>
       </c>
-      <c r="B228" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B228" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1">
+      <c r="A229" s="16">
         <v>7270228</v>
       </c>
-      <c r="B229" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B229" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1">
+      <c r="A230" s="16">
         <v>7270229</v>
       </c>
-      <c r="B230" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B230" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="1">
+      <c r="A231" s="16">
         <v>7270230</v>
       </c>
-      <c r="B231" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B231" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="1">
+      <c r="A232" s="16">
         <v>7270231</v>
       </c>
-      <c r="B232" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B232" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="1">
+      <c r="A233" s="16">
         <v>7270232</v>
       </c>
-      <c r="B233" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B233" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1">
+      <c r="A234" s="16">
         <v>7270233</v>
       </c>
-      <c r="B234" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B234" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1">
+      <c r="A235" s="16">
         <v>7270234</v>
       </c>
-      <c r="B235" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B235" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="1">
+      <c r="A236" s="16">
         <v>7270235</v>
       </c>
-      <c r="B236" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B236" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="1">
+      <c r="A237" s="16">
         <v>7270236</v>
       </c>
-      <c r="B237" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B237" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="1">
+      <c r="A238" s="16">
         <v>7270237</v>
       </c>
-      <c r="B238" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B238" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="1">
+      <c r="A239" s="16">
         <v>7270238</v>
       </c>
-      <c r="B239" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B239" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1">
+      <c r="A240" s="16">
         <v>7270239</v>
       </c>
-      <c r="B240" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B240" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1">
+      <c r="A241" s="16">
         <v>7270240</v>
       </c>
-      <c r="B241" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B241" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1">
+      <c r="A242" s="16">
         <v>7270241</v>
       </c>
-      <c r="B242" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B242" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1">
+      <c r="A243" s="16">
         <v>7270242</v>
       </c>
-      <c r="B243" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B243" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="1">
+      <c r="A244" s="16">
         <v>7270243</v>
       </c>
-      <c r="B244" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B244" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1">
+      <c r="A245" s="16">
         <v>7270244</v>
       </c>
-      <c r="B245" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B245" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="1">
+      <c r="A246" s="16">
         <v>7270245</v>
       </c>
-      <c r="B246" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B246" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1">
+      <c r="A247" s="16">
         <v>7270246</v>
       </c>
-      <c r="B247" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B247" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="1">
+      <c r="A248" s="16">
         <v>7270247</v>
       </c>
-      <c r="B248" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B248" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="1">
+      <c r="A249" s="16">
         <v>7270248</v>
       </c>
-      <c r="B249" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B249" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1">
+      <c r="A250" s="16">
         <v>7270249</v>
       </c>
-      <c r="B250" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B250" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="1">
+      <c r="A251" s="16">
         <v>7270250</v>
       </c>
-      <c r="B251" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B251" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="1">
+      <c r="A252" s="16">
         <v>7270251</v>
       </c>
-      <c r="B252" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B252" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1">
+      <c r="A253" s="16">
         <v>7270252</v>
       </c>
-      <c r="B253" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B253" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1">
+      <c r="A254" s="16">
         <v>7270253</v>
       </c>
-      <c r="B254" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B254" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="1">
+      <c r="A255" s="16">
         <v>7270254</v>
       </c>
-      <c r="B255" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B255" s="16" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1">
+      <c r="A256" s="16">
         <v>7270255</v>
       </c>
-      <c r="B256" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B256" s="16" t="str">
+        <f t="shared" ref="B256:B319" si="7">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="1">
+      <c r="A257" s="16">
         <v>7270256</v>
       </c>
-      <c r="B257" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B257" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="1">
+      <c r="A258" s="16">
         <v>7270257</v>
       </c>
-      <c r="B258" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B258" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="1">
+      <c r="A259" s="16">
         <v>7270258</v>
       </c>
-      <c r="B259" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B259" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1">
+      <c r="A260" s="16">
         <v>7270259</v>
       </c>
-      <c r="B260" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B260" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="1">
+      <c r="A261" s="16">
         <v>7270260</v>
       </c>
-      <c r="B261" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B261" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="1">
+      <c r="A262" s="16">
         <v>7270261</v>
       </c>
-      <c r="B262" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B262" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1">
+      <c r="A263" s="16">
         <v>7270262</v>
       </c>
-      <c r="B263" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B263" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="1">
+      <c r="A264" s="16">
         <v>7270263</v>
       </c>
-      <c r="B264" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B264" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="1">
+      <c r="A265" s="16">
         <v>7270264</v>
       </c>
-      <c r="B265" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B265" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="1">
+      <c r="A266" s="16">
         <v>7270265</v>
       </c>
-      <c r="B266" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B266" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="1">
+      <c r="A267" s="16">
         <v>7270266</v>
       </c>
-      <c r="B267" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B267" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="1">
+      <c r="A268" s="16">
         <v>7270267</v>
       </c>
-      <c r="B268" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B268" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1">
+      <c r="A269" s="16">
         <v>7270268</v>
       </c>
-      <c r="B269" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B269" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="1">
+      <c r="A270" s="16">
         <v>7270269</v>
       </c>
-      <c r="B270" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B270" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="1">
+      <c r="A271" s="16">
         <v>7270270</v>
       </c>
-      <c r="B271" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B271" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="1">
+      <c r="A272" s="16">
         <v>7270271</v>
       </c>
-      <c r="B272" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B272" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="1">
+      <c r="A273" s="16">
         <v>7270272</v>
       </c>
-      <c r="B273" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B273" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="1">
+      <c r="A274" s="16">
         <v>7270273</v>
       </c>
-      <c r="B274" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B274" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="1">
+      <c r="A275" s="16">
         <v>7270274</v>
       </c>
-      <c r="B275" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B275" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="1">
+      <c r="A276" s="16">
         <v>7270275</v>
       </c>
-      <c r="B276" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B276" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="1">
+      <c r="A277" s="16">
         <v>7270276</v>
       </c>
-      <c r="B277" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B277" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="1">
+      <c r="A278" s="16">
         <v>7270277</v>
       </c>
-      <c r="B278" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B278" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="1">
+      <c r="A279" s="16">
         <v>7270278</v>
       </c>
-      <c r="B279" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B279" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1">
+      <c r="A280" s="16">
         <v>7270279</v>
       </c>
-      <c r="B280" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B280" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="1">
+      <c r="A281" s="16">
         <v>7270280</v>
       </c>
-      <c r="B281" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B281" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1">
+      <c r="A282" s="16">
         <v>7270281</v>
       </c>
-      <c r="B282" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="B282" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="1">
+      <c r="A283" s="16">
         <v>7270282</v>
       </c>
-      <c r="B283" s="1" t="str">
-        <f t="shared" ref="B283:B346" si="4">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B283" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1">
+      <c r="A284" s="16">
         <v>7270283</v>
       </c>
-      <c r="B284" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B284" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="1">
+      <c r="A285" s="16">
         <v>7270284</v>
       </c>
-      <c r="B285" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B285" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="1">
+      <c r="A286" s="16">
         <v>7270285</v>
       </c>
-      <c r="B286" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B286" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="1">
+      <c r="A287" s="16">
         <v>7270286</v>
       </c>
-      <c r="B287" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B287" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="1">
+      <c r="A288" s="16">
         <v>7270287</v>
       </c>
-      <c r="B288" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B288" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="1">
+      <c r="A289" s="16">
         <v>7270288</v>
       </c>
-      <c r="B289" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B289" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="1">
+      <c r="A290" s="16">
         <v>7270289</v>
       </c>
-      <c r="B290" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B290" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="1">
+      <c r="A291" s="16">
         <v>7270290</v>
       </c>
-      <c r="B291" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B291" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="1">
+      <c r="A292" s="16">
         <v>7270291</v>
       </c>
-      <c r="B292" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B292" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="1">
+      <c r="A293" s="16">
         <v>7270292</v>
       </c>
-      <c r="B293" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B293" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="1">
+      <c r="A294" s="16">
         <v>7270293</v>
       </c>
-      <c r="B294" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B294" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="1">
+      <c r="A295" s="16">
         <v>7270294</v>
       </c>
-      <c r="B295" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B295" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="1">
+      <c r="A296" s="16">
         <v>7270295</v>
       </c>
-      <c r="B296" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B296" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="1">
+      <c r="A297" s="16">
         <v>7270296</v>
       </c>
-      <c r="B297" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B297" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="1">
+      <c r="A298" s="16">
         <v>7270297</v>
       </c>
-      <c r="B298" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B298" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="1">
+      <c r="A299" s="16">
         <v>7270298</v>
       </c>
-      <c r="B299" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B299" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="1">
+      <c r="A300" s="16">
         <v>7270299</v>
       </c>
-      <c r="B300" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B300" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="1">
+      <c r="A301" s="16">
         <v>7270300</v>
       </c>
-      <c r="B301" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B301" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="1">
+      <c r="A302" s="16">
         <v>7270301</v>
       </c>
-      <c r="B302" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B302" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="1">
+      <c r="A303" s="16">
         <v>7270302</v>
       </c>
-      <c r="B303" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B303" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="1">
+      <c r="A304" s="16">
         <v>7270303</v>
       </c>
-      <c r="B304" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B304" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="1">
+      <c r="A305" s="16">
         <v>7270304</v>
       </c>
-      <c r="B305" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B305" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="1">
+      <c r="A306" s="16">
         <v>7270305</v>
       </c>
-      <c r="B306" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B306" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="1">
+      <c r="A307" s="16">
         <v>7270306</v>
       </c>
-      <c r="B307" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B307" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="1">
+      <c r="A308" s="16">
         <v>7270307</v>
       </c>
-      <c r="B308" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B308" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="1">
+      <c r="A309" s="16">
         <v>7270308</v>
       </c>
-      <c r="B309" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B309" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="1">
+      <c r="A310" s="16">
         <v>7270309</v>
       </c>
-      <c r="B310" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B310" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="1">
+      <c r="A311" s="16">
         <v>7270310</v>
       </c>
-      <c r="B311" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B311" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="1">
+      <c r="A312" s="16">
         <v>7270311</v>
       </c>
-      <c r="B312" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B312" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="1">
+      <c r="A313" s="16">
         <v>7270312</v>
       </c>
-      <c r="B313" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B313" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="1">
+      <c r="A314" s="16">
         <v>7270313</v>
       </c>
-      <c r="B314" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B314" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="1">
+      <c r="A315" s="16">
         <v>7270314</v>
       </c>
-      <c r="B315" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B315" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="1">
+      <c r="A316" s="16">
         <v>7270315</v>
       </c>
-      <c r="B316" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B316" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="1">
+      <c r="A317" s="16">
         <v>7270316</v>
       </c>
-      <c r="B317" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B317" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="1">
+      <c r="A318" s="16">
         <v>7270317</v>
       </c>
-      <c r="B318" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B318" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="1">
+      <c r="A319" s="16">
         <v>7270318</v>
       </c>
-      <c r="B319" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B319" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="1">
+      <c r="A320" s="16">
         <v>7270319</v>
       </c>
-      <c r="B320" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B320" s="16" t="str">
+        <f t="shared" ref="B320:B383" si="8">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="1">
+      <c r="A321" s="16">
         <v>7270320</v>
       </c>
-      <c r="B321" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B321" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="1">
+      <c r="A322" s="16">
         <v>7270321</v>
       </c>
-      <c r="B322" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B322" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="1">
+      <c r="A323" s="16">
         <v>7270322</v>
       </c>
-      <c r="B323" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B323" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="1">
+      <c r="A324" s="16">
         <v>7270323</v>
       </c>
-      <c r="B324" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B324" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="1">
+      <c r="A325" s="16">
         <v>7270324</v>
       </c>
-      <c r="B325" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B325" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="1">
+      <c r="A326" s="16">
         <v>7270325</v>
       </c>
-      <c r="B326" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B326" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="1">
+      <c r="A327" s="16">
         <v>7270326</v>
       </c>
-      <c r="B327" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B327" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="1">
+      <c r="A328" s="16">
         <v>7270327</v>
       </c>
-      <c r="B328" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B328" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="1">
+      <c r="A329" s="16">
         <v>7270328</v>
       </c>
-      <c r="B329" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B329" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="1">
+      <c r="A330" s="16">
         <v>7270329</v>
       </c>
-      <c r="B330" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B330" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="1">
+      <c r="A331" s="16">
         <v>7270330</v>
       </c>
-      <c r="B331" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B331" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="1">
+      <c r="A332" s="16">
         <v>7270331</v>
       </c>
-      <c r="B332" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B332" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="1">
+      <c r="A333" s="16">
         <v>7270332</v>
       </c>
-      <c r="B333" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B333" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="1">
+      <c r="A334" s="16">
         <v>7270333</v>
       </c>
-      <c r="B334" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B334" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="1">
+      <c r="A335" s="16">
         <v>7270334</v>
       </c>
-      <c r="B335" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B335" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="1">
+      <c r="A336" s="16">
         <v>7270335</v>
       </c>
-      <c r="B336" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B336" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="1">
+      <c r="A337" s="16">
         <v>7270336</v>
       </c>
-      <c r="B337" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B337" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="1">
+      <c r="A338" s="16">
         <v>7270337</v>
       </c>
-      <c r="B338" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B338" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="1">
+      <c r="A339" s="16">
         <v>7270338</v>
       </c>
-      <c r="B339" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B339" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="1">
+      <c r="A340" s="16">
         <v>7270339</v>
       </c>
-      <c r="B340" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B340" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="1">
+      <c r="A341" s="16">
         <v>7270340</v>
       </c>
-      <c r="B341" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B341" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="1">
+      <c r="A342" s="16">
         <v>7270341</v>
       </c>
-      <c r="B342" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B342" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="1">
+      <c r="A343" s="16">
         <v>7270342</v>
       </c>
-      <c r="B343" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B343" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="1">
+      <c r="A344" s="16">
         <v>7270343</v>
       </c>
-      <c r="B344" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B344" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="1">
+      <c r="A345" s="16">
         <v>7270344</v>
       </c>
-      <c r="B345" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B345" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="1">
+      <c r="A346" s="16">
         <v>7270345</v>
       </c>
-      <c r="B346" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="B346" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="1">
+      <c r="A347" s="16">
         <v>7270346</v>
       </c>
-      <c r="B347" s="1" t="str">
-        <f t="shared" ref="B347:B410" si="5">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B347" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="1">
+      <c r="A348" s="16">
         <v>7270347</v>
       </c>
-      <c r="B348" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B348" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="1">
+      <c r="A349" s="16">
         <v>7270348</v>
       </c>
-      <c r="B349" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B349" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1">
+      <c r="A350" s="16">
         <v>7270349</v>
       </c>
-      <c r="B350" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B350" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="1">
+      <c r="A351" s="16">
         <v>7270350</v>
       </c>
-      <c r="B351" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B351" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="1">
+      <c r="A352" s="16">
         <v>7270351</v>
       </c>
-      <c r="B352" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B352" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="1">
+      <c r="A353" s="16">
         <v>7270352</v>
       </c>
-      <c r="B353" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B353" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="1">
+      <c r="A354" s="16">
         <v>7270353</v>
       </c>
-      <c r="B354" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B354" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="1">
+      <c r="A355" s="16">
         <v>7270354</v>
       </c>
-      <c r="B355" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B355" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="1">
+      <c r="A356" s="16">
         <v>7270355</v>
       </c>
-      <c r="B356" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B356" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="1">
+      <c r="A357" s="16">
         <v>7270356</v>
       </c>
-      <c r="B357" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B357" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="1">
+      <c r="A358" s="16">
         <v>7270357</v>
       </c>
-      <c r="B358" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B358" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="1">
+      <c r="A359" s="16">
         <v>7270358</v>
       </c>
-      <c r="B359" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B359" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="1">
+      <c r="A360" s="16">
         <v>7270359</v>
       </c>
-      <c r="B360" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B360" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="1">
+      <c r="A361" s="16">
         <v>7270360</v>
       </c>
-      <c r="B361" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B361" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="1">
+      <c r="A362" s="16">
         <v>7270361</v>
       </c>
-      <c r="B362" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B362" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="1">
+      <c r="A363" s="16">
         <v>7270362</v>
       </c>
-      <c r="B363" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B363" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="1">
+      <c r="A364" s="16">
         <v>7270363</v>
       </c>
-      <c r="B364" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B364" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="1">
+      <c r="A365" s="16">
         <v>7270364</v>
       </c>
-      <c r="B365" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B365" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="1">
+      <c r="A366" s="16">
         <v>7270365</v>
       </c>
-      <c r="B366" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B366" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="1">
+      <c r="A367" s="16">
         <v>7270366</v>
       </c>
-      <c r="B367" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B367" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="1">
+      <c r="A368" s="16">
         <v>7270367</v>
       </c>
-      <c r="B368" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B368" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="1">
+      <c r="A369" s="16">
         <v>7270368</v>
       </c>
-      <c r="B369" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B369" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="1">
+      <c r="A370" s="16">
         <v>7270369</v>
       </c>
-      <c r="B370" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B370" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="1">
+      <c r="A371" s="16">
         <v>7270370</v>
       </c>
-      <c r="B371" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B371" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="1">
+      <c r="A372" s="16">
         <v>7270371</v>
       </c>
-      <c r="B372" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B372" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="1">
+      <c r="A373" s="16">
         <v>7270372</v>
       </c>
-      <c r="B373" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B373" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="1">
+      <c r="A374" s="16">
         <v>7270373</v>
       </c>
-      <c r="B374" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B374" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="1">
+      <c r="A375" s="16">
         <v>7270374</v>
       </c>
-      <c r="B375" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B375" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="1">
+      <c r="A376" s="16">
         <v>7270375</v>
       </c>
-      <c r="B376" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B376" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="1">
+      <c r="A377" s="16">
         <v>7270376</v>
       </c>
-      <c r="B377" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B377" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="1">
+      <c r="A378" s="16">
         <v>7270377</v>
       </c>
-      <c r="B378" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B378" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="1">
+      <c r="A379" s="16">
         <v>7270378</v>
       </c>
-      <c r="B379" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B379" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="1">
+      <c r="A380" s="16">
         <v>7270379</v>
       </c>
-      <c r="B380" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B380" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="1">
+      <c r="A381" s="16">
         <v>7270380</v>
       </c>
-      <c r="B381" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B381" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="1">
+      <c r="A382" s="16">
         <v>7270381</v>
       </c>
-      <c r="B382" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B382" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="1">
+      <c r="A383" s="16">
         <v>7270382</v>
       </c>
-      <c r="B383" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B383" s="16" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="1">
+      <c r="A384" s="16">
         <v>7270383</v>
       </c>
-      <c r="B384" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B384" s="16" t="str">
+        <f t="shared" ref="B384:B425" si="9">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="1">
+      <c r="A385" s="16">
         <v>7270384</v>
       </c>
-      <c r="B385" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B385" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="1">
+      <c r="A386" s="16">
         <v>7270385</v>
       </c>
-      <c r="B386" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B386" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="1">
+      <c r="A387" s="16">
         <v>7270386</v>
       </c>
-      <c r="B387" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B387" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="1">
+      <c r="A388" s="16">
         <v>7270387</v>
       </c>
-      <c r="B388" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B388" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="1">
+      <c r="A389" s="16">
         <v>7270388</v>
       </c>
-      <c r="B389" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B389" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="1">
+      <c r="A390" s="16">
         <v>7270389</v>
       </c>
-      <c r="B390" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B390" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="1">
+      <c r="A391" s="16">
         <v>7270390</v>
       </c>
-      <c r="B391" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B391" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="1">
+      <c r="A392" s="16">
         <v>7270391</v>
       </c>
-      <c r="B392" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B392" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="1">
+      <c r="A393" s="16">
         <v>7270392</v>
       </c>
-      <c r="B393" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B393" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="1">
+      <c r="A394" s="16">
         <v>7270393</v>
       </c>
-      <c r="B394" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B394" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="1">
+      <c r="A395" s="16">
         <v>7270394</v>
       </c>
-      <c r="B395" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B395" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="1">
+      <c r="A396" s="16">
         <v>7270395</v>
       </c>
-      <c r="B396" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B396" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="1">
+      <c r="A397" s="16">
         <v>7270396</v>
       </c>
-      <c r="B397" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B397" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="1">
+      <c r="A398" s="16">
         <v>7270397</v>
       </c>
-      <c r="B398" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B398" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="1">
+      <c r="A399" s="16">
         <v>7270398</v>
       </c>
-      <c r="B399" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B399" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="1">
+      <c r="A400" s="16">
         <v>7270399</v>
       </c>
-      <c r="B400" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B400" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="1">
+      <c r="A401" s="16">
         <v>7270400</v>
       </c>
-      <c r="B401" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B401" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="1">
+      <c r="A402" s="16">
         <v>7270401</v>
       </c>
-      <c r="B402" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B402" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="1">
+      <c r="A403" s="16">
         <v>7270402</v>
       </c>
-      <c r="B403" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B403" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="1">
+      <c r="A404" s="16">
         <v>7270403</v>
       </c>
-      <c r="B404" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B404" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="1">
+      <c r="A405" s="16">
         <v>7270404</v>
       </c>
-      <c r="B405" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B405" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="1">
+      <c r="A406" s="16">
         <v>7270405</v>
       </c>
-      <c r="B406" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B406" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="1">
+      <c r="A407" s="16">
         <v>7270406</v>
       </c>
-      <c r="B407" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B407" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="1">
+      <c r="A408" s="16">
         <v>7270407</v>
       </c>
-      <c r="B408" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B408" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="1">
+      <c r="A409" s="16">
         <v>7270408</v>
       </c>
-      <c r="B409" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B409" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="1">
+      <c r="A410" s="16">
         <v>7270409</v>
       </c>
-      <c r="B410" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="B410" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="1">
+      <c r="A411" s="16">
         <v>7270410</v>
       </c>
-      <c r="B411" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B411" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="1">
+      <c r="A412" s="16">
         <v>7270411</v>
       </c>
-      <c r="B412" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B412" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="1">
+      <c r="A413" s="16">
         <v>7270412</v>
       </c>
-      <c r="B413" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B413" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="1">
+      <c r="A414" s="16">
         <v>7270413</v>
       </c>
-      <c r="B414" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B414" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="1">
+      <c r="A415" s="16">
         <v>7270414</v>
       </c>
-      <c r="B415" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B415" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="1">
+      <c r="A416" s="16">
         <v>7270415</v>
       </c>
-      <c r="B416" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B416" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="1">
+      <c r="A417" s="16">
         <v>7270416</v>
       </c>
-      <c r="B417" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B417" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="1">
+      <c r="A418" s="16">
         <v>7270417</v>
       </c>
-      <c r="B418" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B418" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="1">
+      <c r="A419" s="16">
         <v>7270418</v>
       </c>
-      <c r="B419" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B419" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="1">
+      <c r="A420" s="16">
         <v>7270419</v>
       </c>
-      <c r="B420" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B420" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="1">
+      <c r="A421" s="16">
         <v>7270420</v>
       </c>
-      <c r="B421" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B421" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="1">
+      <c r="A422" s="16">
         <v>7270421</v>
       </c>
-      <c r="B422" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B422" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="1">
+      <c r="A423" s="16">
         <v>7270422</v>
       </c>
-      <c r="B423" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B423" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="1">
+      <c r="A424" s="16">
         <v>7270423</v>
       </c>
-      <c r="B424" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B424" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="1">
+      <c r="A425" s="16">
         <v>7270424</v>
       </c>
-      <c r="B425" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
+      <c r="B425" s="16" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5665,55 +6000,909 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="29.7" defaultRowHeight="22" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="20.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7" style="1"/>
+    <col min="2" max="16384" width="29.7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A1" s="1">
-        <v>7270191</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-",""),")",""),"(","")," ","_")))</f>
-        <v>gold_ingot_24carat</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" ht="40" customHeight="1" spans="1:5">
-      <c r="A2" s="1">
-        <v>7270191</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8" t="s">
         <v>148</v>
       </c>
+      <c r="E32" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:5">
+      <c r="A56" s="2"/>
+      <c r="B56" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:5">
+      <c r="A57" s="2"/>
+      <c r="B57" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:5">
+      <c r="A58" s="2"/>
+      <c r="B58" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:5">
+      <c r="A59" s="2"/>
+      <c r="B59" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
+      <c r="A60" s="2"/>
+      <c r="B60" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:5">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:5">
+      <c r="A70" s="2"/>
+      <c r="B70" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:5">
+      <c r="A71" s="2"/>
+      <c r="B71" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:5">
+      <c r="A72" s="2"/>
+      <c r="B72" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:5">
+      <c r="A73" s="2"/>
+      <c r="B73" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:5">
+      <c r="A74" s="2"/>
+      <c r="B74" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:5">
+      <c r="A75" s="2"/>
+      <c r="B75" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:5">
+      <c r="A76" s="2"/>
+      <c r="B76" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:5">
+      <c r="A77" s="2"/>
+      <c r="B77" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:5">
+      <c r="A78" s="2"/>
+      <c r="B78" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:5">
+      <c r="A79" s="2"/>
+      <c r="B79" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:5">
+      <c r="A80" s="2"/>
+      <c r="B80" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:5">
+      <c r="A81" s="2"/>
+      <c r="B81" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:5">
+      <c r="A82" s="2"/>
+      <c r="B82" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:5">
+      <c r="A83" s="2"/>
+      <c r="B83" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:5">
+      <c r="A84" s="2"/>
+      <c r="B84" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:5">
+      <c r="A85" s="2"/>
+      <c r="B85" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:5">
+      <c r="A86" s="2"/>
+      <c r="B86" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:5">
+      <c r="A87" s="2"/>
+      <c r="B87" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:5">
+      <c r="A88" s="2"/>
+      <c r="B88" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:5">
+      <c r="A89" s="2"/>
+      <c r="B89" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="A42:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A69:A89"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="更多的合成 (Crafting++)" tooltip="https://www.mcmod.cn/class/1297.html"/>
+    <hyperlink ref="D1" r:id="rId2" display="RF的原版工艺 (RFTR's Craft)" tooltip="https://www.mcmod.cn/class/1548.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/doc/物品ID.xlsx
+++ b/doc/物品ID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="255">
   <si>
     <t>CustomModelData</t>
   </si>
@@ -29,10 +29,40 @@
     <t>Item's Name</t>
   </si>
   <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>对应物品ID</t>
+  </si>
+  <si>
+    <t>物品Lore行数</t>
+  </si>
+  <si>
+    <t>Lore1</t>
+  </si>
+  <si>
+    <t>Lore2</t>
+  </si>
+  <si>
+    <t>Lore3</t>
+  </si>
+  <si>
+    <t>Lore4</t>
+  </si>
+  <si>
+    <t>Lore5</t>
+  </si>
+  <si>
     <t>强化合金锭</t>
   </si>
   <si>
     <t>Reinforced Alloy Ingot</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>firework_star</t>
   </si>
   <si>
     <t>硬化金属</t>
@@ -757,10 +787,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -784,17 +814,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,14 +826,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,14 +845,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -848,7 +861,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,13 +884,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -891,6 +897,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -899,21 +927,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -930,37 +960,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,7 +1002,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,31 +1032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,13 +1050,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,13 +1086,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,25 +1128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,32 +1154,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,13 +1189,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,6 +1224,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,15 +1251,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1229,10 +1259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1241,137 +1271,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,41 +1411,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1745,4252 +1742,4675 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D425"/>
+  <dimension ref="A1:L425"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153:C218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.775" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="32.175" style="16" customWidth="1"/>
-    <col min="6" max="6" width="25.5333333333333" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="15.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.6916666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.7416666666667" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.9083333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.325" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.8416666666667" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:12">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16">
+      <c r="A2" s="5">
         <v>7270001</v>
       </c>
-      <c r="B2" s="16" t="str">
+      <c r="B2" s="5" t="str">
         <f t="shared" ref="B2:B33" si="0">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16">
+      <c r="A3" s="5">
         <v>7270002</v>
       </c>
-      <c r="B3" s="16" t="str">
+      <c r="B3" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16">
+      <c r="A4" s="5">
         <v>7270003</v>
       </c>
-      <c r="B4" s="16" t="str">
+      <c r="B4" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16">
+      <c r="A5" s="5">
         <v>7270004</v>
       </c>
-      <c r="B5" s="16" t="str">
+      <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16">
+      <c r="A6" s="5">
         <v>7270005</v>
       </c>
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16">
+      <c r="A7" s="5">
         <v>7270006</v>
       </c>
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16">
+      <c r="A8" s="5">
         <v>7270007</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="16">
+      <c r="A9" s="5">
         <v>7270008</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="16">
+      <c r="A10" s="5">
         <v>7270009</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16">
+      <c r="A11" s="5">
         <v>7270010</v>
       </c>
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16">
+      <c r="A12" s="5">
         <v>7270011</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16">
+      <c r="A13" s="5">
         <v>7270012</v>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="16">
+      <c r="A14" s="5">
         <v>7270013</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="16">
+      <c r="A15" s="5">
         <v>7270014</v>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="16">
+      <c r="A16" s="5">
         <v>7270015</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="16">
+      <c r="A17" s="5">
         <v>7270016</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16">
+      <c r="A18" s="5">
         <v>7270017</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="16">
+      <c r="A19" s="5">
         <v>7270018</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16">
+      <c r="A20" s="5">
         <v>7270019</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16">
+      <c r="A21" s="5">
         <v>7270020</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16">
+      <c r="A22" s="5">
         <v>7270021</v>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16">
+      <c r="A23" s="5">
         <v>7270022</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="16">
+      <c r="A24" s="5">
         <v>7270023</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="16">
+      <c r="A25" s="5">
         <v>7270024</v>
       </c>
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="16">
+      <c r="A26" s="5">
         <v>7270025</v>
       </c>
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16">
+      <c r="A27" s="5">
         <v>7270026</v>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16">
+      <c r="A28" s="5">
         <v>7270027</v>
       </c>
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="16">
+      <c r="A29" s="5">
         <v>7270028</v>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="16">
+      <c r="A30" s="5">
         <v>7270029</v>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="16">
+      <c r="A31" s="5">
         <v>7270030</v>
       </c>
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="16">
+      <c r="A32" s="5">
         <v>7270031</v>
       </c>
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="16">
+      <c r="A33" s="5">
         <v>7270032</v>
       </c>
-      <c r="B33" s="16" t="str">
+      <c r="B33" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="16">
+      <c r="A34" s="5">
         <v>7270033</v>
       </c>
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="5" t="str">
         <f t="shared" ref="B34:B65" si="1">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="16">
+      <c r="A35" s="5">
         <v>7270034</v>
       </c>
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="16">
+      <c r="A36" s="5">
         <v>7270035</v>
       </c>
-      <c r="B36" s="16" t="str">
+      <c r="B36" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="16">
+      <c r="A37" s="5">
         <v>7270036</v>
       </c>
-      <c r="B37" s="16" t="str">
+      <c r="B37" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="16">
+      <c r="A38" s="5">
         <v>7270037</v>
       </c>
-      <c r="B38" s="16" t="str">
+      <c r="B38" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="16">
+      <c r="A39" s="5">
         <v>7270038</v>
       </c>
-      <c r="B39" s="16" t="str">
+      <c r="B39" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="16">
+      <c r="A40" s="5">
         <v>7270039</v>
       </c>
-      <c r="B40" s="16" t="str">
+      <c r="B40" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="16">
+      <c r="A41" s="5">
         <v>7270040</v>
       </c>
-      <c r="B41" s="16" t="str">
+      <c r="B41" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="16">
+      <c r="A42" s="5">
         <v>7270041</v>
       </c>
-      <c r="B42" s="16" t="str">
+      <c r="B42" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="16">
+      <c r="A43" s="5">
         <v>7270042</v>
       </c>
-      <c r="B43" s="16" t="str">
+      <c r="B43" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="16">
+      <c r="A44" s="5">
         <v>7270043</v>
       </c>
-      <c r="B44" s="16" t="str">
+      <c r="B44" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="16">
+      <c r="A45" s="5">
         <v>7270044</v>
       </c>
-      <c r="B45" s="16" t="str">
+      <c r="B45" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="16">
+      <c r="A46" s="5">
         <v>7270045</v>
       </c>
-      <c r="B46" s="16" t="str">
+      <c r="B46" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="16">
+      <c r="A47" s="5">
         <v>7270046</v>
       </c>
-      <c r="B47" s="16" t="str">
+      <c r="B47" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="16">
+      <c r="A48" s="5">
         <v>7270047</v>
       </c>
-      <c r="B48" s="16" t="str">
+      <c r="B48" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="16">
+      <c r="A49" s="5">
         <v>7270048</v>
       </c>
-      <c r="B49" s="16" t="str">
+      <c r="B49" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="16">
+      <c r="A50" s="5">
         <v>7270049</v>
       </c>
-      <c r="B50" s="16" t="str">
+      <c r="B50" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="16">
+      <c r="A51" s="5">
         <v>7270050</v>
       </c>
-      <c r="B51" s="16" t="str">
+      <c r="B51" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="16">
+      <c r="A52" s="5">
         <v>7270051</v>
       </c>
-      <c r="B52" s="16" t="str">
+      <c r="B52" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="16">
+      <c r="A53" s="5">
         <v>7270052</v>
       </c>
-      <c r="B53" s="16" t="str">
+      <c r="B53" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="16">
+      <c r="A54" s="5">
         <v>7270053</v>
       </c>
-      <c r="B54" s="16" t="str">
+      <c r="B54" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="16">
+      <c r="A55" s="5">
         <v>7270054</v>
       </c>
-      <c r="B55" s="16" t="str">
+      <c r="B55" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="16">
+      <c r="A56" s="5">
         <v>7270055</v>
       </c>
-      <c r="B56" s="16" t="str">
+      <c r="B56" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="16">
+      <c r="A57" s="5">
         <v>7270056</v>
       </c>
-      <c r="B57" s="16" t="str">
+      <c r="B57" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="16">
+      <c r="A58" s="5">
         <v>7270057</v>
       </c>
-      <c r="B58" s="16" t="str">
+      <c r="B58" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="16">
+      <c r="A59" s="5">
         <v>7270058</v>
       </c>
-      <c r="B59" s="16" t="str">
+      <c r="B59" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="16">
+      <c r="A60" s="5">
         <v>7270059</v>
       </c>
-      <c r="B60" s="16" t="str">
+      <c r="B60" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="16">
+      <c r="A61" s="5">
         <v>7270060</v>
       </c>
-      <c r="B61" s="16" t="str">
+      <c r="B61" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="16">
+      <c r="A62" s="5">
         <v>7270061</v>
       </c>
-      <c r="B62" s="16" t="str">
+      <c r="B62" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="16">
+      <c r="A63" s="5">
         <v>7270062</v>
       </c>
-      <c r="B63" s="16" t="str">
+      <c r="B63" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="16">
+      <c r="A64" s="5">
         <v>7270063</v>
       </c>
-      <c r="B64" s="16" t="str">
+      <c r="B64" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="16">
+      <c r="A65" s="5">
         <v>7270064</v>
       </c>
-      <c r="B65" s="16" t="str">
+      <c r="B65" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="16">
+      <c r="A66" s="5">
         <v>7270065</v>
       </c>
-      <c r="B66" s="16" t="str">
+      <c r="B66" s="5" t="str">
         <f t="shared" ref="B66:B97" si="2">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="16">
+      <c r="A67" s="5">
         <v>7270066</v>
       </c>
-      <c r="B67" s="16" t="str">
+      <c r="B67" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="16">
+      <c r="A68" s="5">
         <v>7270067</v>
       </c>
-      <c r="B68" s="16" t="str">
+      <c r="B68" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="16">
+      <c r="A69" s="5">
         <v>7270068</v>
       </c>
-      <c r="B69" s="16" t="str">
+      <c r="B69" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="16">
+      <c r="A70" s="5">
         <v>7270069</v>
       </c>
-      <c r="B70" s="16" t="str">
+      <c r="B70" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="16">
+      <c r="A71" s="5">
         <v>7270070</v>
       </c>
-      <c r="B71" s="16" t="str">
+      <c r="B71" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="16">
+      <c r="A72" s="5">
         <v>7270071</v>
       </c>
-      <c r="B72" s="16" t="str">
+      <c r="B72" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="16">
+      <c r="A73" s="5">
         <v>7270072</v>
       </c>
-      <c r="B73" s="16" t="str">
+      <c r="B73" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="16">
+      <c r="A74" s="5">
         <v>7270073</v>
       </c>
-      <c r="B74" s="16" t="str">
+      <c r="B74" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="16">
+      <c r="A75" s="5">
         <v>7270074</v>
       </c>
-      <c r="B75" s="16" t="str">
+      <c r="B75" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="16">
+      <c r="A76" s="5">
         <v>7270075</v>
       </c>
-      <c r="B76" s="16" t="str">
+      <c r="B76" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="16">
+      <c r="A77" s="5">
         <v>7270076</v>
       </c>
-      <c r="B77" s="16" t="str">
+      <c r="B77" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="16">
+      <c r="A78" s="5">
         <v>7270077</v>
       </c>
-      <c r="B78" s="16" t="str">
+      <c r="B78" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="16">
+      <c r="A79" s="5">
         <v>7270078</v>
       </c>
-      <c r="B79" s="16" t="str">
+      <c r="B79" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="16">
+      <c r="A80" s="5">
         <v>7270079</v>
       </c>
-      <c r="B80" s="16" t="str">
+      <c r="B80" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="16">
+      <c r="A81" s="5">
         <v>7270080</v>
       </c>
-      <c r="B81" s="16" t="str">
+      <c r="B81" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="16">
+      <c r="A82" s="5">
         <v>7270081</v>
       </c>
-      <c r="B82" s="16" t="str">
+      <c r="B82" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="16">
+      <c r="A83" s="5">
         <v>7270082</v>
       </c>
-      <c r="B83" s="16" t="str">
+      <c r="B83" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="16">
+      <c r="A84" s="5">
         <v>7270083</v>
       </c>
-      <c r="B84" s="16" t="str">
+      <c r="B84" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="16">
+      <c r="A85" s="5">
         <v>7270084</v>
       </c>
-      <c r="B85" s="16" t="str">
+      <c r="B85" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="16">
+      <c r="A86" s="5">
         <v>7270085</v>
       </c>
-      <c r="B86" s="16" t="str">
+      <c r="B86" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="16">
+      <c r="A87" s="5">
         <v>7270086</v>
       </c>
-      <c r="B87" s="16" t="str">
+      <c r="B87" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="16">
+      <c r="A88" s="5">
         <v>7270087</v>
       </c>
-      <c r="B88" s="16" t="str">
+      <c r="B88" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="16">
+      <c r="A89" s="5">
         <v>7270088</v>
       </c>
-      <c r="B89" s="16" t="str">
+      <c r="B89" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="16">
+      <c r="A90" s="5">
         <v>7270089</v>
       </c>
-      <c r="B90" s="16" t="str">
+      <c r="B90" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="16">
+      <c r="A91" s="5">
         <v>7270090</v>
       </c>
-      <c r="B91" s="16" t="str">
+      <c r="B91" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="16">
+      <c r="A92" s="5">
         <v>7270091</v>
       </c>
-      <c r="B92" s="16" t="str">
+      <c r="B92" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="16">
+      <c r="A93" s="5">
         <v>7270092</v>
       </c>
-      <c r="B93" s="16" t="str">
+      <c r="B93" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="16">
+      <c r="A94" s="5">
         <v>7270093</v>
       </c>
-      <c r="B94" s="16" t="str">
+      <c r="B94" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="16">
+      <c r="A95" s="5">
         <v>7270094</v>
       </c>
-      <c r="B95" s="16" t="str">
+      <c r="B95" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="16">
+      <c r="A96" s="5">
         <v>7270095</v>
       </c>
-      <c r="B96" s="16" t="str">
+      <c r="B96" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="16">
+      <c r="A97" s="5">
         <v>7270096</v>
       </c>
-      <c r="B97" s="16" t="str">
+      <c r="B97" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="16">
+      <c r="A98" s="5">
         <v>7270097</v>
       </c>
-      <c r="B98" s="16" t="str">
+      <c r="B98" s="5" t="str">
         <f t="shared" ref="B98:B129" si="3">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="16">
+      <c r="A99" s="5">
         <v>7270098</v>
       </c>
-      <c r="B99" s="16" t="str">
+      <c r="B99" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="16">
+      <c r="A100" s="5">
         <v>7270099</v>
       </c>
-      <c r="B100" s="16" t="str">
+      <c r="B100" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="16">
+      <c r="A101" s="5">
         <v>7270100</v>
       </c>
-      <c r="B101" s="16" t="str">
+      <c r="B101" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="16">
+      <c r="A102" s="5">
         <v>7270101</v>
       </c>
-      <c r="B102" s="16" t="str">
+      <c r="B102" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="16">
+      <c r="A103" s="5">
         <v>7270102</v>
       </c>
-      <c r="B103" s="16" t="str">
+      <c r="B103" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="16">
+      <c r="A104" s="5">
         <v>7270103</v>
       </c>
-      <c r="B104" s="16" t="str">
+      <c r="B104" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="16">
+      <c r="A105" s="5">
         <v>7270104</v>
       </c>
-      <c r="B105" s="16" t="str">
+      <c r="B105" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="16">
+      <c r="A106" s="5">
         <v>7270105</v>
       </c>
-      <c r="B106" s="16" t="str">
+      <c r="B106" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="16">
+      <c r="A107" s="5">
         <v>7270106</v>
       </c>
-      <c r="B107" s="16" t="str">
+      <c r="B107" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="16">
+      <c r="A108" s="5">
         <v>7270107</v>
       </c>
-      <c r="B108" s="16" t="str">
+      <c r="B108" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="16">
+      <c r="A109" s="5">
         <v>7270108</v>
       </c>
-      <c r="B109" s="16" t="str">
+      <c r="B109" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="16">
+      <c r="A110" s="5">
         <v>7270109</v>
       </c>
-      <c r="B110" s="16" t="str">
+      <c r="B110" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="16">
+      <c r="A111" s="5">
         <v>7270110</v>
       </c>
-      <c r="B111" s="16" t="str">
+      <c r="B111" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="16">
+      <c r="A112" s="5">
         <v>7270111</v>
       </c>
-      <c r="B112" s="16" t="str">
+      <c r="B112" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="16">
+      <c r="A113" s="5">
         <v>7270112</v>
       </c>
-      <c r="B113" s="16" t="str">
+      <c r="B113" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="16">
+      <c r="A114" s="5">
         <v>7270113</v>
       </c>
-      <c r="B114" s="16" t="str">
+      <c r="B114" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="16">
+      <c r="A115" s="5">
         <v>7270114</v>
       </c>
-      <c r="B115" s="16" t="str">
+      <c r="B115" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="16">
+      <c r="A116" s="5">
         <v>7270115</v>
       </c>
-      <c r="B116" s="16" t="str">
+      <c r="B116" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="16">
+      <c r="A117" s="5">
         <v>7270116</v>
       </c>
-      <c r="B117" s="16" t="str">
+      <c r="B117" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="16">
+      <c r="A118" s="5">
         <v>7270117</v>
       </c>
-      <c r="B118" s="16" t="str">
+      <c r="B118" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="16">
+      <c r="A119" s="5">
         <v>7270118</v>
       </c>
-      <c r="B119" s="16" t="str">
+      <c r="B119" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="16">
+      <c r="A120" s="5">
         <v>7270119</v>
       </c>
-      <c r="B120" s="16" t="str">
+      <c r="B120" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="16">
+      <c r="A121" s="5">
         <v>7270120</v>
       </c>
-      <c r="B121" s="16" t="str">
+      <c r="B121" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="16">
+      <c r="A122" s="5">
         <v>7270121</v>
       </c>
-      <c r="B122" s="16" t="str">
+      <c r="B122" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="16">
+      <c r="A123" s="5">
         <v>7270122</v>
       </c>
-      <c r="B123" s="16" t="str">
+      <c r="B123" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="16">
+      <c r="A124" s="5">
         <v>7270123</v>
       </c>
-      <c r="B124" s="16" t="str">
+      <c r="B124" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="16">
+      <c r="A125" s="5">
         <v>7270124</v>
       </c>
-      <c r="B125" s="16" t="str">
+      <c r="B125" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="16">
+      <c r="A126" s="5">
         <v>7270125</v>
       </c>
-      <c r="B126" s="16" t="str">
+      <c r="B126" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="16">
+      <c r="A127" s="5">
         <v>7270126</v>
       </c>
-      <c r="B127" s="16" t="str">
+      <c r="B127" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="16">
+      <c r="A128" s="5">
         <v>7270127</v>
       </c>
-      <c r="B128" s="16" t="str">
+      <c r="B128" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="16">
+      <c r="A129" s="5">
         <v>7270128</v>
       </c>
-      <c r="B129" s="16" t="str">
+      <c r="B129" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="16">
+      <c r="A130" s="5">
         <v>7270129</v>
       </c>
-      <c r="B130" s="16" t="str">
+      <c r="B130" s="5" t="str">
         <f t="shared" ref="B130:B161" si="4">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="16">
+      <c r="A131" s="5">
         <v>7270130</v>
       </c>
-      <c r="B131" s="16" t="str">
+      <c r="B131" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="16">
+      <c r="A132" s="5">
         <v>7270131</v>
       </c>
-      <c r="B132" s="16" t="str">
+      <c r="B132" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="16">
+      <c r="A133" s="5">
         <v>7270132</v>
       </c>
-      <c r="B133" s="16" t="str">
+      <c r="B133" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="16">
+      <c r="A134" s="5">
         <v>7270133</v>
       </c>
-      <c r="B134" s="16" t="str">
+      <c r="B134" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="16">
+      <c r="A135" s="5">
         <v>7270134</v>
       </c>
-      <c r="B135" s="16" t="str">
+      <c r="B135" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="16">
+      <c r="A136" s="5">
         <v>7270135</v>
       </c>
-      <c r="B136" s="16" t="str">
+      <c r="B136" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="16">
+      <c r="A137" s="5">
         <v>7270136</v>
       </c>
-      <c r="B137" s="16" t="str">
+      <c r="B137" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="16">
+      <c r="A138" s="5">
         <v>7270137</v>
       </c>
-      <c r="B138" s="16" t="str">
+      <c r="B138" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="16">
+      <c r="A139" s="5">
         <v>7270138</v>
       </c>
-      <c r="B139" s="16" t="str">
+      <c r="B139" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="16">
+      <c r="A140" s="5">
         <v>7270139</v>
       </c>
-      <c r="B140" s="16" t="str">
+      <c r="B140" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="16">
+      <c r="A141" s="5">
         <v>7270140</v>
       </c>
-      <c r="B141" s="16" t="str">
+      <c r="B141" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="16">
+      <c r="A142" s="5">
         <v>7270141</v>
       </c>
-      <c r="B142" s="16" t="str">
+      <c r="B142" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="16">
+      <c r="A143" s="5">
         <v>7270142</v>
       </c>
-      <c r="B143" s="16" t="str">
+      <c r="B143" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="16">
+      <c r="A144" s="5">
         <v>7270143</v>
       </c>
-      <c r="B144" s="16" t="str">
+      <c r="B144" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="16">
+      <c r="A145" s="5">
         <v>7270144</v>
       </c>
-      <c r="B145" s="16" t="str">
+      <c r="B145" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="16">
+      <c r="A146" s="5">
         <v>7270145</v>
       </c>
-      <c r="B146" s="16" t="str">
+      <c r="B146" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="16">
+      <c r="A147" s="5">
         <v>7270146</v>
       </c>
-      <c r="B147" s="16" t="str">
+      <c r="B147" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="16">
+      <c r="A148" s="5">
         <v>7270147</v>
       </c>
-      <c r="B148" s="16" t="str">
+      <c r="B148" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="16">
+      <c r="A149" s="5">
         <v>7270148</v>
       </c>
-      <c r="B149" s="16" t="str">
+      <c r="B149" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="16">
+      <c r="A150" s="5">
         <v>7270149</v>
       </c>
-      <c r="B150" s="16" t="str">
+      <c r="B150" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="16">
+      <c r="A151" s="5">
         <v>7270150</v>
       </c>
-      <c r="B151" s="16" t="str">
+      <c r="B151" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="16">
+      <c r="A152" s="5">
         <v>7270151</v>
       </c>
-      <c r="B152" s="16" t="str">
+      <c r="B152" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="16">
+    <row r="153" spans="1:6">
+      <c r="A153" s="5">
         <v>7270152</v>
       </c>
-      <c r="B153" s="16" t="str">
+      <c r="B153" s="5" t="str">
         <f t="shared" si="4"/>
         <v>reinforced_alloy_ingot</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="16">
+      <c r="C153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="5">
         <v>7270153</v>
       </c>
-      <c r="B154" s="16" t="str">
+      <c r="B154" s="5" t="str">
         <f t="shared" si="4"/>
         <v>hardened_metal</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="16">
+      <c r="C154" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="5">
         <v>7270154</v>
       </c>
-      <c r="B155" s="16" t="str">
+      <c r="B155" s="5" t="str">
         <f t="shared" si="4"/>
         <v>damascus_steel_ingot</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="16">
+      <c r="C155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="5">
         <v>7270155</v>
       </c>
-      <c r="B156" s="16" t="str">
+      <c r="B156" s="5" t="str">
         <f t="shared" si="4"/>
         <v>steel_ingot</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="16">
+      <c r="C156" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="5">
         <v>7270156</v>
       </c>
-      <c r="B157" s="16" t="str">
+      <c r="B157" s="5" t="str">
         <f t="shared" si="4"/>
         <v>bronze_ingot</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="16">
+      <c r="C157" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="5">
         <v>7270157</v>
       </c>
-      <c r="B158" s="16" t="str">
+      <c r="B158" s="5" t="str">
         <f t="shared" si="4"/>
         <v>duralumin_ingot</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D158" s="16" t="s">
+      <c r="F158" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="16">
+    <row r="159" spans="1:6">
+      <c r="A159" s="5">
         <v>7270158</v>
       </c>
-      <c r="B159" s="16" t="str">
+      <c r="B159" s="5" t="str">
         <f t="shared" si="4"/>
         <v>billon_ingot</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="16">
+      <c r="C159" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="5">
         <v>7270159</v>
       </c>
-      <c r="B160" s="16" t="str">
+      <c r="B160" s="5" t="str">
         <f t="shared" si="4"/>
         <v>brass_ingot</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D160" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="16">
+      <c r="C160" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="5">
         <v>7270160</v>
       </c>
-      <c r="B161" s="16" t="str">
+      <c r="B161" s="5" t="str">
         <f t="shared" si="4"/>
         <v>aluminum_brass_ingot</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="16">
+      <c r="C161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="5">
         <v>7270161</v>
       </c>
-      <c r="B162" s="16" t="str">
+      <c r="B162" s="5" t="str">
         <f t="shared" ref="B162:B190" si="5">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>aluminum_bronze_ingot</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="16">
+      <c r="C162" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="5">
         <v>7270162</v>
       </c>
-      <c r="B163" s="16" t="str">
+      <c r="B163" s="5" t="str">
         <f t="shared" si="5"/>
         <v>corinthian_bronze_ingot</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="16">
+      <c r="C163" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="5">
         <v>7270163</v>
       </c>
-      <c r="B164" s="16" t="str">
+      <c r="B164" s="5" t="str">
         <f t="shared" si="5"/>
         <v>solder_ingot</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="16">
+      <c r="C164" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="5">
         <v>7270164</v>
       </c>
-      <c r="B165" s="16" t="str">
+      <c r="B165" s="5" t="str">
         <f t="shared" si="5"/>
         <v>synthetic_sapphire</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D165" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="16">
+      <c r="C165" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="5">
         <v>7270165</v>
       </c>
-      <c r="B166" s="16" t="str">
+      <c r="B166" s="5" t="str">
         <f t="shared" si="5"/>
         <v>synthetic_diamond</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D166" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="16">
+      <c r="C166" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="5">
         <v>7270166</v>
       </c>
-      <c r="B167" s="16" t="str">
+      <c r="B167" s="5" t="str">
         <f t="shared" si="5"/>
         <v>raw_carbonado</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="16">
+      <c r="C167" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="5">
         <v>7270167</v>
       </c>
-      <c r="B168" s="16" t="str">
+      <c r="B168" s="5" t="str">
         <f t="shared" si="5"/>
         <v>nickel_ingot</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="16">
+      <c r="C168" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="5">
         <v>7270168</v>
       </c>
-      <c r="B169" s="16" t="str">
+      <c r="B169" s="5" t="str">
         <f t="shared" si="5"/>
         <v>cobalt_ingot</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="16">
+      <c r="C169" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="5">
         <v>7270169</v>
       </c>
-      <c r="B170" s="16" t="str">
+      <c r="B170" s="5" t="str">
         <f t="shared" si="5"/>
         <v>carbonado</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="16">
+      <c r="C170" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="5">
         <v>7270170</v>
       </c>
-      <c r="B171" s="16" t="str">
+      <c r="B171" s="5" t="str">
         <f t="shared" si="5"/>
         <v>ferrosilicon</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="16">
+      <c r="C171" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="5">
         <v>7270171</v>
       </c>
-      <c r="B172" s="16" t="str">
+      <c r="B172" s="5" t="str">
         <f t="shared" si="5"/>
         <v>iron_dust</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D172" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="16">
+      <c r="C172" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="5">
         <v>7270172</v>
       </c>
-      <c r="B173" s="16" t="str">
+      <c r="B173" s="5" t="str">
         <f t="shared" si="5"/>
         <v>gold_dust</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D173" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="16">
+      <c r="C173" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="5">
         <v>7270173</v>
       </c>
-      <c r="B174" s="16" t="str">
+      <c r="B174" s="5" t="str">
         <f t="shared" si="5"/>
         <v>copper_dust</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D174" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="16">
+      <c r="C174" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="5">
         <v>7270174</v>
       </c>
-      <c r="B175" s="16" t="str">
+      <c r="B175" s="5" t="str">
         <f t="shared" si="5"/>
         <v>tin_dust</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="16">
+      <c r="C175" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="5">
         <v>7270175</v>
       </c>
-      <c r="B176" s="16" t="str">
+      <c r="B176" s="5" t="str">
         <f t="shared" si="5"/>
         <v>silver_dust</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D176" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="16">
+      <c r="C176" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="5">
         <v>7270176</v>
       </c>
-      <c r="B177" s="16" t="str">
+      <c r="B177" s="5" t="str">
         <f t="shared" si="5"/>
         <v>aluminum_dust</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D177" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="16">
+      <c r="C177" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="5">
         <v>7270177</v>
       </c>
-      <c r="B178" s="16" t="str">
+      <c r="B178" s="5" t="str">
         <f t="shared" si="5"/>
         <v>lead_dust</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D178" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="16">
+      <c r="C178" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="5">
         <v>7270178</v>
       </c>
-      <c r="B179" s="16" t="str">
+      <c r="B179" s="5" t="str">
         <f t="shared" si="5"/>
         <v>zinc_dust</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D179" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="16">
+      <c r="C179" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="5">
         <v>7270179</v>
       </c>
-      <c r="B180" s="16" t="str">
+      <c r="B180" s="5" t="str">
         <f t="shared" si="5"/>
         <v>magnesium_dust</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D180" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="16">
+      <c r="C180" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="5">
         <v>7270180</v>
       </c>
-      <c r="B181" s="16" t="str">
+      <c r="B181" s="5" t="str">
         <f t="shared" si="5"/>
         <v>copper_ingot</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D181" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="16">
+      <c r="C181" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="5">
         <v>7270181</v>
       </c>
-      <c r="B182" s="16" t="str">
+      <c r="B182" s="5" t="str">
         <f t="shared" si="5"/>
         <v>tin_ingot</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D182" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="16">
+      <c r="C182" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="5">
         <v>7270182</v>
       </c>
-      <c r="B183" s="16" t="str">
+      <c r="B183" s="5" t="str">
         <f t="shared" si="5"/>
         <v>silver_ingot</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D183" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="16">
+      <c r="C183" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="5">
         <v>7270183</v>
       </c>
-      <c r="B184" s="16" t="str">
+      <c r="B184" s="5" t="str">
         <f t="shared" si="5"/>
         <v>aluminum_ingot</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="16">
+      <c r="C184" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="5">
         <v>7270184</v>
       </c>
-      <c r="B185" s="16" t="str">
+      <c r="B185" s="5" t="str">
         <f t="shared" si="5"/>
         <v>lead_ingot</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D185" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="16">
+      <c r="C185" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="5">
         <v>7270185</v>
       </c>
-      <c r="B186" s="16" t="str">
+      <c r="B186" s="5" t="str">
         <f t="shared" si="5"/>
         <v>zinc_ingot</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="16">
+      <c r="C186" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="5">
         <v>7270186</v>
       </c>
-      <c r="B187" s="16" t="str">
+      <c r="B187" s="5" t="str">
         <f t="shared" si="5"/>
         <v>magnesium_ingot</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D187" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="16">
+      <c r="C187" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="5">
         <v>7270187</v>
       </c>
-      <c r="B188" s="16" t="str">
+      <c r="B188" s="5" t="str">
         <f t="shared" si="5"/>
         <v>sulfate</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D188" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="16">
+      <c r="C188" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="5">
         <v>7270188</v>
       </c>
-      <c r="B189" s="16" t="str">
+      <c r="B189" s="5" t="str">
         <f t="shared" si="5"/>
         <v>carbon</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D189" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="16">
+      <c r="C189" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="5">
         <v>7270189</v>
       </c>
-      <c r="B190" s="16" t="str">
+      <c r="B190" s="5" t="str">
         <f t="shared" si="5"/>
         <v>compressed_carbon</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D190" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="16">
+      <c r="C190" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="5">
         <v>7270190</v>
       </c>
-      <c r="B191" s="16" t="str">
+      <c r="B191" s="5" t="str">
         <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>carbon_chunk</v>
       </c>
-      <c r="C191" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D191" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="16">
+      <c r="C191" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="5">
         <v>7270191</v>
       </c>
-      <c r="B192" s="16" t="str">
+      <c r="B192" s="5" t="str">
         <f t="shared" ref="B192:B255" si="6">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_24_carat</v>
       </c>
-      <c r="C192" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D192" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="16">
+      <c r="C192" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="5">
         <v>7270192</v>
       </c>
-      <c r="B193" s="16" t="str">
+      <c r="B193" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_22_carat</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D193" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="16">
+      <c r="C193" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="5">
         <v>7270193</v>
       </c>
-      <c r="B194" s="16" t="str">
+      <c r="B194" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_20_carat</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D194" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="16">
+      <c r="C194" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="5">
         <v>7270194</v>
       </c>
-      <c r="B195" s="16" t="str">
+      <c r="B195" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_18_carat</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D195" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="16">
+      <c r="C195" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="5">
         <v>7270195</v>
       </c>
-      <c r="B196" s="16" t="str">
+      <c r="B196" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_16_carat</v>
       </c>
-      <c r="C196" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D196" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="16">
+      <c r="C196" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="5">
         <v>7270196</v>
       </c>
-      <c r="B197" s="16" t="str">
+      <c r="B197" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_14_carat</v>
       </c>
-      <c r="C197" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D197" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="16">
+      <c r="C197" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="5">
         <v>7270197</v>
       </c>
-      <c r="B198" s="16" t="str">
+      <c r="B198" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_12_carat</v>
       </c>
-      <c r="C198" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D198" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="16">
+      <c r="C198" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="5">
         <v>7270198</v>
       </c>
-      <c r="B199" s="16" t="str">
+      <c r="B199" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_10_carat</v>
       </c>
-      <c r="C199" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D199" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="16">
+      <c r="C199" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="5">
         <v>7270199</v>
       </c>
-      <c r="B200" s="16" t="str">
+      <c r="B200" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_8_carat</v>
       </c>
-      <c r="C200" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D200" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="16">
+      <c r="C200" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="5">
         <v>7270200</v>
       </c>
-      <c r="B201" s="16" t="str">
+      <c r="B201" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_6_carat</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D201" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="16">
+      <c r="C201" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="5">
         <v>7270201</v>
       </c>
-      <c r="B202" s="16" t="str">
+      <c r="B202" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_4_carat</v>
       </c>
-      <c r="C202" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D202" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="16">
+      <c r="C202" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="5">
         <v>7270202</v>
       </c>
-      <c r="B203" s="16" t="str">
+      <c r="B203" s="5" t="str">
         <f t="shared" si="6"/>
         <v>silicon</v>
       </c>
-      <c r="C203" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D203" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="16">
+      <c r="C203" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="5">
         <v>7270203</v>
       </c>
-      <c r="B204" s="16" t="str">
+      <c r="B204" s="5" t="str">
         <f t="shared" si="6"/>
         <v>gilded_iron</v>
       </c>
-      <c r="C204" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D204" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="16">
+      <c r="C204" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="5">
         <v>7270204</v>
       </c>
-      <c r="B205" s="16" t="str">
+      <c r="B205" s="5" t="str">
         <f t="shared" si="6"/>
         <v>synthetic_emerald</v>
       </c>
-      <c r="C205" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D205" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="16">
+      <c r="C205" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="5">
         <v>7270205</v>
       </c>
-      <c r="B206" s="16" t="str">
+      <c r="B206" s="5" t="str">
         <f t="shared" si="6"/>
         <v>uranium</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D206" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="16">
+      <c r="C206" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="5">
         <v>7270206</v>
       </c>
-      <c r="B207" s="16" t="str">
+      <c r="B207" s="5" t="str">
         <f t="shared" si="6"/>
         <v>redstone_alloy_ingot</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D207" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="16">
+      <c r="C207" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="5">
         <v>7270207</v>
       </c>
-      <c r="B208" s="16" t="str">
+      <c r="B208" s="5" t="str">
         <f t="shared" si="6"/>
         <v>magnesium_salt</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D208" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="16">
+      <c r="C208" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="5">
         <v>7270208</v>
       </c>
-      <c r="B209" s="16" t="str">
+      <c r="B209" s="5" t="str">
         <f t="shared" si="6"/>
         <v>bucket_of_oil</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D209" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="16">
+      <c r="C209" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="5">
         <v>7270209</v>
       </c>
-      <c r="B210" s="16" t="str">
+      <c r="B210" s="5" t="str">
         <f t="shared" si="6"/>
         <v>bucket_of_fuel</v>
       </c>
-      <c r="C210" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D210" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="16">
+      <c r="C210" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="5">
         <v>7270210</v>
       </c>
-      <c r="B211" s="16" t="str">
+      <c r="B211" s="5" t="str">
         <f t="shared" si="6"/>
         <v>nether_ice</v>
       </c>
-      <c r="C211" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D211" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="16">
+      <c r="C211" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="5">
         <v>7270211</v>
       </c>
-      <c r="B212" s="16" t="str">
+      <c r="B212" s="5" t="str">
         <f t="shared" si="6"/>
         <v>blistering_ingot_33</v>
       </c>
-      <c r="C212" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D212" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="16">
+      <c r="C212" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="5">
         <v>7270212</v>
       </c>
-      <c r="B213" s="16" t="str">
+      <c r="B213" s="5" t="str">
         <f t="shared" si="6"/>
         <v>blistering_ingot_66</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D213" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="16">
+      <c r="C213" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="5">
         <v>7270213</v>
       </c>
-      <c r="B214" s="16" t="str">
+      <c r="B214" s="5" t="str">
         <f t="shared" si="6"/>
         <v>blistering_ingot</v>
       </c>
-      <c r="C214" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D214" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="16">
+      <c r="C214" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="5">
         <v>7270214</v>
       </c>
-      <c r="B215" s="16" t="str">
+      <c r="B215" s="5" t="str">
         <f t="shared" si="6"/>
         <v>enriched_nether_ice</v>
       </c>
-      <c r="C215" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D215" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="16">
+      <c r="C215" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="5">
         <v>7270215</v>
       </c>
-      <c r="B216" s="16" t="str">
+      <c r="B216" s="5" t="str">
         <f t="shared" si="6"/>
         <v>neptunium</v>
       </c>
-      <c r="C216" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D216" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="16">
+      <c r="C216" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="5">
         <v>7270216</v>
       </c>
-      <c r="B217" s="16" t="str">
+      <c r="B217" s="5" t="str">
         <f t="shared" si="6"/>
         <v>plutonium</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D217" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="16">
+      <c r="C217" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="5">
         <v>7270217</v>
       </c>
-      <c r="B218" s="16" t="str">
+      <c r="B218" s="5" t="str">
         <f t="shared" si="6"/>
         <v>boosted_uranium</v>
       </c>
-      <c r="C218" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D218" s="16" t="s">
-        <v>135</v>
+      <c r="C218" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="16">
+      <c r="A219" s="5">
         <v>7270218</v>
       </c>
-      <c r="B219" s="16" t="str">
+      <c r="B219" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="16">
+      <c r="A220" s="5">
         <v>7270219</v>
       </c>
-      <c r="B220" s="16" t="str">
+      <c r="B220" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="16">
+      <c r="A221" s="5">
         <v>7270220</v>
       </c>
-      <c r="B221" s="16" t="str">
+      <c r="B221" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="16">
+      <c r="A222" s="5">
         <v>7270221</v>
       </c>
-      <c r="B222" s="16" t="str">
+      <c r="B222" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="16">
+      <c r="A223" s="5">
         <v>7270222</v>
       </c>
-      <c r="B223" s="16" t="str">
+      <c r="B223" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="16">
+      <c r="A224" s="5">
         <v>7270223</v>
       </c>
-      <c r="B224" s="16" t="str">
+      <c r="B224" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="16">
+      <c r="A225" s="5">
         <v>7270224</v>
       </c>
-      <c r="B225" s="16" t="str">
+      <c r="B225" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="16">
+      <c r="A226" s="5">
         <v>7270225</v>
       </c>
-      <c r="B226" s="16" t="str">
+      <c r="B226" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="16">
+      <c r="A227" s="5">
         <v>7270226</v>
       </c>
-      <c r="B227" s="16" t="str">
+      <c r="B227" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="16">
+      <c r="A228" s="5">
         <v>7270227</v>
       </c>
-      <c r="B228" s="16" t="str">
+      <c r="B228" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="16">
+      <c r="A229" s="5">
         <v>7270228</v>
       </c>
-      <c r="B229" s="16" t="str">
+      <c r="B229" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="16">
+      <c r="A230" s="5">
         <v>7270229</v>
       </c>
-      <c r="B230" s="16" t="str">
+      <c r="B230" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="16">
+      <c r="A231" s="5">
         <v>7270230</v>
       </c>
-      <c r="B231" s="16" t="str">
+      <c r="B231" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="16">
+      <c r="A232" s="5">
         <v>7270231</v>
       </c>
-      <c r="B232" s="16" t="str">
+      <c r="B232" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="16">
+      <c r="A233" s="5">
         <v>7270232</v>
       </c>
-      <c r="B233" s="16" t="str">
+      <c r="B233" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="16">
+      <c r="A234" s="5">
         <v>7270233</v>
       </c>
-      <c r="B234" s="16" t="str">
+      <c r="B234" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="16">
+      <c r="A235" s="5">
         <v>7270234</v>
       </c>
-      <c r="B235" s="16" t="str">
+      <c r="B235" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="16">
+      <c r="A236" s="5">
         <v>7270235</v>
       </c>
-      <c r="B236" s="16" t="str">
+      <c r="B236" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="16">
+      <c r="A237" s="5">
         <v>7270236</v>
       </c>
-      <c r="B237" s="16" t="str">
+      <c r="B237" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="16">
+      <c r="A238" s="5">
         <v>7270237</v>
       </c>
-      <c r="B238" s="16" t="str">
+      <c r="B238" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="16">
+      <c r="A239" s="5">
         <v>7270238</v>
       </c>
-      <c r="B239" s="16" t="str">
+      <c r="B239" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="16">
+      <c r="A240" s="5">
         <v>7270239</v>
       </c>
-      <c r="B240" s="16" t="str">
+      <c r="B240" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="16">
+      <c r="A241" s="5">
         <v>7270240</v>
       </c>
-      <c r="B241" s="16" t="str">
+      <c r="B241" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="16">
+      <c r="A242" s="5">
         <v>7270241</v>
       </c>
-      <c r="B242" s="16" t="str">
+      <c r="B242" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="16">
+      <c r="A243" s="5">
         <v>7270242</v>
       </c>
-      <c r="B243" s="16" t="str">
+      <c r="B243" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="16">
+      <c r="A244" s="5">
         <v>7270243</v>
       </c>
-      <c r="B244" s="16" t="str">
+      <c r="B244" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="16">
+      <c r="A245" s="5">
         <v>7270244</v>
       </c>
-      <c r="B245" s="16" t="str">
+      <c r="B245" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="16">
+      <c r="A246" s="5">
         <v>7270245</v>
       </c>
-      <c r="B246" s="16" t="str">
+      <c r="B246" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="16">
+      <c r="A247" s="5">
         <v>7270246</v>
       </c>
-      <c r="B247" s="16" t="str">
+      <c r="B247" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="16">
+      <c r="A248" s="5">
         <v>7270247</v>
       </c>
-      <c r="B248" s="16" t="str">
+      <c r="B248" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="16">
+      <c r="A249" s="5">
         <v>7270248</v>
       </c>
-      <c r="B249" s="16" t="str">
+      <c r="B249" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="16">
+      <c r="A250" s="5">
         <v>7270249</v>
       </c>
-      <c r="B250" s="16" t="str">
+      <c r="B250" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="16">
+      <c r="A251" s="5">
         <v>7270250</v>
       </c>
-      <c r="B251" s="16" t="str">
+      <c r="B251" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="16">
+      <c r="A252" s="5">
         <v>7270251</v>
       </c>
-      <c r="B252" s="16" t="str">
+      <c r="B252" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="16">
+      <c r="A253" s="5">
         <v>7270252</v>
       </c>
-      <c r="B253" s="16" t="str">
+      <c r="B253" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="16">
+      <c r="A254" s="5">
         <v>7270253</v>
       </c>
-      <c r="B254" s="16" t="str">
+      <c r="B254" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="16">
+      <c r="A255" s="5">
         <v>7270254</v>
       </c>
-      <c r="B255" s="16" t="str">
+      <c r="B255" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="16">
+      <c r="A256" s="5">
         <v>7270255</v>
       </c>
-      <c r="B256" s="16" t="str">
+      <c r="B256" s="5" t="str">
         <f t="shared" ref="B256:B319" si="7">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="16">
+      <c r="A257" s="5">
         <v>7270256</v>
       </c>
-      <c r="B257" s="16" t="str">
+      <c r="B257" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="16">
+      <c r="A258" s="5">
         <v>7270257</v>
       </c>
-      <c r="B258" s="16" t="str">
+      <c r="B258" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="16">
+      <c r="A259" s="5">
         <v>7270258</v>
       </c>
-      <c r="B259" s="16" t="str">
+      <c r="B259" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="16">
+      <c r="A260" s="5">
         <v>7270259</v>
       </c>
-      <c r="B260" s="16" t="str">
+      <c r="B260" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="16">
+      <c r="A261" s="5">
         <v>7270260</v>
       </c>
-      <c r="B261" s="16" t="str">
+      <c r="B261" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="16">
+      <c r="A262" s="5">
         <v>7270261</v>
       </c>
-      <c r="B262" s="16" t="str">
+      <c r="B262" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="16">
+      <c r="A263" s="5">
         <v>7270262</v>
       </c>
-      <c r="B263" s="16" t="str">
+      <c r="B263" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="16">
+      <c r="A264" s="5">
         <v>7270263</v>
       </c>
-      <c r="B264" s="16" t="str">
+      <c r="B264" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="16">
+      <c r="A265" s="5">
         <v>7270264</v>
       </c>
-      <c r="B265" s="16" t="str">
+      <c r="B265" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="16">
+      <c r="A266" s="5">
         <v>7270265</v>
       </c>
-      <c r="B266" s="16" t="str">
+      <c r="B266" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="16">
+      <c r="A267" s="5">
         <v>7270266</v>
       </c>
-      <c r="B267" s="16" t="str">
+      <c r="B267" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="16">
+      <c r="A268" s="5">
         <v>7270267</v>
       </c>
-      <c r="B268" s="16" t="str">
+      <c r="B268" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="16">
+      <c r="A269" s="5">
         <v>7270268</v>
       </c>
-      <c r="B269" s="16" t="str">
+      <c r="B269" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="16">
+      <c r="A270" s="5">
         <v>7270269</v>
       </c>
-      <c r="B270" s="16" t="str">
+      <c r="B270" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="16">
+      <c r="A271" s="5">
         <v>7270270</v>
       </c>
-      <c r="B271" s="16" t="str">
+      <c r="B271" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="16">
+      <c r="A272" s="5">
         <v>7270271</v>
       </c>
-      <c r="B272" s="16" t="str">
+      <c r="B272" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="16">
+      <c r="A273" s="5">
         <v>7270272</v>
       </c>
-      <c r="B273" s="16" t="str">
+      <c r="B273" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="16">
+      <c r="A274" s="5">
         <v>7270273</v>
       </c>
-      <c r="B274" s="16" t="str">
+      <c r="B274" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="16">
+      <c r="A275" s="5">
         <v>7270274</v>
       </c>
-      <c r="B275" s="16" t="str">
+      <c r="B275" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="16">
+      <c r="A276" s="5">
         <v>7270275</v>
       </c>
-      <c r="B276" s="16" t="str">
+      <c r="B276" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="16">
+      <c r="A277" s="5">
         <v>7270276</v>
       </c>
-      <c r="B277" s="16" t="str">
+      <c r="B277" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="16">
+      <c r="A278" s="5">
         <v>7270277</v>
       </c>
-      <c r="B278" s="16" t="str">
+      <c r="B278" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="16">
+      <c r="A279" s="5">
         <v>7270278</v>
       </c>
-      <c r="B279" s="16" t="str">
+      <c r="B279" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="16">
+      <c r="A280" s="5">
         <v>7270279</v>
       </c>
-      <c r="B280" s="16" t="str">
+      <c r="B280" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="16">
+      <c r="A281" s="5">
         <v>7270280</v>
       </c>
-      <c r="B281" s="16" t="str">
+      <c r="B281" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="16">
+      <c r="A282" s="5">
         <v>7270281</v>
       </c>
-      <c r="B282" s="16" t="str">
+      <c r="B282" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="16">
+      <c r="A283" s="5">
         <v>7270282</v>
       </c>
-      <c r="B283" s="16" t="str">
+      <c r="B283" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="16">
+      <c r="A284" s="5">
         <v>7270283</v>
       </c>
-      <c r="B284" s="16" t="str">
+      <c r="B284" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="16">
+      <c r="A285" s="5">
         <v>7270284</v>
       </c>
-      <c r="B285" s="16" t="str">
+      <c r="B285" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="16">
+      <c r="A286" s="5">
         <v>7270285</v>
       </c>
-      <c r="B286" s="16" t="str">
+      <c r="B286" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="16">
+      <c r="A287" s="5">
         <v>7270286</v>
       </c>
-      <c r="B287" s="16" t="str">
+      <c r="B287" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="16">
+      <c r="A288" s="5">
         <v>7270287</v>
       </c>
-      <c r="B288" s="16" t="str">
+      <c r="B288" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="16">
+      <c r="A289" s="5">
         <v>7270288</v>
       </c>
-      <c r="B289" s="16" t="str">
+      <c r="B289" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="16">
+      <c r="A290" s="5">
         <v>7270289</v>
       </c>
-      <c r="B290" s="16" t="str">
+      <c r="B290" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="16">
+      <c r="A291" s="5">
         <v>7270290</v>
       </c>
-      <c r="B291" s="16" t="str">
+      <c r="B291" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="16">
+      <c r="A292" s="5">
         <v>7270291</v>
       </c>
-      <c r="B292" s="16" t="str">
+      <c r="B292" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="16">
+      <c r="A293" s="5">
         <v>7270292</v>
       </c>
-      <c r="B293" s="16" t="str">
+      <c r="B293" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="16">
+      <c r="A294" s="5">
         <v>7270293</v>
       </c>
-      <c r="B294" s="16" t="str">
+      <c r="B294" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="16">
+      <c r="A295" s="5">
         <v>7270294</v>
       </c>
-      <c r="B295" s="16" t="str">
+      <c r="B295" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="16">
+      <c r="A296" s="5">
         <v>7270295</v>
       </c>
-      <c r="B296" s="16" t="str">
+      <c r="B296" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="16">
+      <c r="A297" s="5">
         <v>7270296</v>
       </c>
-      <c r="B297" s="16" t="str">
+      <c r="B297" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="16">
+      <c r="A298" s="5">
         <v>7270297</v>
       </c>
-      <c r="B298" s="16" t="str">
+      <c r="B298" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="16">
+      <c r="A299" s="5">
         <v>7270298</v>
       </c>
-      <c r="B299" s="16" t="str">
+      <c r="B299" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="16">
+      <c r="A300" s="5">
         <v>7270299</v>
       </c>
-      <c r="B300" s="16" t="str">
+      <c r="B300" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="16">
+      <c r="A301" s="5">
         <v>7270300</v>
       </c>
-      <c r="B301" s="16" t="str">
+      <c r="B301" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="16">
+      <c r="A302" s="5">
         <v>7270301</v>
       </c>
-      <c r="B302" s="16" t="str">
+      <c r="B302" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="16">
+      <c r="A303" s="5">
         <v>7270302</v>
       </c>
-      <c r="B303" s="16" t="str">
+      <c r="B303" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="16">
+      <c r="A304" s="5">
         <v>7270303</v>
       </c>
-      <c r="B304" s="16" t="str">
+      <c r="B304" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="16">
+      <c r="A305" s="5">
         <v>7270304</v>
       </c>
-      <c r="B305" s="16" t="str">
+      <c r="B305" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="16">
+      <c r="A306" s="5">
         <v>7270305</v>
       </c>
-      <c r="B306" s="16" t="str">
+      <c r="B306" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="16">
+      <c r="A307" s="5">
         <v>7270306</v>
       </c>
-      <c r="B307" s="16" t="str">
+      <c r="B307" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="16">
+      <c r="A308" s="5">
         <v>7270307</v>
       </c>
-      <c r="B308" s="16" t="str">
+      <c r="B308" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="16">
+      <c r="A309" s="5">
         <v>7270308</v>
       </c>
-      <c r="B309" s="16" t="str">
+      <c r="B309" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="16">
+      <c r="A310" s="5">
         <v>7270309</v>
       </c>
-      <c r="B310" s="16" t="str">
+      <c r="B310" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="16">
+      <c r="A311" s="5">
         <v>7270310</v>
       </c>
-      <c r="B311" s="16" t="str">
+      <c r="B311" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="16">
+      <c r="A312" s="5">
         <v>7270311</v>
       </c>
-      <c r="B312" s="16" t="str">
+      <c r="B312" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="16">
+      <c r="A313" s="5">
         <v>7270312</v>
       </c>
-      <c r="B313" s="16" t="str">
+      <c r="B313" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="16">
+      <c r="A314" s="5">
         <v>7270313</v>
       </c>
-      <c r="B314" s="16" t="str">
+      <c r="B314" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="16">
+      <c r="A315" s="5">
         <v>7270314</v>
       </c>
-      <c r="B315" s="16" t="str">
+      <c r="B315" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="16">
+      <c r="A316" s="5">
         <v>7270315</v>
       </c>
-      <c r="B316" s="16" t="str">
+      <c r="B316" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="16">
+      <c r="A317" s="5">
         <v>7270316</v>
       </c>
-      <c r="B317" s="16" t="str">
+      <c r="B317" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="16">
+      <c r="A318" s="5">
         <v>7270317</v>
       </c>
-      <c r="B318" s="16" t="str">
+      <c r="B318" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="16">
+      <c r="A319" s="5">
         <v>7270318</v>
       </c>
-      <c r="B319" s="16" t="str">
+      <c r="B319" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="16">
+      <c r="A320" s="5">
         <v>7270319</v>
       </c>
-      <c r="B320" s="16" t="str">
+      <c r="B320" s="5" t="str">
         <f t="shared" ref="B320:B383" si="8">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="16">
+      <c r="A321" s="5">
         <v>7270320</v>
       </c>
-      <c r="B321" s="16" t="str">
+      <c r="B321" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="16">
+      <c r="A322" s="5">
         <v>7270321</v>
       </c>
-      <c r="B322" s="16" t="str">
+      <c r="B322" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="16">
+      <c r="A323" s="5">
         <v>7270322</v>
       </c>
-      <c r="B323" s="16" t="str">
+      <c r="B323" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="16">
+      <c r="A324" s="5">
         <v>7270323</v>
       </c>
-      <c r="B324" s="16" t="str">
+      <c r="B324" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="16">
+      <c r="A325" s="5">
         <v>7270324</v>
       </c>
-      <c r="B325" s="16" t="str">
+      <c r="B325" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="16">
+      <c r="A326" s="5">
         <v>7270325</v>
       </c>
-      <c r="B326" s="16" t="str">
+      <c r="B326" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="16">
+      <c r="A327" s="5">
         <v>7270326</v>
       </c>
-      <c r="B327" s="16" t="str">
+      <c r="B327" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="16">
+      <c r="A328" s="5">
         <v>7270327</v>
       </c>
-      <c r="B328" s="16" t="str">
+      <c r="B328" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="16">
+      <c r="A329" s="5">
         <v>7270328</v>
       </c>
-      <c r="B329" s="16" t="str">
+      <c r="B329" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="16">
+      <c r="A330" s="5">
         <v>7270329</v>
       </c>
-      <c r="B330" s="16" t="str">
+      <c r="B330" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="16">
+      <c r="A331" s="5">
         <v>7270330</v>
       </c>
-      <c r="B331" s="16" t="str">
+      <c r="B331" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="16">
+      <c r="A332" s="5">
         <v>7270331</v>
       </c>
-      <c r="B332" s="16" t="str">
+      <c r="B332" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="16">
+      <c r="A333" s="5">
         <v>7270332</v>
       </c>
-      <c r="B333" s="16" t="str">
+      <c r="B333" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="16">
+      <c r="A334" s="5">
         <v>7270333</v>
       </c>
-      <c r="B334" s="16" t="str">
+      <c r="B334" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="16">
+      <c r="A335" s="5">
         <v>7270334</v>
       </c>
-      <c r="B335" s="16" t="str">
+      <c r="B335" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="16">
+      <c r="A336" s="5">
         <v>7270335</v>
       </c>
-      <c r="B336" s="16" t="str">
+      <c r="B336" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="16">
+      <c r="A337" s="5">
         <v>7270336</v>
       </c>
-      <c r="B337" s="16" t="str">
+      <c r="B337" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="16">
+      <c r="A338" s="5">
         <v>7270337</v>
       </c>
-      <c r="B338" s="16" t="str">
+      <c r="B338" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="16">
+      <c r="A339" s="5">
         <v>7270338</v>
       </c>
-      <c r="B339" s="16" t="str">
+      <c r="B339" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="16">
+      <c r="A340" s="5">
         <v>7270339</v>
       </c>
-      <c r="B340" s="16" t="str">
+      <c r="B340" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="16">
+      <c r="A341" s="5">
         <v>7270340</v>
       </c>
-      <c r="B341" s="16" t="str">
+      <c r="B341" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="16">
+      <c r="A342" s="5">
         <v>7270341</v>
       </c>
-      <c r="B342" s="16" t="str">
+      <c r="B342" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="16">
+      <c r="A343" s="5">
         <v>7270342</v>
       </c>
-      <c r="B343" s="16" t="str">
+      <c r="B343" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="16">
+      <c r="A344" s="5">
         <v>7270343</v>
       </c>
-      <c r="B344" s="16" t="str">
+      <c r="B344" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="16">
+      <c r="A345" s="5">
         <v>7270344</v>
       </c>
-      <c r="B345" s="16" t="str">
+      <c r="B345" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="16">
+      <c r="A346" s="5">
         <v>7270345</v>
       </c>
-      <c r="B346" s="16" t="str">
+      <c r="B346" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="16">
+      <c r="A347" s="5">
         <v>7270346</v>
       </c>
-      <c r="B347" s="16" t="str">
+      <c r="B347" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="16">
+      <c r="A348" s="5">
         <v>7270347</v>
       </c>
-      <c r="B348" s="16" t="str">
+      <c r="B348" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="16">
+      <c r="A349" s="5">
         <v>7270348</v>
       </c>
-      <c r="B349" s="16" t="str">
+      <c r="B349" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="16">
+      <c r="A350" s="5">
         <v>7270349</v>
       </c>
-      <c r="B350" s="16" t="str">
+      <c r="B350" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="16">
+      <c r="A351" s="5">
         <v>7270350</v>
       </c>
-      <c r="B351" s="16" t="str">
+      <c r="B351" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="16">
+      <c r="A352" s="5">
         <v>7270351</v>
       </c>
-      <c r="B352" s="16" t="str">
+      <c r="B352" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="16">
+      <c r="A353" s="5">
         <v>7270352</v>
       </c>
-      <c r="B353" s="16" t="str">
+      <c r="B353" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="16">
+      <c r="A354" s="5">
         <v>7270353</v>
       </c>
-      <c r="B354" s="16" t="str">
+      <c r="B354" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="16">
+      <c r="A355" s="5">
         <v>7270354</v>
       </c>
-      <c r="B355" s="16" t="str">
+      <c r="B355" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="16">
+      <c r="A356" s="5">
         <v>7270355</v>
       </c>
-      <c r="B356" s="16" t="str">
+      <c r="B356" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="16">
+      <c r="A357" s="5">
         <v>7270356</v>
       </c>
-      <c r="B357" s="16" t="str">
+      <c r="B357" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="16">
+      <c r="A358" s="5">
         <v>7270357</v>
       </c>
-      <c r="B358" s="16" t="str">
+      <c r="B358" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="16">
+      <c r="A359" s="5">
         <v>7270358</v>
       </c>
-      <c r="B359" s="16" t="str">
+      <c r="B359" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="16">
+      <c r="A360" s="5">
         <v>7270359</v>
       </c>
-      <c r="B360" s="16" t="str">
+      <c r="B360" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="16">
+      <c r="A361" s="5">
         <v>7270360</v>
       </c>
-      <c r="B361" s="16" t="str">
+      <c r="B361" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="16">
+      <c r="A362" s="5">
         <v>7270361</v>
       </c>
-      <c r="B362" s="16" t="str">
+      <c r="B362" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="16">
+      <c r="A363" s="5">
         <v>7270362</v>
       </c>
-      <c r="B363" s="16" t="str">
+      <c r="B363" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="16">
+      <c r="A364" s="5">
         <v>7270363</v>
       </c>
-      <c r="B364" s="16" t="str">
+      <c r="B364" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="16">
+      <c r="A365" s="5">
         <v>7270364</v>
       </c>
-      <c r="B365" s="16" t="str">
+      <c r="B365" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="16">
+      <c r="A366" s="5">
         <v>7270365</v>
       </c>
-      <c r="B366" s="16" t="str">
+      <c r="B366" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="16">
+      <c r="A367" s="5">
         <v>7270366</v>
       </c>
-      <c r="B367" s="16" t="str">
+      <c r="B367" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="16">
+      <c r="A368" s="5">
         <v>7270367</v>
       </c>
-      <c r="B368" s="16" t="str">
+      <c r="B368" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="16">
+      <c r="A369" s="5">
         <v>7270368</v>
       </c>
-      <c r="B369" s="16" t="str">
+      <c r="B369" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="16">
+      <c r="A370" s="5">
         <v>7270369</v>
       </c>
-      <c r="B370" s="16" t="str">
+      <c r="B370" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="16">
+      <c r="A371" s="5">
         <v>7270370</v>
       </c>
-      <c r="B371" s="16" t="str">
+      <c r="B371" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="16">
+      <c r="A372" s="5">
         <v>7270371</v>
       </c>
-      <c r="B372" s="16" t="str">
+      <c r="B372" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="16">
+      <c r="A373" s="5">
         <v>7270372</v>
       </c>
-      <c r="B373" s="16" t="str">
+      <c r="B373" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="16">
+      <c r="A374" s="5">
         <v>7270373</v>
       </c>
-      <c r="B374" s="16" t="str">
+      <c r="B374" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="16">
+      <c r="A375" s="5">
         <v>7270374</v>
       </c>
-      <c r="B375" s="16" t="str">
+      <c r="B375" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="16">
+      <c r="A376" s="5">
         <v>7270375</v>
       </c>
-      <c r="B376" s="16" t="str">
+      <c r="B376" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="16">
+      <c r="A377" s="5">
         <v>7270376</v>
       </c>
-      <c r="B377" s="16" t="str">
+      <c r="B377" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="16">
+      <c r="A378" s="5">
         <v>7270377</v>
       </c>
-      <c r="B378" s="16" t="str">
+      <c r="B378" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="16">
+      <c r="A379" s="5">
         <v>7270378</v>
       </c>
-      <c r="B379" s="16" t="str">
+      <c r="B379" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="16">
+      <c r="A380" s="5">
         <v>7270379</v>
       </c>
-      <c r="B380" s="16" t="str">
+      <c r="B380" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="16">
+      <c r="A381" s="5">
         <v>7270380</v>
       </c>
-      <c r="B381" s="16" t="str">
+      <c r="B381" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="16">
+      <c r="A382" s="5">
         <v>7270381</v>
       </c>
-      <c r="B382" s="16" t="str">
+      <c r="B382" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="16">
+      <c r="A383" s="5">
         <v>7270382</v>
       </c>
-      <c r="B383" s="16" t="str">
+      <c r="B383" s="5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="16">
+      <c r="A384" s="5">
         <v>7270383</v>
       </c>
-      <c r="B384" s="16" t="str">
+      <c r="B384" s="5" t="str">
         <f t="shared" ref="B384:B425" si="9">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="16">
+      <c r="A385" s="5">
         <v>7270384</v>
       </c>
-      <c r="B385" s="16" t="str">
+      <c r="B385" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="16">
+      <c r="A386" s="5">
         <v>7270385</v>
       </c>
-      <c r="B386" s="16" t="str">
+      <c r="B386" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="16">
+      <c r="A387" s="5">
         <v>7270386</v>
       </c>
-      <c r="B387" s="16" t="str">
+      <c r="B387" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="16">
+      <c r="A388" s="5">
         <v>7270387</v>
       </c>
-      <c r="B388" s="16" t="str">
+      <c r="B388" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="16">
+      <c r="A389" s="5">
         <v>7270388</v>
       </c>
-      <c r="B389" s="16" t="str">
+      <c r="B389" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="16">
+      <c r="A390" s="5">
         <v>7270389</v>
       </c>
-      <c r="B390" s="16" t="str">
+      <c r="B390" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="16">
+      <c r="A391" s="5">
         <v>7270390</v>
       </c>
-      <c r="B391" s="16" t="str">
+      <c r="B391" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="16">
+      <c r="A392" s="5">
         <v>7270391</v>
       </c>
-      <c r="B392" s="16" t="str">
+      <c r="B392" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="16">
+      <c r="A393" s="5">
         <v>7270392</v>
       </c>
-      <c r="B393" s="16" t="str">
+      <c r="B393" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="16">
+      <c r="A394" s="5">
         <v>7270393</v>
       </c>
-      <c r="B394" s="16" t="str">
+      <c r="B394" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="16">
+      <c r="A395" s="5">
         <v>7270394</v>
       </c>
-      <c r="B395" s="16" t="str">
+      <c r="B395" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="16">
+      <c r="A396" s="5">
         <v>7270395</v>
       </c>
-      <c r="B396" s="16" t="str">
+      <c r="B396" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="16">
+      <c r="A397" s="5">
         <v>7270396</v>
       </c>
-      <c r="B397" s="16" t="str">
+      <c r="B397" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="16">
+      <c r="A398" s="5">
         <v>7270397</v>
       </c>
-      <c r="B398" s="16" t="str">
+      <c r="B398" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="16">
+      <c r="A399" s="5">
         <v>7270398</v>
       </c>
-      <c r="B399" s="16" t="str">
+      <c r="B399" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="16">
+      <c r="A400" s="5">
         <v>7270399</v>
       </c>
-      <c r="B400" s="16" t="str">
+      <c r="B400" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="16">
+      <c r="A401" s="5">
         <v>7270400</v>
       </c>
-      <c r="B401" s="16" t="str">
+      <c r="B401" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="16">
+      <c r="A402" s="5">
         <v>7270401</v>
       </c>
-      <c r="B402" s="16" t="str">
+      <c r="B402" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="16">
+      <c r="A403" s="5">
         <v>7270402</v>
       </c>
-      <c r="B403" s="16" t="str">
+      <c r="B403" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="16">
+      <c r="A404" s="5">
         <v>7270403</v>
       </c>
-      <c r="B404" s="16" t="str">
+      <c r="B404" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="16">
+      <c r="A405" s="5">
         <v>7270404</v>
       </c>
-      <c r="B405" s="16" t="str">
+      <c r="B405" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="16">
+      <c r="A406" s="5">
         <v>7270405</v>
       </c>
-      <c r="B406" s="16" t="str">
+      <c r="B406" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="16">
+      <c r="A407" s="5">
         <v>7270406</v>
       </c>
-      <c r="B407" s="16" t="str">
+      <c r="B407" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="16">
+      <c r="A408" s="5">
         <v>7270407</v>
       </c>
-      <c r="B408" s="16" t="str">
+      <c r="B408" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="16">
+      <c r="A409" s="5">
         <v>7270408</v>
       </c>
-      <c r="B409" s="16" t="str">
+      <c r="B409" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="16">
+      <c r="A410" s="5">
         <v>7270409</v>
       </c>
-      <c r="B410" s="16" t="str">
+      <c r="B410" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="16">
+      <c r="A411" s="5">
         <v>7270410</v>
       </c>
-      <c r="B411" s="16" t="str">
+      <c r="B411" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="16">
+      <c r="A412" s="5">
         <v>7270411</v>
       </c>
-      <c r="B412" s="16" t="str">
+      <c r="B412" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="16">
+      <c r="A413" s="5">
         <v>7270412</v>
       </c>
-      <c r="B413" s="16" t="str">
+      <c r="B413" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="16">
+      <c r="A414" s="5">
         <v>7270413</v>
       </c>
-      <c r="B414" s="16" t="str">
+      <c r="B414" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="16">
+      <c r="A415" s="5">
         <v>7270414</v>
       </c>
-      <c r="B415" s="16" t="str">
+      <c r="B415" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="16">
+      <c r="A416" s="5">
         <v>7270415</v>
       </c>
-      <c r="B416" s="16" t="str">
+      <c r="B416" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="16">
+      <c r="A417" s="5">
         <v>7270416</v>
       </c>
-      <c r="B417" s="16" t="str">
+      <c r="B417" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="16">
+      <c r="A418" s="5">
         <v>7270417</v>
       </c>
-      <c r="B418" s="16" t="str">
+      <c r="B418" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="16">
+      <c r="A419" s="5">
         <v>7270418</v>
       </c>
-      <c r="B419" s="16" t="str">
+      <c r="B419" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="16">
+      <c r="A420" s="5">
         <v>7270419</v>
       </c>
-      <c r="B420" s="16" t="str">
+      <c r="B420" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="16">
+      <c r="A421" s="5">
         <v>7270420</v>
       </c>
-      <c r="B421" s="16" t="str">
+      <c r="B421" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="16">
+      <c r="A422" s="5">
         <v>7270421</v>
       </c>
-      <c r="B422" s="16" t="str">
+      <c r="B422" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="16">
+      <c r="A423" s="5">
         <v>7270422</v>
       </c>
-      <c r="B423" s="16" t="str">
+      <c r="B423" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="16">
+      <c r="A424" s="5">
         <v>7270423</v>
       </c>
-      <c r="B424" s="16" t="str">
+      <c r="B424" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="16">
+      <c r="A425" s="5">
         <v>7270424</v>
       </c>
-      <c r="B425" s="16" t="str">
+      <c r="B425" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState ref="E192:E202">
-    <sortCondition ref="E192:E202" descending="1"/>
+  <sortState ref="F192:F202">
+    <sortCondition ref="F192:F202" descending="1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6002,7 +6422,7 @@
   <sheetPr/>
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -6015,880 +6435,842 @@
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>138</v>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
+      <c r="B3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>66</v>
+      <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>70</v>
+      <c r="B6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
+      <c r="B8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>4</v>
+      <c r="B9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
-      <c r="B10" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>6</v>
+      <c r="B10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="B11" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>10</v>
+      <c r="B12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="2"/>
-      <c r="B13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
+      <c r="B13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="2"/>
-      <c r="B14" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
+      <c r="B14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
+      <c r="B15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="2"/>
-      <c r="B16" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
+      <c r="B16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2"/>
-      <c r="B17" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
+      <c r="B17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="2"/>
-      <c r="B18" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
+      <c r="B18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="2"/>
-      <c r="B19" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>24</v>
+      <c r="B19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="2"/>
-      <c r="B20" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>26</v>
+      <c r="B20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>82</v>
+      <c r="B21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>84</v>
+      <c r="B22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2"/>
-      <c r="B23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>86</v>
+      <c r="B23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>88</v>
+      <c r="B24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="2"/>
-      <c r="B25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>90</v>
+      <c r="B25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="2"/>
-      <c r="B26" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>92</v>
+      <c r="B26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="2"/>
-      <c r="B27" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>94</v>
+      <c r="B27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="2"/>
-      <c r="B28" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>96</v>
+      <c r="B28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="2"/>
-      <c r="B29" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>98</v>
+      <c r="B29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="2"/>
-      <c r="B30" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>100</v>
+      <c r="B30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="2"/>
-      <c r="B31" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>102</v>
+      <c r="B31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="2"/>
-      <c r="B32" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>34</v>
+      <c r="B32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="2"/>
-      <c r="B33" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>36</v>
+      <c r="B33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="2"/>
-      <c r="B34" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>60</v>
+      <c r="B34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="2"/>
-      <c r="B35" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>64</v>
+      <c r="B35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="2"/>
-      <c r="B36" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>68</v>
+      <c r="B36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="2"/>
-      <c r="B37" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>72</v>
+      <c r="B37" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="2"/>
-      <c r="B38" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>106</v>
+      <c r="B38" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="2"/>
-      <c r="B39" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>122</v>
+      <c r="B39" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="2"/>
-      <c r="B40" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>124</v>
+      <c r="B40" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="2"/>
-      <c r="B41" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>126</v>
+      <c r="B41" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>42</v>
+        <v>190</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:5">
+      <c r="B43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
       <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:5">
+      <c r="B44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:3">
       <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:5">
+      <c r="B45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:3">
       <c r="A46" s="2"/>
-      <c r="B46" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:5">
+      <c r="B46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:3">
       <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:5">
+      <c r="B47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:3">
       <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:5">
+      <c r="B48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
       <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:5">
+      <c r="B49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
       <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:5">
+      <c r="B50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:4">
       <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:5">
+      <c r="B51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:4">
       <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:5">
+      <c r="B52" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:4">
       <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" s="9"/>
+      <c r="B53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="2"/>
-      <c r="B54" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>46</v>
+      <c r="B54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="2"/>
-      <c r="B55" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>48</v>
+      <c r="B55" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="2"/>
-      <c r="B56" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>50</v>
+      <c r="B56" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="2"/>
-      <c r="B57" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>52</v>
+      <c r="B57" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
       <c r="A58" s="2"/>
-      <c r="B58" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>54</v>
+      <c r="B58" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:5">
       <c r="A59" s="2"/>
-      <c r="B59" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>56</v>
+      <c r="B59" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
       <c r="A60" s="2"/>
-      <c r="B60" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:5">
+      <c r="B60" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
       <c r="A61" s="2"/>
-      <c r="B61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:5">
+      <c r="B61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E62" s="12"/>
+        <v>216</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="63" customHeight="1" spans="1:4">
       <c r="A63" s="2"/>
-      <c r="B63" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6" t="s">
-        <v>210</v>
+      <c r="B63" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:4">
       <c r="A64" s="2"/>
-      <c r="B64" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6" t="s">
-        <v>212</v>
+      <c r="B64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6" t="s">
-        <v>214</v>
+      <c r="B65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" s="2"/>
-      <c r="B66" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6" t="s">
-        <v>216</v>
+      <c r="B66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:4">
       <c r="A67" s="2"/>
-      <c r="B67" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:4">
+      <c r="B67" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:4">
+        <v>229</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="14"/>
+        <v>232</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="70" customHeight="1" spans="1:5">
       <c r="A70" s="2"/>
-      <c r="B70" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>28</v>
+      <c r="B70" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:5">
       <c r="A71" s="2"/>
-      <c r="B71" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>30</v>
+      <c r="B71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:5">
       <c r="A72" s="2"/>
-      <c r="B72" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>32</v>
+      <c r="B72" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:5">
       <c r="A73" s="2"/>
-      <c r="B73" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>38</v>
+      <c r="B73" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:5">
       <c r="A74" s="2"/>
-      <c r="B74" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>40</v>
+      <c r="B74" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:5">
       <c r="A75" s="2"/>
-      <c r="B75" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>74</v>
+      <c r="B75" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:5">
       <c r="A76" s="2"/>
-      <c r="B76" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>76</v>
+      <c r="B76" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:5">
       <c r="A77" s="2"/>
-      <c r="B77" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>78</v>
+      <c r="B77" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:5">
       <c r="A78" s="2"/>
-      <c r="B78" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>80</v>
+      <c r="B78" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:5">
       <c r="A79" s="2"/>
-      <c r="B79" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>104</v>
+      <c r="B79" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:5">
       <c r="A80" s="2"/>
-      <c r="B80" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>108</v>
+      <c r="B80" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:5">
       <c r="A81" s="2"/>
-      <c r="B81" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>110</v>
+      <c r="B81" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:5">
       <c r="A82" s="2"/>
-      <c r="B82" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>114</v>
+      <c r="B82" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:5">
       <c r="A83" s="2"/>
-      <c r="B83" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>116</v>
+      <c r="B83" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:5">
       <c r="A84" s="2"/>
-      <c r="B84" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>118</v>
+      <c r="B84" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:5">
       <c r="A85" s="2"/>
-      <c r="B85" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>120</v>
+      <c r="B85" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:5">
       <c r="A86" s="2"/>
-      <c r="B86" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>128</v>
+      <c r="B86" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:5">
       <c r="A87" s="2"/>
-      <c r="B87" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>130</v>
+      <c r="B87" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:5">
       <c r="A88" s="2"/>
-      <c r="B88" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>132</v>
+      <c r="B88" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:5">
       <c r="A89" s="2"/>
-      <c r="B89" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>134</v>
+      <c r="B89" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/doc/物品ID.xlsx
+++ b/doc/物品ID.xlsx
@@ -1745,9 +1745,9 @@
   <dimension ref="A1:L425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A161" sqref="A161"/>
+      <selection pane="bottomLeft" activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1759,7 +1759,7 @@
     <col min="5" max="5" width="11.6333333333333" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.325" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.8416666666667" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="8" max="16383" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:12">

--- a/doc/物品ID.xlsx
+++ b/doc/物品ID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="278">
   <si>
     <t>CustomModelData</t>
   </si>
@@ -453,6 +453,75 @@
   </si>
   <si>
     <t>Boosted Uranium</t>
+  </si>
+  <si>
+    <t>筛矿</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>小麦粉</t>
+  </si>
+  <si>
+    <t>钢板</t>
+  </si>
+  <si>
+    <t>锁链</t>
+  </si>
+  <si>
+    <t>钩子</t>
+  </si>
+  <si>
+    <t>石块</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>浓奶油</t>
+  </si>
+  <si>
+    <t>黄油</t>
+  </si>
+  <si>
+    <t>奶酪</t>
+  </si>
+  <si>
+    <t>已粉碎的矿石</t>
+  </si>
+  <si>
+    <t>粉末状的矿石</t>
+  </si>
+  <si>
+    <t>纯矿簇</t>
+  </si>
+  <si>
+    <t>一小块铀</t>
+  </si>
+  <si>
+    <t>一小堆铀</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>锡罐</t>
+  </si>
+  <si>
+    <t>金块(24克拉)</t>
+  </si>
+  <si>
+    <t>钢筋板</t>
+  </si>
+  <si>
+    <t>强力胶布</t>
+  </si>
+  <si>
+    <t>有机食物</t>
+  </si>
+  <si>
+    <t>有机肥料</t>
   </si>
   <si>
     <t>更多的合成 (Crafting++)</t>
@@ -787,12 +856,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,33 +876,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -845,25 +890,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,7 +935,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,8 +948,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,16 +971,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,10 +1018,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -960,7 +1034,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,31 +1178,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,133 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,56 +1225,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1228,15 +1252,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1251,6 +1266,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1259,10 +1333,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,137 +1345,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1414,13 +1488,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1745,24 +1825,25 @@
   <dimension ref="A1:L425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F183" sqref="F183"/>
+      <selection pane="bottomLeft" activeCell="K266" sqref="K266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.6916666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.7416666666667" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.9083333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.325" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.8416666666667" style="5" customWidth="1"/>
-    <col min="8" max="16383" width="9" style="5"/>
+    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.6916666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.7416666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.9083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.325" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.8416666666667" style="4" customWidth="1"/>
+    <col min="8" max="16383" width="9" style="4"/>
+    <col min="16384" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:12">
+    <row r="1" s="2" customFormat="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1778,4632 +1859,4830 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>7270001</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="7" t="str">
         <f t="shared" ref="B2:B33" si="0">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>7270002</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>7270003</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>7270004</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>7270005</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>7270006</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7270007</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7270008</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>7270009</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7270010</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>7270011</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>7270012</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>7270013</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>7270014</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>7270015</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>7270016</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>7270017</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>7270018</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>7270019</v>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>7270020</v>
       </c>
-      <c r="B21" s="5" t="str">
+      <c r="B21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>7270021</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>7270022</v>
       </c>
-      <c r="B23" s="5" t="str">
+      <c r="B23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>7270023</v>
       </c>
-      <c r="B24" s="5" t="str">
+      <c r="B24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>7270024</v>
       </c>
-      <c r="B25" s="5" t="str">
+      <c r="B25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>7270025</v>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B26" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>7270026</v>
       </c>
-      <c r="B27" s="5" t="str">
+      <c r="B27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>7270027</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>7270028</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>7270029</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>7270030</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>7270031</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>7270032</v>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B33" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>7270033</v>
       </c>
-      <c r="B34" s="5" t="str">
+      <c r="B34" s="7" t="str">
         <f t="shared" ref="B34:B65" si="1">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>7270034</v>
       </c>
-      <c r="B35" s="5" t="str">
+      <c r="B35" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>7270035</v>
       </c>
-      <c r="B36" s="5" t="str">
+      <c r="B36" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>7270036</v>
       </c>
-      <c r="B37" s="5" t="str">
+      <c r="B37" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>7270037</v>
       </c>
-      <c r="B38" s="5" t="str">
+      <c r="B38" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>7270038</v>
       </c>
-      <c r="B39" s="5" t="str">
+      <c r="B39" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>7270039</v>
       </c>
-      <c r="B40" s="5" t="str">
+      <c r="B40" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>7270040</v>
       </c>
-      <c r="B41" s="5" t="str">
+      <c r="B41" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>7270041</v>
       </c>
-      <c r="B42" s="5" t="str">
+      <c r="B42" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>7270042</v>
       </c>
-      <c r="B43" s="5" t="str">
+      <c r="B43" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>7270043</v>
       </c>
-      <c r="B44" s="5" t="str">
+      <c r="B44" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>7270044</v>
       </c>
-      <c r="B45" s="5" t="str">
+      <c r="B45" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>7270045</v>
       </c>
-      <c r="B46" s="5" t="str">
+      <c r="B46" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>7270046</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B47" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>7270047</v>
       </c>
-      <c r="B48" s="5" t="str">
+      <c r="B48" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>7270048</v>
       </c>
-      <c r="B49" s="5" t="str">
+      <c r="B49" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>7270049</v>
       </c>
-      <c r="B50" s="5" t="str">
+      <c r="B50" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>7270050</v>
       </c>
-      <c r="B51" s="5" t="str">
+      <c r="B51" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>7270051</v>
       </c>
-      <c r="B52" s="5" t="str">
+      <c r="B52" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>7270052</v>
       </c>
-      <c r="B53" s="5" t="str">
+      <c r="B53" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>7270053</v>
       </c>
-      <c r="B54" s="5" t="str">
+      <c r="B54" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>7270054</v>
       </c>
-      <c r="B55" s="5" t="str">
+      <c r="B55" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>7270055</v>
       </c>
-      <c r="B56" s="5" t="str">
+      <c r="B56" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>7270056</v>
       </c>
-      <c r="B57" s="5" t="str">
+      <c r="B57" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>7270057</v>
       </c>
-      <c r="B58" s="5" t="str">
+      <c r="B58" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>7270058</v>
       </c>
-      <c r="B59" s="5" t="str">
+      <c r="B59" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>7270059</v>
       </c>
-      <c r="B60" s="5" t="str">
+      <c r="B60" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>7270060</v>
       </c>
-      <c r="B61" s="5" t="str">
+      <c r="B61" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>7270061</v>
       </c>
-      <c r="B62" s="5" t="str">
+      <c r="B62" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>7270062</v>
       </c>
-      <c r="B63" s="5" t="str">
+      <c r="B63" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>7270063</v>
       </c>
-      <c r="B64" s="5" t="str">
+      <c r="B64" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>7270064</v>
       </c>
-      <c r="B65" s="5" t="str">
+      <c r="B65" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>7270065</v>
       </c>
-      <c r="B66" s="5" t="str">
+      <c r="B66" s="7" t="str">
         <f t="shared" ref="B66:B97" si="2">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>7270066</v>
       </c>
-      <c r="B67" s="5" t="str">
+      <c r="B67" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>7270067</v>
       </c>
-      <c r="B68" s="5" t="str">
+      <c r="B68" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>7270068</v>
       </c>
-      <c r="B69" s="5" t="str">
+      <c r="B69" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>7270069</v>
       </c>
-      <c r="B70" s="5" t="str">
+      <c r="B70" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>7270070</v>
       </c>
-      <c r="B71" s="5" t="str">
+      <c r="B71" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>7270071</v>
       </c>
-      <c r="B72" s="5" t="str">
+      <c r="B72" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>7270072</v>
       </c>
-      <c r="B73" s="5" t="str">
+      <c r="B73" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>7270073</v>
       </c>
-      <c r="B74" s="5" t="str">
+      <c r="B74" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>7270074</v>
       </c>
-      <c r="B75" s="5" t="str">
+      <c r="B75" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>7270075</v>
       </c>
-      <c r="B76" s="5" t="str">
+      <c r="B76" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>7270076</v>
       </c>
-      <c r="B77" s="5" t="str">
+      <c r="B77" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>7270077</v>
       </c>
-      <c r="B78" s="5" t="str">
+      <c r="B78" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>7270078</v>
       </c>
-      <c r="B79" s="5" t="str">
+      <c r="B79" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>7270079</v>
       </c>
-      <c r="B80" s="5" t="str">
+      <c r="B80" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>7270080</v>
       </c>
-      <c r="B81" s="5" t="str">
+      <c r="B81" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>7270081</v>
       </c>
-      <c r="B82" s="5" t="str">
+      <c r="B82" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>7270082</v>
       </c>
-      <c r="B83" s="5" t="str">
+      <c r="B83" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>7270083</v>
       </c>
-      <c r="B84" s="5" t="str">
+      <c r="B84" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>7270084</v>
       </c>
-      <c r="B85" s="5" t="str">
+      <c r="B85" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>7270085</v>
       </c>
-      <c r="B86" s="5" t="str">
+      <c r="B86" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>7270086</v>
       </c>
-      <c r="B87" s="5" t="str">
+      <c r="B87" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>7270087</v>
       </c>
-      <c r="B88" s="5" t="str">
+      <c r="B88" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>7270088</v>
       </c>
-      <c r="B89" s="5" t="str">
+      <c r="B89" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>7270089</v>
       </c>
-      <c r="B90" s="5" t="str">
+      <c r="B90" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>7270090</v>
       </c>
-      <c r="B91" s="5" t="str">
+      <c r="B91" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>7270091</v>
       </c>
-      <c r="B92" s="5" t="str">
+      <c r="B92" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>7270092</v>
       </c>
-      <c r="B93" s="5" t="str">
+      <c r="B93" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>7270093</v>
       </c>
-      <c r="B94" s="5" t="str">
+      <c r="B94" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>7270094</v>
       </c>
-      <c r="B95" s="5" t="str">
+      <c r="B95" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>7270095</v>
       </c>
-      <c r="B96" s="5" t="str">
+      <c r="B96" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>7270096</v>
       </c>
-      <c r="B97" s="5" t="str">
+      <c r="B97" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>7270097</v>
       </c>
-      <c r="B98" s="5" t="str">
+      <c r="B98" s="7" t="str">
         <f t="shared" ref="B98:B129" si="3">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>7270098</v>
       </c>
-      <c r="B99" s="5" t="str">
+      <c r="B99" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>7270099</v>
       </c>
-      <c r="B100" s="5" t="str">
+      <c r="B100" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>7270100</v>
       </c>
-      <c r="B101" s="5" t="str">
+      <c r="B101" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>7270101</v>
       </c>
-      <c r="B102" s="5" t="str">
+      <c r="B102" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>7270102</v>
       </c>
-      <c r="B103" s="5" t="str">
+      <c r="B103" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>7270103</v>
       </c>
-      <c r="B104" s="5" t="str">
+      <c r="B104" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>7270104</v>
       </c>
-      <c r="B105" s="5" t="str">
+      <c r="B105" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>7270105</v>
       </c>
-      <c r="B106" s="5" t="str">
+      <c r="B106" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>7270106</v>
       </c>
-      <c r="B107" s="5" t="str">
+      <c r="B107" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>7270107</v>
       </c>
-      <c r="B108" s="5" t="str">
+      <c r="B108" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>7270108</v>
       </c>
-      <c r="B109" s="5" t="str">
+      <c r="B109" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>7270109</v>
       </c>
-      <c r="B110" s="5" t="str">
+      <c r="B110" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>7270110</v>
       </c>
-      <c r="B111" s="5" t="str">
+      <c r="B111" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>7270111</v>
       </c>
-      <c r="B112" s="5" t="str">
+      <c r="B112" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>7270112</v>
       </c>
-      <c r="B113" s="5" t="str">
+      <c r="B113" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>7270113</v>
       </c>
-      <c r="B114" s="5" t="str">
+      <c r="B114" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>7270114</v>
       </c>
-      <c r="B115" s="5" t="str">
+      <c r="B115" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>7270115</v>
       </c>
-      <c r="B116" s="5" t="str">
+      <c r="B116" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>7270116</v>
       </c>
-      <c r="B117" s="5" t="str">
+      <c r="B117" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>7270117</v>
       </c>
-      <c r="B118" s="5" t="str">
+      <c r="B118" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>7270118</v>
       </c>
-      <c r="B119" s="5" t="str">
+      <c r="B119" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>7270119</v>
       </c>
-      <c r="B120" s="5" t="str">
+      <c r="B120" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>7270120</v>
       </c>
-      <c r="B121" s="5" t="str">
+      <c r="B121" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>7270121</v>
       </c>
-      <c r="B122" s="5" t="str">
+      <c r="B122" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>7270122</v>
       </c>
-      <c r="B123" s="5" t="str">
+      <c r="B123" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>7270123</v>
       </c>
-      <c r="B124" s="5" t="str">
+      <c r="B124" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>7270124</v>
       </c>
-      <c r="B125" s="5" t="str">
+      <c r="B125" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>7270125</v>
       </c>
-      <c r="B126" s="5" t="str">
+      <c r="B126" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="5">
+      <c r="A127" s="4">
         <v>7270126</v>
       </c>
-      <c r="B127" s="5" t="str">
+      <c r="B127" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="5">
+      <c r="A128" s="4">
         <v>7270127</v>
       </c>
-      <c r="B128" s="5" t="str">
+      <c r="B128" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>7270128</v>
       </c>
-      <c r="B129" s="5" t="str">
+      <c r="B129" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>7270129</v>
       </c>
-      <c r="B130" s="5" t="str">
+      <c r="B130" s="7" t="str">
         <f t="shared" ref="B130:B161" si="4">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>7270130</v>
       </c>
-      <c r="B131" s="5" t="str">
+      <c r="B131" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>7270131</v>
       </c>
-      <c r="B132" s="5" t="str">
+      <c r="B132" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>7270132</v>
       </c>
-      <c r="B133" s="5" t="str">
+      <c r="B133" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>7270133</v>
       </c>
-      <c r="B134" s="5" t="str">
+      <c r="B134" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>7270134</v>
       </c>
-      <c r="B135" s="5" t="str">
+      <c r="B135" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>7270135</v>
       </c>
-      <c r="B136" s="5" t="str">
+      <c r="B136" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="5">
+      <c r="A137" s="4">
         <v>7270136</v>
       </c>
-      <c r="B137" s="5" t="str">
+      <c r="B137" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="5">
+      <c r="A138" s="4">
         <v>7270137</v>
       </c>
-      <c r="B138" s="5" t="str">
+      <c r="B138" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="5">
+      <c r="A139" s="4">
         <v>7270138</v>
       </c>
-      <c r="B139" s="5" t="str">
+      <c r="B139" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>7270139</v>
       </c>
-      <c r="B140" s="5" t="str">
+      <c r="B140" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="5">
+      <c r="A141" s="4">
         <v>7270140</v>
       </c>
-      <c r="B141" s="5" t="str">
+      <c r="B141" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <v>7270141</v>
       </c>
-      <c r="B142" s="5" t="str">
+      <c r="B142" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="5">
+      <c r="A143" s="4">
         <v>7270142</v>
       </c>
-      <c r="B143" s="5" t="str">
+      <c r="B143" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="5">
+      <c r="A144" s="4">
         <v>7270143</v>
       </c>
-      <c r="B144" s="5" t="str">
+      <c r="B144" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="5">
+      <c r="A145" s="4">
         <v>7270144</v>
       </c>
-      <c r="B145" s="5" t="str">
+      <c r="B145" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="5">
+      <c r="A146" s="4">
         <v>7270145</v>
       </c>
-      <c r="B146" s="5" t="str">
+      <c r="B146" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="5">
+      <c r="A147" s="4">
         <v>7270146</v>
       </c>
-      <c r="B147" s="5" t="str">
+      <c r="B147" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="5">
+      <c r="A148" s="4">
         <v>7270147</v>
       </c>
-      <c r="B148" s="5" t="str">
+      <c r="B148" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="5">
+      <c r="A149" s="4">
         <v>7270148</v>
       </c>
-      <c r="B149" s="5" t="str">
+      <c r="B149" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="5">
+      <c r="A150" s="4">
         <v>7270149</v>
       </c>
-      <c r="B150" s="5" t="str">
+      <c r="B150" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="5">
+      <c r="A151" s="4">
         <v>7270150</v>
       </c>
-      <c r="B151" s="5" t="str">
+      <c r="B151" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="5">
+      <c r="A152" s="4">
         <v>7270151</v>
       </c>
-      <c r="B152" s="5" t="str">
+      <c r="B152" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="5">
+      <c r="A153" s="4">
         <v>7270152</v>
       </c>
-      <c r="B153" s="5" t="str">
+      <c r="B153" s="7" t="str">
         <f t="shared" si="4"/>
         <v>reinforced_alloy_ingot</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E153" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="5">
+      <c r="A154" s="4">
         <v>7270153</v>
       </c>
-      <c r="B154" s="5" t="str">
+      <c r="B154" s="7" t="str">
         <f t="shared" si="4"/>
         <v>hardened_metal</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F154" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="5">
+      <c r="F154" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" ht="27" spans="1:6">
+      <c r="A155" s="4">
         <v>7270154</v>
       </c>
-      <c r="B155" s="5" t="str">
+      <c r="B155" s="7" t="str">
         <f t="shared" si="4"/>
         <v>damascus_steel_ingot</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="5">
+      <c r="A156" s="4">
         <v>7270155</v>
       </c>
-      <c r="B156" s="5" t="str">
+      <c r="B156" s="7" t="str">
         <f t="shared" si="4"/>
         <v>steel_ingot</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="5">
+      <c r="A157" s="4">
         <v>7270156</v>
       </c>
-      <c r="B157" s="5" t="str">
+      <c r="B157" s="7" t="str">
         <f t="shared" si="4"/>
         <v>bronze_ingot</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="5">
+      <c r="A158" s="4">
         <v>7270157</v>
       </c>
-      <c r="B158" s="5" t="str">
+      <c r="B158" s="7" t="str">
         <f t="shared" si="4"/>
         <v>duralumin_ingot</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F158" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="5">
+      <c r="A159" s="4">
         <v>7270158</v>
       </c>
-      <c r="B159" s="5" t="str">
+      <c r="B159" s="7" t="str">
         <f t="shared" si="4"/>
         <v>billon_ingot</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="5">
+      <c r="A160" s="4">
         <v>7270159</v>
       </c>
-      <c r="B160" s="5" t="str">
+      <c r="B160" s="7" t="str">
         <f t="shared" si="4"/>
         <v>brass_ingot</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="5">
+      <c r="A161" s="4">
         <v>7270160</v>
       </c>
-      <c r="B161" s="5" t="str">
+      <c r="B161" s="7" t="str">
         <f t="shared" si="4"/>
         <v>aluminum_brass_ingot</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E161" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F161" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="5">
+      <c r="A162" s="4">
         <v>7270161</v>
       </c>
-      <c r="B162" s="5" t="str">
+      <c r="B162" s="7" t="str">
         <f t="shared" ref="B162:B190" si="5">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>aluminum_bronze_ingot</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="E162" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F162" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="5">
+      <c r="F162" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" ht="27" spans="1:6">
+      <c r="A163" s="4">
         <v>7270162</v>
       </c>
-      <c r="B163" s="5" t="str">
+      <c r="B163" s="7" t="str">
         <f t="shared" si="5"/>
         <v>corinthian_bronze_ingot</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="5">
+      <c r="A164" s="4">
         <v>7270163</v>
       </c>
-      <c r="B164" s="5" t="str">
+      <c r="B164" s="7" t="str">
         <f t="shared" si="5"/>
         <v>solder_ingot</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="5">
+      <c r="A165" s="4">
         <v>7270164</v>
       </c>
-      <c r="B165" s="5" t="str">
+      <c r="B165" s="7" t="str">
         <f t="shared" si="5"/>
         <v>synthetic_sapphire</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="5">
+      <c r="A166" s="4">
         <v>7270165</v>
       </c>
-      <c r="B166" s="5" t="str">
+      <c r="B166" s="7" t="str">
         <f t="shared" si="5"/>
         <v>synthetic_diamond</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F166" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="5">
+      <c r="F166" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" ht="27" spans="1:6">
+      <c r="A167" s="4">
         <v>7270166</v>
       </c>
-      <c r="B167" s="5" t="str">
+      <c r="B167" s="7" t="str">
         <f t="shared" si="5"/>
         <v>raw_carbonado</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="5">
+      <c r="A168" s="4">
         <v>7270167</v>
       </c>
-      <c r="B168" s="5" t="str">
+      <c r="B168" s="7" t="str">
         <f t="shared" si="5"/>
         <v>nickel_ingot</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="5">
+      <c r="A169" s="4">
         <v>7270168</v>
       </c>
-      <c r="B169" s="5" t="str">
+      <c r="B169" s="7" t="str">
         <f t="shared" si="5"/>
         <v>cobalt_ingot</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E169" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="5">
+      <c r="A170" s="4">
         <v>7270169</v>
       </c>
-      <c r="B170" s="5" t="str">
+      <c r="B170" s="7" t="str">
         <f t="shared" si="5"/>
         <v>carbonado</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="5">
+      <c r="A171" s="4">
         <v>7270170</v>
       </c>
-      <c r="B171" s="5" t="str">
+      <c r="B171" s="7" t="str">
         <f t="shared" si="5"/>
         <v>ferrosilicon</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="5">
+      <c r="A172" s="4">
         <v>7270171</v>
       </c>
-      <c r="B172" s="5" t="str">
+      <c r="B172" s="7" t="str">
         <f t="shared" si="5"/>
         <v>iron_dust</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F172" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="5">
+      <c r="A173" s="4">
         <v>7270172</v>
       </c>
-      <c r="B173" s="5" t="str">
+      <c r="B173" s="7" t="str">
         <f t="shared" si="5"/>
         <v>gold_dust</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="5">
+      <c r="A174" s="4">
         <v>7270173</v>
       </c>
-      <c r="B174" s="5" t="str">
+      <c r="B174" s="7" t="str">
         <f t="shared" si="5"/>
         <v>copper_dust</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="F174" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="5">
+      <c r="A175" s="4">
         <v>7270174</v>
       </c>
-      <c r="B175" s="5" t="str">
+      <c r="B175" s="7" t="str">
         <f t="shared" si="5"/>
         <v>tin_dust</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="5">
+      <c r="A176" s="4">
         <v>7270175</v>
       </c>
-      <c r="B176" s="5" t="str">
+      <c r="B176" s="7" t="str">
         <f t="shared" si="5"/>
         <v>silver_dust</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="5">
+      <c r="A177" s="4">
         <v>7270176</v>
       </c>
-      <c r="B177" s="5" t="str">
+      <c r="B177" s="7" t="str">
         <f t="shared" si="5"/>
         <v>aluminum_dust</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="5">
+      <c r="A178" s="4">
         <v>7270177</v>
       </c>
-      <c r="B178" s="5" t="str">
+      <c r="B178" s="7" t="str">
         <f t="shared" si="5"/>
         <v>lead_dust</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="5">
+      <c r="A179" s="4">
         <v>7270178</v>
       </c>
-      <c r="B179" s="5" t="str">
+      <c r="B179" s="7" t="str">
         <f t="shared" si="5"/>
         <v>zinc_dust</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="5">
+      <c r="A180" s="4">
         <v>7270179</v>
       </c>
-      <c r="B180" s="5" t="str">
+      <c r="B180" s="7" t="str">
         <f t="shared" si="5"/>
         <v>magnesium_dust</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="E180" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="F180" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="5">
+      <c r="A181" s="4">
         <v>7270180</v>
       </c>
-      <c r="B181" s="5" t="str">
+      <c r="B181" s="7" t="str">
         <f t="shared" si="5"/>
         <v>copper_ingot</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F181" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="5">
+      <c r="A182" s="4">
         <v>7270181</v>
       </c>
-      <c r="B182" s="5" t="str">
+      <c r="B182" s="7" t="str">
         <f t="shared" si="5"/>
         <v>tin_ingot</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E182" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="F182" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="5">
+      <c r="A183" s="4">
         <v>7270182</v>
       </c>
-      <c r="B183" s="5" t="str">
+      <c r="B183" s="7" t="str">
         <f t="shared" si="5"/>
         <v>silver_ingot</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="E183" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="F183" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="5">
+      <c r="A184" s="4">
         <v>7270183</v>
       </c>
-      <c r="B184" s="5" t="str">
+      <c r="B184" s="7" t="str">
         <f t="shared" si="5"/>
         <v>aluminum_ingot</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E184" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="F184" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="5">
+      <c r="A185" s="4">
         <v>7270184</v>
       </c>
-      <c r="B185" s="5" t="str">
+      <c r="B185" s="7" t="str">
         <f t="shared" si="5"/>
         <v>lead_ingot</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="F185" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="5">
+      <c r="A186" s="4">
         <v>7270185</v>
       </c>
-      <c r="B186" s="5" t="str">
+      <c r="B186" s="7" t="str">
         <f t="shared" si="5"/>
         <v>zinc_ingot</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E186" s="5" t="s">
+      <c r="E186" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="F186" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="5">
+      <c r="A187" s="4">
         <v>7270186</v>
       </c>
-      <c r="B187" s="5" t="str">
+      <c r="B187" s="7" t="str">
         <f t="shared" si="5"/>
         <v>magnesium_ingot</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="E187" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="F187" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="5">
+      <c r="A188" s="4">
         <v>7270187</v>
       </c>
-      <c r="B188" s="5" t="str">
+      <c r="B188" s="7" t="str">
         <f t="shared" si="5"/>
         <v>sulfate</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="E188" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="F188" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="5">
+      <c r="A189" s="4">
         <v>7270188</v>
       </c>
-      <c r="B189" s="5" t="str">
+      <c r="B189" s="7" t="str">
         <f t="shared" si="5"/>
         <v>carbon</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="F189" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="5">
+      <c r="A190" s="4">
         <v>7270189</v>
       </c>
-      <c r="B190" s="5" t="str">
+      <c r="B190" s="7" t="str">
         <f t="shared" si="5"/>
         <v>compressed_carbon</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="F190" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="5">
+      <c r="A191" s="4">
         <v>7270190</v>
       </c>
-      <c r="B191" s="5" t="str">
+      <c r="B191" s="7" t="str">
         <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>carbon_chunk</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F191" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="5">
+      <c r="F191" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" ht="27" spans="1:6">
+      <c r="A192" s="4">
         <v>7270191</v>
       </c>
-      <c r="B192" s="5" t="str">
+      <c r="B192" s="7" t="str">
         <f t="shared" ref="B192:B255" si="6">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_24_carat</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="5">
+      <c r="F192" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" ht="27" spans="1:6">
+      <c r="A193" s="4">
         <v>7270192</v>
       </c>
-      <c r="B193" s="5" t="str">
+      <c r="B193" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_22_carat</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F193" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="5">
+      <c r="F193" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" ht="27" spans="1:6">
+      <c r="A194" s="4">
         <v>7270193</v>
       </c>
-      <c r="B194" s="5" t="str">
+      <c r="B194" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_20_carat</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F194" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="5">
+      <c r="F194" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" ht="27" spans="1:6">
+      <c r="A195" s="4">
         <v>7270194</v>
       </c>
-      <c r="B195" s="5" t="str">
+      <c r="B195" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_18_carat</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E195" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F195" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="5">
+      <c r="F195" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" ht="27" spans="1:6">
+      <c r="A196" s="4">
         <v>7270195</v>
       </c>
-      <c r="B196" s="5" t="str">
+      <c r="B196" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_16_carat</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F196" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="5">
+      <c r="F196" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" ht="27" spans="1:6">
+      <c r="A197" s="4">
         <v>7270196</v>
       </c>
-      <c r="B197" s="5" t="str">
+      <c r="B197" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_14_carat</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F197" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="5">
+      <c r="F197" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" ht="27" spans="1:6">
+      <c r="A198" s="4">
         <v>7270197</v>
       </c>
-      <c r="B198" s="5" t="str">
+      <c r="B198" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_12_carat</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E198" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F198" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="5">
+      <c r="F198" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" ht="27" spans="1:6">
+      <c r="A199" s="4">
         <v>7270198</v>
       </c>
-      <c r="B199" s="5" t="str">
+      <c r="B199" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_10_carat</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E199" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="F199" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="5">
+      <c r="A200" s="4">
         <v>7270199</v>
       </c>
-      <c r="B200" s="5" t="str">
+      <c r="B200" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_8_carat</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E200" s="5" t="s">
+      <c r="E200" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F200" s="5" t="s">
+      <c r="F200" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="5">
+      <c r="A201" s="4">
         <v>7270200</v>
       </c>
-      <c r="B201" s="5" t="str">
+      <c r="B201" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_6_carat</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D201" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="E201" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="F201" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="5">
+      <c r="A202" s="4">
         <v>7270201</v>
       </c>
-      <c r="B202" s="5" t="str">
+      <c r="B202" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gold_ingot_4_carat</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="E202" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="F202" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="5">
+      <c r="A203" s="4">
         <v>7270202</v>
       </c>
-      <c r="B203" s="5" t="str">
+      <c r="B203" s="7" t="str">
         <f t="shared" si="6"/>
         <v>silicon</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D203" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="E203" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F203" s="5" t="s">
+      <c r="F203" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="5">
+      <c r="A204" s="4">
         <v>7270203</v>
       </c>
-      <c r="B204" s="5" t="str">
+      <c r="B204" s="7" t="str">
         <f t="shared" si="6"/>
         <v>gilded_iron</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="F204" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="5">
+      <c r="A205" s="4">
         <v>7270204</v>
       </c>
-      <c r="B205" s="5" t="str">
+      <c r="B205" s="7" t="str">
         <f t="shared" si="6"/>
         <v>synthetic_emerald</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E205" s="5" t="s">
+      <c r="E205" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="F205" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="5">
+      <c r="A206" s="4">
         <v>7270205</v>
       </c>
-      <c r="B206" s="5" t="str">
+      <c r="B206" s="7" t="str">
         <f t="shared" si="6"/>
         <v>uranium</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E206" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="F206" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="5">
+      <c r="A207" s="4">
         <v>7270206</v>
       </c>
-      <c r="B207" s="5" t="str">
+      <c r="B207" s="7" t="str">
         <f t="shared" si="6"/>
         <v>redstone_alloy_ingot</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="E207" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="F207" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="5">
+      <c r="A208" s="4">
         <v>7270207</v>
       </c>
-      <c r="B208" s="5" t="str">
+      <c r="B208" s="7" t="str">
         <f t="shared" si="6"/>
         <v>magnesium_salt</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E208" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="F208" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="5">
+      <c r="A209" s="4">
         <v>7270208</v>
       </c>
-      <c r="B209" s="5" t="str">
+      <c r="B209" s="7" t="str">
         <f t="shared" si="6"/>
         <v>bucket_of_oil</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E209" s="5" t="s">
+      <c r="E209" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="F209" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="5">
+      <c r="A210" s="4">
         <v>7270209</v>
       </c>
-      <c r="B210" s="5" t="str">
+      <c r="B210" s="7" t="str">
         <f t="shared" si="6"/>
         <v>bucket_of_fuel</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E210" s="5" t="s">
+      <c r="E210" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F210" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="5">
+      <c r="A211" s="4">
         <v>7270210</v>
       </c>
-      <c r="B211" s="5" t="str">
+      <c r="B211" s="7" t="str">
         <f t="shared" si="6"/>
         <v>nether_ice</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="D211" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E211" s="5" t="s">
+      <c r="E211" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F211" s="5" t="s">
+      <c r="F211" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="5">
+      <c r="A212" s="4">
         <v>7270211</v>
       </c>
-      <c r="B212" s="5" t="str">
+      <c r="B212" s="7" t="str">
         <f t="shared" si="6"/>
         <v>blistering_ingot_33</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D212" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E212" s="5" t="s">
+      <c r="E212" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="F212" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="5">
+      <c r="A213" s="4">
         <v>7270212</v>
       </c>
-      <c r="B213" s="5" t="str">
+      <c r="B213" s="7" t="str">
         <f t="shared" si="6"/>
         <v>blistering_ingot_66</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D213" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E213" s="5" t="s">
+      <c r="E213" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="F213" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="5">
+      <c r="A214" s="4">
         <v>7270213</v>
       </c>
-      <c r="B214" s="5" t="str">
+      <c r="B214" s="7" t="str">
         <f t="shared" si="6"/>
         <v>blistering_ingot</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="E214" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F214" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="5">
+      <c r="A215" s="4">
         <v>7270214</v>
       </c>
-      <c r="B215" s="5" t="str">
+      <c r="B215" s="7" t="str">
         <f t="shared" si="6"/>
         <v>enriched_nether_ice</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D215" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E215" s="5" t="s">
+      <c r="E215" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="F215" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="5">
+      <c r="A216" s="4">
         <v>7270215</v>
       </c>
-      <c r="B216" s="5" t="str">
+      <c r="B216" s="7" t="str">
         <f t="shared" si="6"/>
         <v>neptunium</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E216" s="5" t="s">
+      <c r="E216" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="F216" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="5">
+      <c r="A217" s="4">
         <v>7270216</v>
       </c>
-      <c r="B217" s="5" t="str">
+      <c r="B217" s="7" t="str">
         <f t="shared" si="6"/>
         <v>plutonium</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="D217" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E217" s="5" t="s">
+      <c r="E217" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="F217" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="5">
+      <c r="A218" s="4">
         <v>7270217</v>
       </c>
-      <c r="B218" s="5" t="str">
+      <c r="B218" s="7" t="str">
         <f t="shared" si="6"/>
         <v>boosted_uranium</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E218" s="5" t="s">
+      <c r="E218" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="F218" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="5">
+      <c r="A219" s="4">
         <v>7270218</v>
       </c>
-      <c r="B219" s="5" t="str">
+      <c r="B219" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="5">
+      <c r="A220" s="4">
         <v>7270219</v>
       </c>
-      <c r="B220" s="5" t="str">
+      <c r="B220" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="5">
+      <c r="A221" s="4">
         <v>7270220</v>
       </c>
-      <c r="B221" s="5" t="str">
+      <c r="B221" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="5">
+      <c r="A222" s="4">
         <v>7270221</v>
       </c>
-      <c r="B222" s="5" t="str">
+      <c r="B222" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="5">
+      <c r="A223" s="4">
         <v>7270222</v>
       </c>
-      <c r="B223" s="5" t="str">
+      <c r="B223" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="5">
+      <c r="A224" s="4">
         <v>7270223</v>
       </c>
-      <c r="B224" s="5" t="str">
+      <c r="B224" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="5">
+      <c r="A225" s="4">
         <v>7270224</v>
       </c>
-      <c r="B225" s="5" t="str">
+      <c r="B225" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="5">
+      <c r="A226" s="4">
         <v>7270225</v>
       </c>
-      <c r="B226" s="5" t="str">
+      <c r="B226" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="5">
+      <c r="A227" s="4">
         <v>7270226</v>
       </c>
-      <c r="B227" s="5" t="str">
+      <c r="B227" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="5">
+      <c r="A228" s="4">
         <v>7270227</v>
       </c>
-      <c r="B228" s="5" t="str">
+      <c r="B228" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="5">
+      <c r="A229" s="4">
         <v>7270228</v>
       </c>
-      <c r="B229" s="5" t="str">
+      <c r="B229" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="5">
+      <c r="A230" s="4">
         <v>7270229</v>
       </c>
-      <c r="B230" s="5" t="str">
+      <c r="B230" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="5">
+      <c r="A231" s="4">
         <v>7270230</v>
       </c>
-      <c r="B231" s="5" t="str">
+      <c r="B231" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="5">
+      <c r="A232" s="4">
         <v>7270231</v>
       </c>
-      <c r="B232" s="5" t="str">
+      <c r="B232" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="5">
+      <c r="A233" s="4">
         <v>7270232</v>
       </c>
-      <c r="B233" s="5" t="str">
+      <c r="B233" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="5">
+      <c r="A234" s="4">
         <v>7270233</v>
       </c>
-      <c r="B234" s="5" t="str">
+      <c r="B234" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="5">
+      <c r="A235" s="4">
         <v>7270234</v>
       </c>
-      <c r="B235" s="5" t="str">
+      <c r="B235" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="5">
+      <c r="A236" s="4">
         <v>7270235</v>
       </c>
-      <c r="B236" s="5" t="str">
+      <c r="B236" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="5">
+      <c r="A237" s="4">
         <v>7270236</v>
       </c>
-      <c r="B237" s="5" t="str">
+      <c r="B237" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="5">
+      <c r="A238" s="4">
         <v>7270237</v>
       </c>
-      <c r="B238" s="5" t="str">
+      <c r="B238" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="5">
+      <c r="A239" s="4">
         <v>7270238</v>
       </c>
-      <c r="B239" s="5" t="str">
+      <c r="B239" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="5">
+      <c r="A240" s="4">
         <v>7270239</v>
       </c>
-      <c r="B240" s="5" t="str">
+      <c r="B240" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="5">
+      <c r="A241" s="4">
         <v>7270240</v>
       </c>
-      <c r="B241" s="5" t="str">
+      <c r="B241" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="5">
+      <c r="A242" s="4">
         <v>7270241</v>
       </c>
-      <c r="B242" s="5" t="str">
+      <c r="B242" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="5">
+      <c r="A243" s="4">
         <v>7270242</v>
       </c>
-      <c r="B243" s="5" t="str">
+      <c r="B243" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="5">
+      <c r="A244" s="4">
         <v>7270243</v>
       </c>
-      <c r="B244" s="5" t="str">
+      <c r="B244" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="5">
+      <c r="A245" s="4">
         <v>7270244</v>
       </c>
-      <c r="B245" s="5" t="str">
+      <c r="B245" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="5">
+      <c r="A246" s="4">
         <v>7270245</v>
       </c>
-      <c r="B246" s="5" t="str">
+      <c r="B246" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="5">
+      <c r="A247" s="4">
         <v>7270246</v>
       </c>
-      <c r="B247" s="5" t="str">
+      <c r="B247" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="5">
+      <c r="A248" s="4">
         <v>7270247</v>
       </c>
-      <c r="B248" s="5" t="str">
+      <c r="B248" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="5">
+      <c r="A249" s="4">
         <v>7270248</v>
       </c>
-      <c r="B249" s="5" t="str">
+      <c r="B249" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="5">
+      <c r="A250" s="4">
         <v>7270249</v>
       </c>
-      <c r="B250" s="5" t="str">
+      <c r="B250" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="5">
+    <row r="251" spans="1:6">
+      <c r="A251" s="4">
         <v>7270250</v>
       </c>
-      <c r="B251" s="5" t="str">
+      <c r="B251" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="5">
+      <c r="C251" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="4">
         <v>7270251</v>
       </c>
-      <c r="B252" s="5" t="str">
+      <c r="B252" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="5">
+      <c r="C252" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="4">
         <v>7270252</v>
       </c>
-      <c r="B253" s="5" t="str">
+      <c r="B253" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="5">
+      <c r="C253" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="4">
         <v>7270253</v>
       </c>
-      <c r="B254" s="5" t="str">
+      <c r="B254" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="5">
+      <c r="C254" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="4">
         <v>7270254</v>
       </c>
-      <c r="B255" s="5" t="str">
+      <c r="B255" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="5">
+      <c r="C255" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="4">
         <v>7270255</v>
       </c>
-      <c r="B256" s="5" t="str">
+      <c r="B256" s="7" t="str">
         <f t="shared" ref="B256:B319" si="7">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="5">
+      <c r="C256" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="4">
         <v>7270256</v>
       </c>
-      <c r="B257" s="5" t="str">
+      <c r="B257" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="5">
+      <c r="C257" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="4">
         <v>7270257</v>
       </c>
-      <c r="B258" s="5" t="str">
+      <c r="B258" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="5">
+      <c r="C258" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="4">
         <v>7270258</v>
       </c>
-      <c r="B259" s="5" t="str">
+      <c r="B259" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="5">
+      <c r="C259" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="4">
         <v>7270259</v>
       </c>
-      <c r="B260" s="5" t="str">
+      <c r="B260" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="5">
+      <c r="C260" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="4">
         <v>7270260</v>
       </c>
-      <c r="B261" s="5" t="str">
+      <c r="B261" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="5">
+      <c r="C261" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="4">
         <v>7270261</v>
       </c>
-      <c r="B262" s="5" t="str">
+      <c r="B262" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="5">
+      <c r="C262" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="4">
         <v>7270262</v>
       </c>
-      <c r="B263" s="5" t="str">
+      <c r="B263" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="5">
+      <c r="C263" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="4">
         <v>7270263</v>
       </c>
-      <c r="B264" s="5" t="str">
+      <c r="B264" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="5">
+      <c r="C264" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="4">
         <v>7270264</v>
       </c>
-      <c r="B265" s="5" t="str">
+      <c r="B265" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="5">
+      <c r="C265" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="4">
         <v>7270265</v>
       </c>
-      <c r="B266" s="5" t="str">
+      <c r="B266" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="5">
+      <c r="C266" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="4">
         <v>7270266</v>
       </c>
-      <c r="B267" s="5" t="str">
+      <c r="B267" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="5">
+      <c r="C267" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="4">
         <v>7270267</v>
       </c>
-      <c r="B268" s="5" t="str">
+      <c r="B268" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="5">
+      <c r="C268" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="4">
         <v>7270268</v>
       </c>
-      <c r="B269" s="5" t="str">
+      <c r="B269" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="5">
+      <c r="C269" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="4">
         <v>7270269</v>
       </c>
-      <c r="B270" s="5" t="str">
+      <c r="B270" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="5">
+      <c r="C270" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="4">
         <v>7270270</v>
       </c>
-      <c r="B271" s="5" t="str">
+      <c r="B271" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="5">
+      <c r="C271" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="4">
         <v>7270271</v>
       </c>
-      <c r="B272" s="5" t="str">
+      <c r="B272" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="C272" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="5">
+      <c r="A273" s="4">
         <v>7270272</v>
       </c>
-      <c r="B273" s="5" t="str">
+      <c r="B273" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="5">
+      <c r="A274" s="4">
         <v>7270273</v>
       </c>
-      <c r="B274" s="5" t="str">
+      <c r="B274" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="5">
+      <c r="A275" s="4">
         <v>7270274</v>
       </c>
-      <c r="B275" s="5" t="str">
+      <c r="B275" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="5">
+      <c r="A276" s="4">
         <v>7270275</v>
       </c>
-      <c r="B276" s="5" t="str">
+      <c r="B276" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="5">
+      <c r="A277" s="4">
         <v>7270276</v>
       </c>
-      <c r="B277" s="5" t="str">
+      <c r="B277" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="5">
+      <c r="A278" s="4">
         <v>7270277</v>
       </c>
-      <c r="B278" s="5" t="str">
+      <c r="B278" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="5">
+      <c r="A279" s="4">
         <v>7270278</v>
       </c>
-      <c r="B279" s="5" t="str">
+      <c r="B279" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="5">
+      <c r="A280" s="4">
         <v>7270279</v>
       </c>
-      <c r="B280" s="5" t="str">
+      <c r="B280" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="5">
+      <c r="A281" s="4">
         <v>7270280</v>
       </c>
-      <c r="B281" s="5" t="str">
+      <c r="B281" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="5">
+      <c r="A282" s="4">
         <v>7270281</v>
       </c>
-      <c r="B282" s="5" t="str">
+      <c r="B282" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="5">
+      <c r="A283" s="4">
         <v>7270282</v>
       </c>
-      <c r="B283" s="5" t="str">
+      <c r="B283" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="5">
+      <c r="A284" s="4">
         <v>7270283</v>
       </c>
-      <c r="B284" s="5" t="str">
+      <c r="B284" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="5">
+      <c r="A285" s="4">
         <v>7270284</v>
       </c>
-      <c r="B285" s="5" t="str">
+      <c r="B285" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="5">
+      <c r="A286" s="4">
         <v>7270285</v>
       </c>
-      <c r="B286" s="5" t="str">
+      <c r="B286" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="5">
+      <c r="A287" s="4">
         <v>7270286</v>
       </c>
-      <c r="B287" s="5" t="str">
+      <c r="B287" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="5">
+      <c r="A288" s="4">
         <v>7270287</v>
       </c>
-      <c r="B288" s="5" t="str">
+      <c r="B288" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="5">
+      <c r="A289" s="4">
         <v>7270288</v>
       </c>
-      <c r="B289" s="5" t="str">
+      <c r="B289" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="5">
+      <c r="A290" s="4">
         <v>7270289</v>
       </c>
-      <c r="B290" s="5" t="str">
+      <c r="B290" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="5">
+      <c r="A291" s="4">
         <v>7270290</v>
       </c>
-      <c r="B291" s="5" t="str">
+      <c r="B291" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="5">
+      <c r="A292" s="4">
         <v>7270291</v>
       </c>
-      <c r="B292" s="5" t="str">
+      <c r="B292" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="5">
+      <c r="A293" s="4">
         <v>7270292</v>
       </c>
-      <c r="B293" s="5" t="str">
+      <c r="B293" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="5">
+      <c r="A294" s="4">
         <v>7270293</v>
       </c>
-      <c r="B294" s="5" t="str">
+      <c r="B294" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="5">
+      <c r="A295" s="4">
         <v>7270294</v>
       </c>
-      <c r="B295" s="5" t="str">
+      <c r="B295" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="5">
+      <c r="A296" s="4">
         <v>7270295</v>
       </c>
-      <c r="B296" s="5" t="str">
+      <c r="B296" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="5">
+      <c r="A297" s="4">
         <v>7270296</v>
       </c>
-      <c r="B297" s="5" t="str">
+      <c r="B297" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="5">
+      <c r="A298" s="4">
         <v>7270297</v>
       </c>
-      <c r="B298" s="5" t="str">
+      <c r="B298" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="5">
+      <c r="A299" s="4">
         <v>7270298</v>
       </c>
-      <c r="B299" s="5" t="str">
+      <c r="B299" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="5">
+      <c r="A300" s="4">
         <v>7270299</v>
       </c>
-      <c r="B300" s="5" t="str">
+      <c r="B300" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="5">
+      <c r="A301" s="4">
         <v>7270300</v>
       </c>
-      <c r="B301" s="5" t="str">
+      <c r="B301" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="5">
+      <c r="A302" s="4">
         <v>7270301</v>
       </c>
-      <c r="B302" s="5" t="str">
+      <c r="B302" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="5">
+      <c r="A303" s="4">
         <v>7270302</v>
       </c>
-      <c r="B303" s="5" t="str">
+      <c r="B303" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="5">
+      <c r="A304" s="4">
         <v>7270303</v>
       </c>
-      <c r="B304" s="5" t="str">
+      <c r="B304" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="5">
+      <c r="A305" s="4">
         <v>7270304</v>
       </c>
-      <c r="B305" s="5" t="str">
+      <c r="B305" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="5">
+      <c r="A306" s="4">
         <v>7270305</v>
       </c>
-      <c r="B306" s="5" t="str">
+      <c r="B306" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="5">
+      <c r="A307" s="4">
         <v>7270306</v>
       </c>
-      <c r="B307" s="5" t="str">
+      <c r="B307" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="5">
+      <c r="A308" s="4">
         <v>7270307</v>
       </c>
-      <c r="B308" s="5" t="str">
+      <c r="B308" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="5">
+      <c r="A309" s="4">
         <v>7270308</v>
       </c>
-      <c r="B309" s="5" t="str">
+      <c r="B309" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="5">
+      <c r="A310" s="4">
         <v>7270309</v>
       </c>
-      <c r="B310" s="5" t="str">
+      <c r="B310" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="5">
+      <c r="A311" s="4">
         <v>7270310</v>
       </c>
-      <c r="B311" s="5" t="str">
+      <c r="B311" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="5">
+      <c r="A312" s="4">
         <v>7270311</v>
       </c>
-      <c r="B312" s="5" t="str">
+      <c r="B312" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="5">
+      <c r="A313" s="4">
         <v>7270312</v>
       </c>
-      <c r="B313" s="5" t="str">
+      <c r="B313" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="5">
+      <c r="A314" s="4">
         <v>7270313</v>
       </c>
-      <c r="B314" s="5" t="str">
+      <c r="B314" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="5">
+      <c r="A315" s="4">
         <v>7270314</v>
       </c>
-      <c r="B315" s="5" t="str">
+      <c r="B315" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="5">
+      <c r="A316" s="4">
         <v>7270315</v>
       </c>
-      <c r="B316" s="5" t="str">
+      <c r="B316" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="5">
+      <c r="A317" s="4">
         <v>7270316</v>
       </c>
-      <c r="B317" s="5" t="str">
+      <c r="B317" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="5">
+      <c r="A318" s="4">
         <v>7270317</v>
       </c>
-      <c r="B318" s="5" t="str">
+      <c r="B318" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="5">
+      <c r="A319" s="4">
         <v>7270318</v>
       </c>
-      <c r="B319" s="5" t="str">
+      <c r="B319" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="5">
+      <c r="A320" s="4">
         <v>7270319</v>
       </c>
-      <c r="B320" s="5" t="str">
+      <c r="B320" s="7" t="str">
         <f t="shared" ref="B320:B383" si="8">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="5">
+      <c r="A321" s="4">
         <v>7270320</v>
       </c>
-      <c r="B321" s="5" t="str">
+      <c r="B321" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="5">
+      <c r="A322" s="4">
         <v>7270321</v>
       </c>
-      <c r="B322" s="5" t="str">
+      <c r="B322" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="5">
+      <c r="A323" s="4">
         <v>7270322</v>
       </c>
-      <c r="B323" s="5" t="str">
+      <c r="B323" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="5">
+      <c r="A324" s="4">
         <v>7270323</v>
       </c>
-      <c r="B324" s="5" t="str">
+      <c r="B324" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="5">
+      <c r="A325" s="4">
         <v>7270324</v>
       </c>
-      <c r="B325" s="5" t="str">
+      <c r="B325" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="5">
+      <c r="A326" s="4">
         <v>7270325</v>
       </c>
-      <c r="B326" s="5" t="str">
+      <c r="B326" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="5">
+      <c r="A327" s="4">
         <v>7270326</v>
       </c>
-      <c r="B327" s="5" t="str">
+      <c r="B327" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="5">
+      <c r="A328" s="4">
         <v>7270327</v>
       </c>
-      <c r="B328" s="5" t="str">
+      <c r="B328" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="5">
+      <c r="A329" s="4">
         <v>7270328</v>
       </c>
-      <c r="B329" s="5" t="str">
+      <c r="B329" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="5">
+      <c r="A330" s="4">
         <v>7270329</v>
       </c>
-      <c r="B330" s="5" t="str">
+      <c r="B330" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="5">
+      <c r="A331" s="4">
         <v>7270330</v>
       </c>
-      <c r="B331" s="5" t="str">
+      <c r="B331" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="5">
+      <c r="A332" s="4">
         <v>7270331</v>
       </c>
-      <c r="B332" s="5" t="str">
+      <c r="B332" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="5">
+      <c r="A333" s="4">
         <v>7270332</v>
       </c>
-      <c r="B333" s="5" t="str">
+      <c r="B333" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="5">
+      <c r="A334" s="4">
         <v>7270333</v>
       </c>
-      <c r="B334" s="5" t="str">
+      <c r="B334" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="5">
+      <c r="A335" s="4">
         <v>7270334</v>
       </c>
-      <c r="B335" s="5" t="str">
+      <c r="B335" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="5">
+      <c r="A336" s="4">
         <v>7270335</v>
       </c>
-      <c r="B336" s="5" t="str">
+      <c r="B336" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="5">
+      <c r="A337" s="4">
         <v>7270336</v>
       </c>
-      <c r="B337" s="5" t="str">
+      <c r="B337" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="5">
+      <c r="A338" s="4">
         <v>7270337</v>
       </c>
-      <c r="B338" s="5" t="str">
+      <c r="B338" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="5">
+      <c r="A339" s="4">
         <v>7270338</v>
       </c>
-      <c r="B339" s="5" t="str">
+      <c r="B339" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="5">
+      <c r="A340" s="4">
         <v>7270339</v>
       </c>
-      <c r="B340" s="5" t="str">
+      <c r="B340" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="5">
+      <c r="A341" s="4">
         <v>7270340</v>
       </c>
-      <c r="B341" s="5" t="str">
+      <c r="B341" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="5">
+      <c r="A342" s="4">
         <v>7270341</v>
       </c>
-      <c r="B342" s="5" t="str">
+      <c r="B342" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="5">
+      <c r="A343" s="4">
         <v>7270342</v>
       </c>
-      <c r="B343" s="5" t="str">
+      <c r="B343" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="5">
+      <c r="A344" s="4">
         <v>7270343</v>
       </c>
-      <c r="B344" s="5" t="str">
+      <c r="B344" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="5">
+      <c r="A345" s="4">
         <v>7270344</v>
       </c>
-      <c r="B345" s="5" t="str">
+      <c r="B345" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="5">
+      <c r="A346" s="4">
         <v>7270345</v>
       </c>
-      <c r="B346" s="5" t="str">
+      <c r="B346" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="5">
+      <c r="A347" s="4">
         <v>7270346</v>
       </c>
-      <c r="B347" s="5" t="str">
+      <c r="B347" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="5">
+      <c r="A348" s="4">
         <v>7270347</v>
       </c>
-      <c r="B348" s="5" t="str">
+      <c r="B348" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="5">
+      <c r="A349" s="4">
         <v>7270348</v>
       </c>
-      <c r="B349" s="5" t="str">
+      <c r="B349" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="5">
+      <c r="A350" s="4">
         <v>7270349</v>
       </c>
-      <c r="B350" s="5" t="str">
+      <c r="B350" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="5">
+      <c r="A351" s="4">
         <v>7270350</v>
       </c>
-      <c r="B351" s="5" t="str">
+      <c r="B351" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="5">
+      <c r="A352" s="4">
         <v>7270351</v>
       </c>
-      <c r="B352" s="5" t="str">
+      <c r="B352" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="5">
+      <c r="A353" s="4">
         <v>7270352</v>
       </c>
-      <c r="B353" s="5" t="str">
+      <c r="B353" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="5">
+      <c r="A354" s="4">
         <v>7270353</v>
       </c>
-      <c r="B354" s="5" t="str">
+      <c r="B354" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="5">
+      <c r="A355" s="4">
         <v>7270354</v>
       </c>
-      <c r="B355" s="5" t="str">
+      <c r="B355" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="5">
+      <c r="A356" s="4">
         <v>7270355</v>
       </c>
-      <c r="B356" s="5" t="str">
+      <c r="B356" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="5">
+      <c r="A357" s="4">
         <v>7270356</v>
       </c>
-      <c r="B357" s="5" t="str">
+      <c r="B357" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="5">
+      <c r="A358" s="4">
         <v>7270357</v>
       </c>
-      <c r="B358" s="5" t="str">
+      <c r="B358" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="5">
+      <c r="A359" s="4">
         <v>7270358</v>
       </c>
-      <c r="B359" s="5" t="str">
+      <c r="B359" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="5">
+      <c r="A360" s="4">
         <v>7270359</v>
       </c>
-      <c r="B360" s="5" t="str">
+      <c r="B360" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="5">
+      <c r="A361" s="4">
         <v>7270360</v>
       </c>
-      <c r="B361" s="5" t="str">
+      <c r="B361" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="5">
+      <c r="A362" s="4">
         <v>7270361</v>
       </c>
-      <c r="B362" s="5" t="str">
+      <c r="B362" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="5">
+      <c r="A363" s="4">
         <v>7270362</v>
       </c>
-      <c r="B363" s="5" t="str">
+      <c r="B363" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="5">
+      <c r="A364" s="4">
         <v>7270363</v>
       </c>
-      <c r="B364" s="5" t="str">
+      <c r="B364" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="5">
+      <c r="A365" s="4">
         <v>7270364</v>
       </c>
-      <c r="B365" s="5" t="str">
+      <c r="B365" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="5">
+      <c r="A366" s="4">
         <v>7270365</v>
       </c>
-      <c r="B366" s="5" t="str">
+      <c r="B366" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="5">
+      <c r="A367" s="4">
         <v>7270366</v>
       </c>
-      <c r="B367" s="5" t="str">
+      <c r="B367" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="5">
+      <c r="A368" s="4">
         <v>7270367</v>
       </c>
-      <c r="B368" s="5" t="str">
+      <c r="B368" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="5">
+      <c r="A369" s="4">
         <v>7270368</v>
       </c>
-      <c r="B369" s="5" t="str">
+      <c r="B369" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="5">
+      <c r="A370" s="4">
         <v>7270369</v>
       </c>
-      <c r="B370" s="5" t="str">
+      <c r="B370" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="5">
+      <c r="A371" s="4">
         <v>7270370</v>
       </c>
-      <c r="B371" s="5" t="str">
+      <c r="B371" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="5">
+      <c r="A372" s="4">
         <v>7270371</v>
       </c>
-      <c r="B372" s="5" t="str">
+      <c r="B372" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="5">
+      <c r="A373" s="4">
         <v>7270372</v>
       </c>
-      <c r="B373" s="5" t="str">
+      <c r="B373" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="5">
+      <c r="A374" s="4">
         <v>7270373</v>
       </c>
-      <c r="B374" s="5" t="str">
+      <c r="B374" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="5">
+      <c r="A375" s="4">
         <v>7270374</v>
       </c>
-      <c r="B375" s="5" t="str">
+      <c r="B375" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="5">
+      <c r="A376" s="4">
         <v>7270375</v>
       </c>
-      <c r="B376" s="5" t="str">
+      <c r="B376" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="5">
+      <c r="A377" s="4">
         <v>7270376</v>
       </c>
-      <c r="B377" s="5" t="str">
+      <c r="B377" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="5">
+      <c r="A378" s="4">
         <v>7270377</v>
       </c>
-      <c r="B378" s="5" t="str">
+      <c r="B378" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="5">
+      <c r="A379" s="4">
         <v>7270378</v>
       </c>
-      <c r="B379" s="5" t="str">
+      <c r="B379" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="5">
+      <c r="A380" s="4">
         <v>7270379</v>
       </c>
-      <c r="B380" s="5" t="str">
+      <c r="B380" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="5">
+      <c r="A381" s="4">
         <v>7270380</v>
       </c>
-      <c r="B381" s="5" t="str">
+      <c r="B381" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="5">
+      <c r="A382" s="4">
         <v>7270381</v>
       </c>
-      <c r="B382" s="5" t="str">
+      <c r="B382" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="5">
+      <c r="A383" s="4">
         <v>7270382</v>
       </c>
-      <c r="B383" s="5" t="str">
+      <c r="B383" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="5">
+      <c r="A384" s="4">
         <v>7270383</v>
       </c>
-      <c r="B384" s="5" t="str">
+      <c r="B384" s="7" t="str">
         <f t="shared" ref="B384:B425" si="9">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="5">
+      <c r="A385" s="4">
         <v>7270384</v>
       </c>
-      <c r="B385" s="5" t="str">
+      <c r="B385" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="5">
+      <c r="A386" s="4">
         <v>7270385</v>
       </c>
-      <c r="B386" s="5" t="str">
+      <c r="B386" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="5">
+      <c r="A387" s="4">
         <v>7270386</v>
       </c>
-      <c r="B387" s="5" t="str">
+      <c r="B387" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="5">
+      <c r="A388" s="4">
         <v>7270387</v>
       </c>
-      <c r="B388" s="5" t="str">
+      <c r="B388" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="5">
+      <c r="A389" s="4">
         <v>7270388</v>
       </c>
-      <c r="B389" s="5" t="str">
+      <c r="B389" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="5">
+      <c r="A390" s="4">
         <v>7270389</v>
       </c>
-      <c r="B390" s="5" t="str">
+      <c r="B390" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="5">
+      <c r="A391" s="4">
         <v>7270390</v>
       </c>
-      <c r="B391" s="5" t="str">
+      <c r="B391" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="5">
+      <c r="A392" s="4">
         <v>7270391</v>
       </c>
-      <c r="B392" s="5" t="str">
+      <c r="B392" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="5">
+      <c r="A393" s="4">
         <v>7270392</v>
       </c>
-      <c r="B393" s="5" t="str">
+      <c r="B393" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="5">
+      <c r="A394" s="4">
         <v>7270393</v>
       </c>
-      <c r="B394" s="5" t="str">
+      <c r="B394" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="5">
+      <c r="A395" s="4">
         <v>7270394</v>
       </c>
-      <c r="B395" s="5" t="str">
+      <c r="B395" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="5">
+      <c r="A396" s="4">
         <v>7270395</v>
       </c>
-      <c r="B396" s="5" t="str">
+      <c r="B396" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="5">
+      <c r="A397" s="4">
         <v>7270396</v>
       </c>
-      <c r="B397" s="5" t="str">
+      <c r="B397" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="5">
+      <c r="A398" s="4">
         <v>7270397</v>
       </c>
-      <c r="B398" s="5" t="str">
+      <c r="B398" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="5">
+      <c r="A399" s="4">
         <v>7270398</v>
       </c>
-      <c r="B399" s="5" t="str">
+      <c r="B399" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="5">
+      <c r="A400" s="4">
         <v>7270399</v>
       </c>
-      <c r="B400" s="5" t="str">
+      <c r="B400" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="5">
+      <c r="A401" s="4">
         <v>7270400</v>
       </c>
-      <c r="B401" s="5" t="str">
+      <c r="B401" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="5">
+      <c r="A402" s="4">
         <v>7270401</v>
       </c>
-      <c r="B402" s="5" t="str">
+      <c r="B402" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="5">
+      <c r="A403" s="4">
         <v>7270402</v>
       </c>
-      <c r="B403" s="5" t="str">
+      <c r="B403" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="5">
+      <c r="A404" s="4">
         <v>7270403</v>
       </c>
-      <c r="B404" s="5" t="str">
+      <c r="B404" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="5">
+      <c r="A405" s="4">
         <v>7270404</v>
       </c>
-      <c r="B405" s="5" t="str">
+      <c r="B405" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="5">
+      <c r="A406" s="4">
         <v>7270405</v>
       </c>
-      <c r="B406" s="5" t="str">
+      <c r="B406" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="5">
+      <c r="A407" s="4">
         <v>7270406</v>
       </c>
-      <c r="B407" s="5" t="str">
+      <c r="B407" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="5">
+      <c r="A408" s="4">
         <v>7270407</v>
       </c>
-      <c r="B408" s="5" t="str">
+      <c r="B408" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="5">
+      <c r="A409" s="4">
         <v>7270408</v>
       </c>
-      <c r="B409" s="5" t="str">
+      <c r="B409" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="5">
+      <c r="A410" s="4">
         <v>7270409</v>
       </c>
-      <c r="B410" s="5" t="str">
+      <c r="B410" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="5">
+      <c r="A411" s="4">
         <v>7270410</v>
       </c>
-      <c r="B411" s="5" t="str">
+      <c r="B411" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="5">
+      <c r="A412" s="4">
         <v>7270411</v>
       </c>
-      <c r="B412" s="5" t="str">
+      <c r="B412" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="5">
+      <c r="A413" s="4">
         <v>7270412</v>
       </c>
-      <c r="B413" s="5" t="str">
+      <c r="B413" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="5">
+      <c r="A414" s="4">
         <v>7270413</v>
       </c>
-      <c r="B414" s="5" t="str">
+      <c r="B414" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="5">
+      <c r="A415" s="4">
         <v>7270414</v>
       </c>
-      <c r="B415" s="5" t="str">
+      <c r="B415" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="5">
+      <c r="A416" s="4">
         <v>7270415</v>
       </c>
-      <c r="B416" s="5" t="str">
+      <c r="B416" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="5">
+      <c r="A417" s="4">
         <v>7270416</v>
       </c>
-      <c r="B417" s="5" t="str">
+      <c r="B417" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="5">
+      <c r="A418" s="4">
         <v>7270417</v>
       </c>
-      <c r="B418" s="5" t="str">
+      <c r="B418" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="5">
+      <c r="A419" s="4">
         <v>7270418</v>
       </c>
-      <c r="B419" s="5" t="str">
+      <c r="B419" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="5">
+      <c r="A420" s="4">
         <v>7270419</v>
       </c>
-      <c r="B420" s="5" t="str">
+      <c r="B420" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="5">
+      <c r="A421" s="4">
         <v>7270420</v>
       </c>
-      <c r="B421" s="5" t="str">
+      <c r="B421" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="5">
+      <c r="A422" s="4">
         <v>7270421</v>
       </c>
-      <c r="B422" s="5" t="str">
+      <c r="B422" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="5">
+      <c r="A423" s="4">
         <v>7270422</v>
       </c>
-      <c r="B423" s="5" t="str">
+      <c r="B423" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="5">
+      <c r="A424" s="4">
         <v>7270423</v>
       </c>
-      <c r="B424" s="5" t="str">
+      <c r="B424" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="5">
+      <c r="A425" s="4">
         <v>7270424</v>
       </c>
-      <c r="B425" s="5" t="str">
+      <c r="B425" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6436,31 +6715,31 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>122</v>
@@ -6469,16 +6748,16 @@
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>76</v>
@@ -6490,7 +6769,7 @@
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -6502,7 +6781,7 @@
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>72</v>
@@ -6512,7 +6791,7 @@
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>44</v>
@@ -6524,7 +6803,7 @@
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
@@ -6533,7 +6812,7 @@
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -6542,7 +6821,7 @@
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -6551,7 +6830,7 @@
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
@@ -6560,7 +6839,7 @@
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -6569,7 +6848,7 @@
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
@@ -6578,7 +6857,7 @@
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -6587,7 +6866,7 @@
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -6596,7 +6875,7 @@
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -6605,7 +6884,7 @@
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>32</v>
@@ -6614,7 +6893,7 @@
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>34</v>
@@ -6623,7 +6902,7 @@
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>36</v>
@@ -6632,7 +6911,7 @@
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>92</v>
@@ -6641,7 +6920,7 @@
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>94</v>
@@ -6650,7 +6929,7 @@
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>96</v>
@@ -6659,7 +6938,7 @@
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>98</v>
@@ -6668,7 +6947,7 @@
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>100</v>
@@ -6677,7 +6956,7 @@
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>102</v>
@@ -6686,7 +6965,7 @@
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>104</v>
@@ -6695,7 +6974,7 @@
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>106</v>
@@ -6704,7 +6983,7 @@
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>108</v>
@@ -6713,7 +6992,7 @@
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>110</v>
@@ -6722,7 +7001,7 @@
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>112</v>
@@ -6731,7 +7010,7 @@
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>44</v>
@@ -6740,7 +7019,7 @@
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>46</v>
@@ -6749,7 +7028,7 @@
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>70</v>
@@ -6758,7 +7037,7 @@
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>74</v>
@@ -6767,7 +7046,7 @@
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>78</v>
@@ -6776,7 +7055,7 @@
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>82</v>
@@ -6785,7 +7064,7 @@
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>116</v>
@@ -6794,7 +7073,7 @@
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>132</v>
@@ -6803,7 +7082,7 @@
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>134</v>
@@ -6812,7 +7091,7 @@
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>136</v>
@@ -6820,10 +7099,10 @@
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>52</v>
@@ -6838,7 +7117,7 @@
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>54</v>
@@ -6853,64 +7132,64 @@
     <row r="44" customHeight="1" spans="1:4">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:3">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>60</v>
@@ -6919,7 +7198,7 @@
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>66</v>
@@ -6928,7 +7207,7 @@
     <row r="52" customHeight="1" spans="1:4">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>58</v>
@@ -6937,16 +7216,16 @@
     <row r="53" customHeight="1" spans="1:4">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>56</v>
@@ -6955,7 +7234,7 @@
     <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>58</v>
@@ -6964,7 +7243,7 @@
     <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>60</v>
@@ -6973,7 +7252,7 @@
     <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>62</v>
@@ -6982,7 +7261,7 @@
     <row r="58" customHeight="1" spans="1:5">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>64</v>
@@ -6991,7 +7270,7 @@
     <row r="59" customHeight="1" spans="1:5">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>66</v>
@@ -7000,7 +7279,7 @@
     <row r="60" customHeight="1" spans="1:5">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>68</v>
@@ -7009,94 +7288,94 @@
     <row r="61" customHeight="1" spans="1:4">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:4">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:4">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:4">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:5">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>38</v>
@@ -7105,7 +7384,7 @@
     <row r="71" customHeight="1" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71" s="3" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>40</v>
@@ -7114,7 +7393,7 @@
     <row r="72" customHeight="1" spans="1:5">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>42</v>
@@ -7123,7 +7402,7 @@
     <row r="73" customHeight="1" spans="1:5">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>48</v>
@@ -7132,7 +7411,7 @@
     <row r="74" customHeight="1" spans="1:5">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>50</v>
@@ -7141,7 +7420,7 @@
     <row r="75" customHeight="1" spans="1:5">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>84</v>
@@ -7150,7 +7429,7 @@
     <row r="76" customHeight="1" spans="1:5">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>86</v>
@@ -7159,7 +7438,7 @@
     <row r="77" customHeight="1" spans="1:5">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>88</v>
@@ -7168,7 +7447,7 @@
     <row r="78" customHeight="1" spans="1:5">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>90</v>
@@ -7177,7 +7456,7 @@
     <row r="79" customHeight="1" spans="1:5">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>114</v>
@@ -7186,7 +7465,7 @@
     <row r="80" customHeight="1" spans="1:5">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>118</v>
@@ -7195,7 +7474,7 @@
     <row r="81" customHeight="1" spans="1:5">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>120</v>
@@ -7204,7 +7483,7 @@
     <row r="82" customHeight="1" spans="1:5">
       <c r="A82" s="2"/>
       <c r="B82" s="3" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>124</v>
@@ -7213,7 +7492,7 @@
     <row r="83" customHeight="1" spans="1:5">
       <c r="A83" s="2"/>
       <c r="B83" s="3" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>126</v>
@@ -7222,7 +7501,7 @@
     <row r="84" customHeight="1" spans="1:5">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>128</v>
@@ -7231,7 +7510,7 @@
     <row r="85" customHeight="1" spans="1:5">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>130</v>
@@ -7240,7 +7519,7 @@
     <row r="86" customHeight="1" spans="1:5">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>138</v>
@@ -7249,7 +7528,7 @@
     <row r="87" customHeight="1" spans="1:5">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>140</v>
@@ -7258,7 +7537,7 @@
     <row r="88" customHeight="1" spans="1:5">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>142</v>
@@ -7267,7 +7546,7 @@
     <row r="89" customHeight="1" spans="1:5">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>144</v>

--- a/doc/物品ID.xlsx
+++ b/doc/物品ID.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\SF\Slimefunction\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589E68D2-056A-44BE-A3D5-40F6146F123F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="337">
   <si>
     <t>CustomModelData</t>
   </si>
@@ -467,9 +481,6 @@
     <t>钢板</t>
   </si>
   <si>
-    <t>锁链</t>
-  </si>
-  <si>
     <t>钩子</t>
   </si>
   <si>
@@ -849,19 +860,668 @@
   </si>
   <si>
     <t>boosted_uranium</t>
+  </si>
+  <si>
+    <t>Ore Dust</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Wheat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ust</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teel Plate</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ook</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tone Piece</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food Salt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hick Cream</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utter</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heese</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dusted Ore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>re in Dust</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ure Ore Dust</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Uranium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iece</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium Dozen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loth</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in Can</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Block (24 Carat)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Reinforced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lloy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>late</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ape</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food in Tin Can</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ertilizer in Tin Can</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ech_misc</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础电路板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级电路板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳能板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁铁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动马达</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加热线圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢推进器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢化玻璃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却装置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防凋灵黑曜石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料纸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人内存核心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防凋灵玻璃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应堆冷却剂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下界冰冷却剂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asic Circuit Board</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dvanced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Circuit Board</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attery</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teel Pusher</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nergy Crystal</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olar Board</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lectric Magnet</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>otor</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heating Coil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper String</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teeled Glass</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooling Unit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nti-Wither Obsidian</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lastic Pieces</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>obot Core</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nti-Wither Glass</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collant Cell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ether Ice Collant Cell</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,345 +1541,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1227,255 +1571,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1503,62 +1605,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1572,7 +1704,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1816,34 +1948,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L425"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFC425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K266" sqref="K266"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I287" sqref="I287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.6916666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.7416666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.9083333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.325" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.8416666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
     <col min="8" max="16383" width="9" style="4"/>
     <col min="16384" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1881,1371 +2012,1371 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>7270001</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f t="shared" ref="B2:B33" si="0">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>7270002</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>7270003</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>7270004</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>7270005</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>7270006</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7270007</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>7270008</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>7270009</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>7270010</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>7270011</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>7270012</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>7270013</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>7270014</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>7270015</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>7270016</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>7270017</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>7270018</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>7270019</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>7270020</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>7270021</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7270022</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>7270023</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>7270024</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>7270025</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>7270026</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>7270027</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>7270028</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>7270029</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>7270030</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>7270031</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>7270032</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>7270033</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f t="shared" ref="B34:B65" si="1">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>7270034</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>7270035</v>
       </c>
       <c r="B36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>7270036</v>
       </c>
       <c r="B37" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>7270037</v>
       </c>
       <c r="B38" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>7270038</v>
       </c>
       <c r="B39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>7270039</v>
       </c>
       <c r="B40" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>7270040</v>
       </c>
       <c r="B41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>7270041</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>7270042</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>7270043</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>7270044</v>
       </c>
       <c r="B45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>7270045</v>
       </c>
       <c r="B46" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>7270046</v>
       </c>
       <c r="B47" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>7270047</v>
       </c>
       <c r="B48" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>7270048</v>
       </c>
       <c r="B49" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>7270049</v>
       </c>
       <c r="B50" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>7270050</v>
       </c>
       <c r="B51" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>7270051</v>
       </c>
       <c r="B52" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>7270052</v>
       </c>
       <c r="B53" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>7270053</v>
       </c>
       <c r="B54" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>7270054</v>
       </c>
       <c r="B55" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>7270055</v>
       </c>
       <c r="B56" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>7270056</v>
       </c>
       <c r="B57" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>7270057</v>
       </c>
       <c r="B58" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>7270058</v>
       </c>
       <c r="B59" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>7270059</v>
       </c>
       <c r="B60" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>7270060</v>
       </c>
       <c r="B61" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>7270061</v>
       </c>
       <c r="B62" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>7270062</v>
       </c>
       <c r="B63" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>7270063</v>
       </c>
       <c r="B64" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>7270064</v>
       </c>
       <c r="B65" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>7270065</v>
       </c>
       <c r="B66" s="7" t="str">
-        <f t="shared" ref="B66:B97" si="2">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>7270066</v>
       </c>
       <c r="B67" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>7270067</v>
       </c>
       <c r="B68" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>7270068</v>
       </c>
       <c r="B69" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>7270069</v>
       </c>
       <c r="B70" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>7270070</v>
       </c>
       <c r="B71" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>7270071</v>
       </c>
       <c r="B72" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>7270072</v>
       </c>
       <c r="B73" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>7270073</v>
       </c>
       <c r="B74" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>7270074</v>
       </c>
       <c r="B75" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>7270075</v>
       </c>
       <c r="B76" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>7270076</v>
       </c>
       <c r="B77" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>7270077</v>
       </c>
       <c r="B78" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>7270078</v>
       </c>
       <c r="B79" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>7270079</v>
       </c>
       <c r="B80" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>7270080</v>
       </c>
       <c r="B81" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>7270081</v>
       </c>
       <c r="B82" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>7270082</v>
       </c>
       <c r="B83" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>7270083</v>
       </c>
       <c r="B84" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>7270084</v>
       </c>
       <c r="B85" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>7270085</v>
       </c>
       <c r="B86" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>7270086</v>
       </c>
       <c r="B87" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>7270087</v>
       </c>
       <c r="B88" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>7270088</v>
       </c>
       <c r="B89" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>7270089</v>
       </c>
       <c r="B90" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>7270090</v>
       </c>
       <c r="B91" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>7270091</v>
       </c>
       <c r="B92" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>7270092</v>
       </c>
       <c r="B93" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>7270093</v>
       </c>
       <c r="B94" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>7270094</v>
       </c>
       <c r="B95" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>7270095</v>
       </c>
       <c r="B96" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>7270096</v>
       </c>
       <c r="B97" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>7270097</v>
       </c>
       <c r="B98" s="7" t="str">
-        <f t="shared" ref="B98:B129" si="3">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>7270098</v>
       </c>
       <c r="B99" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>7270099</v>
       </c>
       <c r="B100" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>7270100</v>
       </c>
       <c r="B101" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>7270101</v>
       </c>
       <c r="B102" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>7270102</v>
       </c>
       <c r="B103" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>7270103</v>
       </c>
       <c r="B104" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>7270104</v>
       </c>
       <c r="B105" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>7270105</v>
       </c>
       <c r="B106" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>7270106</v>
       </c>
       <c r="B107" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>7270107</v>
       </c>
       <c r="B108" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>7270108</v>
       </c>
       <c r="B109" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>7270109</v>
       </c>
       <c r="B110" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>7270110</v>
       </c>
       <c r="B111" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>7270111</v>
       </c>
       <c r="B112" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>7270112</v>
       </c>
       <c r="B113" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>7270113</v>
       </c>
       <c r="B114" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>7270114</v>
       </c>
       <c r="B115" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>7270115</v>
       </c>
       <c r="B116" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>7270116</v>
       </c>
       <c r="B117" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>7270117</v>
       </c>
       <c r="B118" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>7270118</v>
       </c>
       <c r="B119" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>7270119</v>
       </c>
       <c r="B120" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>7270120</v>
       </c>
       <c r="B121" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>7270121</v>
       </c>
       <c r="B122" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>7270122</v>
       </c>
       <c r="B123" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>7270123</v>
       </c>
       <c r="B124" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>7270124</v>
       </c>
       <c r="B125" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>7270125</v>
       </c>
       <c r="B126" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>7270126</v>
       </c>
       <c r="B127" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>7270127</v>
       </c>
       <c r="B128" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>7270128</v>
       </c>
       <c r="B129" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>7270129</v>
       </c>
       <c r="B130" s="7" t="str">
-        <f t="shared" ref="B130:B161" si="4">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>7270130</v>
       </c>
       <c r="B131" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>7270131</v>
       </c>
       <c r="B132" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>7270132</v>
       </c>
       <c r="B133" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
         <v>7270133</v>
       </c>
       <c r="B134" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
         <v>7270134</v>
       </c>
       <c r="B135" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>7270135</v>
       </c>
       <c r="B136" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
         <v>7270136</v>
       </c>
       <c r="B137" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>7270137</v>
       </c>
       <c r="B138" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
         <v>7270138</v>
       </c>
       <c r="B139" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4">
         <v>7270139</v>
       </c>
       <c r="B140" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>7270140</v>
       </c>
       <c r="B141" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
         <v>7270141</v>
       </c>
       <c r="B142" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
         <v>7270142</v>
       </c>
       <c r="B143" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
         <v>7270143</v>
       </c>
       <c r="B144" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
         <v>7270144</v>
       </c>
       <c r="B145" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
         <v>7270145</v>
       </c>
       <c r="B146" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
         <v>7270146</v>
       </c>
       <c r="B147" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
         <v>7270147</v>
       </c>
       <c r="B148" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
         <v>7270148</v>
       </c>
       <c r="B149" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
         <v>7270149</v>
       </c>
       <c r="B150" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
         <v>7270150</v>
       </c>
       <c r="B151" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
         <v>7270151</v>
       </c>
       <c r="B152" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="4">
         <v>7270152</v>
       </c>
       <c r="B153" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>reinforced_alloy_ingot</v>
       </c>
       <c r="C153" s="3" t="s">
@@ -3261,12 +3392,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="4">
         <v>7270153</v>
       </c>
       <c r="B154" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>hardened_metal</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -3282,12 +3413,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" ht="27" spans="1:6">
+    <row r="155" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A155" s="4">
         <v>7270154</v>
       </c>
       <c r="B155" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>damascus_steel_ingot</v>
       </c>
       <c r="C155" s="3" t="s">
@@ -3303,12 +3434,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="4">
         <v>7270155</v>
       </c>
       <c r="B156" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>steel_ingot</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -3324,12 +3455,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="4">
         <v>7270156</v>
       </c>
       <c r="B157" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>bronze_ingot</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -3345,12 +3476,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="4">
         <v>7270157</v>
       </c>
       <c r="B158" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>duralumin_ingot</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -3366,12 +3497,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="4">
         <v>7270158</v>
       </c>
       <c r="B159" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>billon_ingot</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -3387,12 +3518,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="4">
         <v>7270159</v>
       </c>
       <c r="B160" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>brass_ingot</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -3408,12 +3539,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
         <v>7270160</v>
       </c>
       <c r="B161" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>aluminum_brass_ingot</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -3429,12 +3560,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="4">
         <v>7270161</v>
       </c>
       <c r="B162" s="7" t="str">
-        <f t="shared" ref="B162:B190" si="5">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>aluminum_bronze_ingot</v>
       </c>
       <c r="C162" s="3" t="s">
@@ -3450,12 +3581,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" ht="27" spans="1:6">
+    <row r="163" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
         <v>7270162</v>
       </c>
       <c r="B163" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>corinthian_bronze_ingot</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -3471,12 +3602,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
         <v>7270163</v>
       </c>
       <c r="B164" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>solder_ingot</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -3492,12 +3623,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
         <v>7270164</v>
       </c>
       <c r="B165" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>synthetic_sapphire</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -3513,12 +3644,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
         <v>7270165</v>
       </c>
       <c r="B166" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>synthetic_diamond</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -3534,12 +3665,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" ht="27" spans="1:6">
+    <row r="167" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
         <v>7270166</v>
       </c>
       <c r="B167" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>raw_carbonado</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -3555,12 +3686,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
         <v>7270167</v>
       </c>
       <c r="B168" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>nickel_ingot</v>
       </c>
       <c r="C168" s="3" t="s">
@@ -3576,12 +3707,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="4">
         <v>7270168</v>
       </c>
       <c r="B169" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>cobalt_ingot</v>
       </c>
       <c r="C169" s="3" t="s">
@@ -3597,12 +3728,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="4">
         <v>7270169</v>
       </c>
       <c r="B170" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>carbonado</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -3618,12 +3749,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="4">
         <v>7270170</v>
       </c>
       <c r="B171" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>ferrosilicon</v>
       </c>
       <c r="C171" s="3" t="s">
@@ -3639,12 +3770,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="4">
         <v>7270171</v>
       </c>
       <c r="B172" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>iron_dust</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -3660,12 +3791,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="4">
         <v>7270172</v>
       </c>
       <c r="B173" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_dust</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -3681,12 +3812,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="4">
         <v>7270173</v>
       </c>
       <c r="B174" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>copper_dust</v>
       </c>
       <c r="C174" s="3" t="s">
@@ -3702,12 +3833,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="4">
         <v>7270174</v>
       </c>
       <c r="B175" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>tin_dust</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -3723,12 +3854,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="4">
         <v>7270175</v>
       </c>
       <c r="B176" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>silver_dust</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -3744,12 +3875,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="4">
         <v>7270176</v>
       </c>
       <c r="B177" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>aluminum_dust</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -3765,12 +3896,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="4">
         <v>7270177</v>
       </c>
       <c r="B178" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>lead_dust</v>
       </c>
       <c r="C178" s="3" t="s">
@@ -3786,12 +3917,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="4">
         <v>7270178</v>
       </c>
       <c r="B179" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>zinc_dust</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -3807,12 +3938,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="4">
         <v>7270179</v>
       </c>
       <c r="B180" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>magnesium_dust</v>
       </c>
       <c r="C180" s="3" t="s">
@@ -3828,12 +3959,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="4">
         <v>7270180</v>
       </c>
       <c r="B181" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>copper_ingot</v>
       </c>
       <c r="C181" s="3" t="s">
@@ -3849,12 +3980,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="4">
         <v>7270181</v>
       </c>
       <c r="B182" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>tin_ingot</v>
       </c>
       <c r="C182" s="3" t="s">
@@ -3870,12 +4001,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="4">
         <v>7270182</v>
       </c>
       <c r="B183" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>silver_ingot</v>
       </c>
       <c r="C183" s="3" t="s">
@@ -3891,12 +4022,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="4">
         <v>7270183</v>
       </c>
       <c r="B184" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>aluminum_ingot</v>
       </c>
       <c r="C184" s="3" t="s">
@@ -3912,12 +4043,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
         <v>7270184</v>
       </c>
       <c r="B185" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>lead_ingot</v>
       </c>
       <c r="C185" s="3" t="s">
@@ -3933,12 +4064,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="4">
         <v>7270185</v>
       </c>
       <c r="B186" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>zinc_ingot</v>
       </c>
       <c r="C186" s="3" t="s">
@@ -3954,12 +4085,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="4">
         <v>7270186</v>
       </c>
       <c r="B187" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>magnesium_ingot</v>
       </c>
       <c r="C187" s="3" t="s">
@@ -3975,12 +4106,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="4">
         <v>7270187</v>
       </c>
       <c r="B188" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>sulfate</v>
       </c>
       <c r="C188" s="3" t="s">
@@ -3996,12 +4127,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="4">
         <v>7270188</v>
       </c>
       <c r="B189" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>carbon</v>
       </c>
       <c r="C189" s="3" t="s">
@@ -4017,12 +4148,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="4">
         <v>7270189</v>
       </c>
       <c r="B190" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>compressed_carbon</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -4038,7 +4169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="4">
         <v>7270190</v>
       </c>
@@ -4059,12 +4190,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" ht="27" spans="1:6">
+    <row r="192" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A192" s="4">
         <v>7270191</v>
       </c>
       <c r="B192" s="7" t="str">
-        <f t="shared" ref="B192:B255" si="6">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_24_carat</v>
       </c>
       <c r="C192" s="3" t="s">
@@ -4080,12 +4211,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" ht="27" spans="1:6">
+    <row r="193" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A193" s="4">
         <v>7270192</v>
       </c>
       <c r="B193" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_22_carat</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -4101,12 +4232,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" ht="27" spans="1:6">
+    <row r="194" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A194" s="4">
         <v>7270193</v>
       </c>
       <c r="B194" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_20_carat</v>
       </c>
       <c r="C194" s="3" t="s">
@@ -4122,12 +4253,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" ht="27" spans="1:6">
+    <row r="195" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A195" s="4">
         <v>7270194</v>
       </c>
       <c r="B195" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_18_carat</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -4143,12 +4274,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" ht="27" spans="1:6">
+    <row r="196" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A196" s="4">
         <v>7270195</v>
       </c>
       <c r="B196" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_16_carat</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -4164,12 +4295,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" ht="27" spans="1:6">
+    <row r="197" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A197" s="4">
         <v>7270196</v>
       </c>
       <c r="B197" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_14_carat</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -4185,12 +4316,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" ht="27" spans="1:6">
+    <row r="198" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A198" s="4">
         <v>7270197</v>
       </c>
       <c r="B198" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_12_carat</v>
       </c>
       <c r="C198" s="3" t="s">
@@ -4206,12 +4337,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" ht="27" spans="1:6">
+    <row r="199" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A199" s="4">
         <v>7270198</v>
       </c>
       <c r="B199" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_10_carat</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -4227,12 +4358,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="4">
         <v>7270199</v>
       </c>
       <c r="B200" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_8_carat</v>
       </c>
       <c r="C200" s="3" t="s">
@@ -4248,12 +4379,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="4">
         <v>7270200</v>
       </c>
       <c r="B201" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_6_carat</v>
       </c>
       <c r="C201" s="3" t="s">
@@ -4269,12 +4400,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="4">
         <v>7270201</v>
       </c>
       <c r="B202" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_4_carat</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -4290,12 +4421,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="4">
         <v>7270202</v>
       </c>
       <c r="B203" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>silicon</v>
       </c>
       <c r="C203" s="3" t="s">
@@ -4311,12 +4442,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="4">
         <v>7270203</v>
       </c>
       <c r="B204" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gilded_iron</v>
       </c>
       <c r="C204" s="3" t="s">
@@ -4332,12 +4463,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="4">
         <v>7270204</v>
       </c>
       <c r="B205" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>synthetic_emerald</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -4353,12 +4484,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="4">
         <v>7270205</v>
       </c>
       <c r="B206" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>uranium</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -4374,12 +4505,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="4">
         <v>7270206</v>
       </c>
       <c r="B207" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>redstone_alloy_ingot</v>
       </c>
       <c r="C207" s="3" t="s">
@@ -4395,12 +4526,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="4">
         <v>7270207</v>
       </c>
       <c r="B208" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>magnesium_salt</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -4416,12 +4547,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" s="4">
         <v>7270208</v>
       </c>
       <c r="B209" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>bucket_of_oil</v>
       </c>
       <c r="C209" s="3" t="s">
@@ -4437,12 +4568,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="4">
         <v>7270209</v>
       </c>
       <c r="B210" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>bucket_of_fuel</v>
       </c>
       <c r="C210" s="3" t="s">
@@ -4458,12 +4589,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" s="4">
         <v>7270210</v>
       </c>
       <c r="B211" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>nether_ice</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -4479,12 +4610,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="4">
         <v>7270211</v>
       </c>
       <c r="B212" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>blistering_ingot_33</v>
       </c>
       <c r="C212" s="3" t="s">
@@ -4500,12 +4631,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" s="4">
         <v>7270212</v>
       </c>
       <c r="B213" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>blistering_ingot_66</v>
       </c>
       <c r="C213" s="3" t="s">
@@ -4521,12 +4652,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" s="4">
         <v>7270213</v>
       </c>
       <c r="B214" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>blistering_ingot</v>
       </c>
       <c r="C214" s="3" t="s">
@@ -4542,12 +4673,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" s="4">
         <v>7270214</v>
       </c>
       <c r="B215" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>enriched_nether_ice</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -4563,12 +4694,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="4">
         <v>7270215</v>
       </c>
       <c r="B216" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>neptunium</v>
       </c>
       <c r="C216" s="3" t="s">
@@ -4584,12 +4715,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" s="4">
         <v>7270216</v>
       </c>
       <c r="B217" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>plutonium</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -4605,12 +4736,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="4">
         <v>7270217</v>
       </c>
       <c r="B218" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>boosted_uranium</v>
       </c>
       <c r="C218" s="3" t="s">
@@ -4626,305 +4757,308 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="4">
         <v>7270218</v>
       </c>
       <c r="B219" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="4">
         <v>7270219</v>
       </c>
       <c r="B220" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" s="4">
         <v>7270220</v>
       </c>
       <c r="B221" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" s="4">
         <v>7270221</v>
       </c>
       <c r="B222" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="4">
         <v>7270222</v>
       </c>
       <c r="B223" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" s="4">
         <v>7270223</v>
       </c>
       <c r="B224" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="4">
         <v>7270224</v>
       </c>
       <c r="B225" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="4">
         <v>7270225</v>
       </c>
       <c r="B226" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="4">
         <v>7270226</v>
       </c>
       <c r="B227" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="4">
         <v>7270227</v>
       </c>
       <c r="B228" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="4">
         <v>7270228</v>
       </c>
       <c r="B229" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="4">
         <v>7270229</v>
       </c>
       <c r="B230" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="4">
         <v>7270230</v>
       </c>
       <c r="B231" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="4">
         <v>7270231</v>
       </c>
       <c r="B232" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="4">
         <v>7270232</v>
       </c>
       <c r="B233" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="4">
         <v>7270233</v>
       </c>
       <c r="B234" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="4">
         <v>7270234</v>
       </c>
       <c r="B235" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="4">
         <v>7270235</v>
       </c>
       <c r="B236" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="4">
         <v>7270236</v>
       </c>
       <c r="B237" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="4">
         <v>7270237</v>
       </c>
       <c r="B238" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="4">
         <v>7270238</v>
       </c>
       <c r="B239" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="4">
         <v>7270239</v>
       </c>
       <c r="B240" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" s="4">
         <v>7270240</v>
       </c>
       <c r="B241" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" s="4">
         <v>7270241</v>
       </c>
       <c r="B242" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243" s="4">
         <v>7270242</v>
       </c>
       <c r="B243" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244" s="4">
         <v>7270243</v>
       </c>
       <c r="B244" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245" s="4">
         <v>7270244</v>
       </c>
       <c r="B245" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" s="4">
         <v>7270245</v>
       </c>
       <c r="B246" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" s="4">
         <v>7270246</v>
       </c>
       <c r="B247" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" s="4">
         <v>7270247</v>
       </c>
       <c r="B248" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" s="4">
         <v>7270248</v>
       </c>
       <c r="B249" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250" s="4">
         <v>7270249</v>
       </c>
       <c r="B250" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251" s="4">
         <v>7270250</v>
       </c>
       <c r="B251" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>ore_dust</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="D251" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="E251" s="4" t="s">
         <v>147</v>
       </c>
@@ -4932,17 +5066,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252" s="4">
         <v>7270251</v>
       </c>
       <c r="B252" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>wheat_dust</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="D252" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="E252" s="4" t="s">
         <v>147</v>
       </c>
@@ -4950,17 +5087,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253" s="4">
         <v>7270252</v>
       </c>
       <c r="B253" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>steel_plate</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>149</v>
       </c>
+      <c r="D253" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="E253" s="4" t="s">
         <v>147</v>
       </c>
@@ -4968,17 +5108,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254" s="4">
         <v>7270253</v>
       </c>
       <c r="B254" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>hook</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="D254" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="E254" s="4" t="s">
         <v>147</v>
       </c>
@@ -4986,17 +5129,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" s="4">
         <v>7270254</v>
       </c>
       <c r="B255" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>stone_piece</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>151</v>
       </c>
+      <c r="D255" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="E255" s="4" t="s">
         <v>147</v>
       </c>
@@ -5004,17 +5150,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256" s="4">
         <v>7270255</v>
       </c>
       <c r="B256" s="7" t="str">
-        <f t="shared" ref="B256:B319" si="7">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>food_salt</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="D256" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="E256" s="4" t="s">
         <v>147</v>
       </c>
@@ -5022,17 +5171,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257" s="4">
         <v>7270256</v>
       </c>
       <c r="B257" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>thick_cream</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>153</v>
       </c>
+      <c r="D257" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="E257" s="4" t="s">
         <v>147</v>
       </c>
@@ -5040,17 +5192,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258" s="4">
         <v>7270257</v>
       </c>
       <c r="B258" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>butter</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="D258" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="E258" s="4" t="s">
         <v>147</v>
       </c>
@@ -5058,17 +5213,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="4">
         <v>7270258</v>
       </c>
       <c r="B259" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>cheese</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>155</v>
       </c>
+      <c r="D259" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="E259" s="4" t="s">
         <v>147</v>
       </c>
@@ -5076,17 +5234,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260" s="4">
         <v>7270259</v>
       </c>
       <c r="B260" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>dusted_ore</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="D260" s="10" t="s">
+        <v>286</v>
+      </c>
       <c r="E260" s="4" t="s">
         <v>147</v>
       </c>
@@ -5094,17 +5255,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261" s="4">
         <v>7270260</v>
       </c>
       <c r="B261" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>ore_in_dust</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="D261" s="10" t="s">
+        <v>287</v>
+      </c>
       <c r="E261" s="4" t="s">
         <v>147</v>
       </c>
@@ -5112,17 +5276,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262" s="4">
         <v>7270261</v>
       </c>
       <c r="B262" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>pure_ore_dust</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>158</v>
       </c>
+      <c r="D262" s="10" t="s">
+        <v>288</v>
+      </c>
       <c r="E262" s="4" t="s">
         <v>147</v>
       </c>
@@ -5130,17 +5297,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="4">
         <v>7270262</v>
       </c>
       <c r="B263" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>uranium_piece</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>159</v>
       </c>
+      <c r="D263" s="10" t="s">
+        <v>289</v>
+      </c>
       <c r="E263" s="4" t="s">
         <v>147</v>
       </c>
@@ -5148,17 +5318,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264" s="4">
         <v>7270263</v>
       </c>
       <c r="B264" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>uranium_dozen</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="D264" s="10" t="s">
+        <v>290</v>
+      </c>
       <c r="E264" s="4" t="s">
         <v>147</v>
       </c>
@@ -5166,17 +5339,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265" s="4">
         <v>7270264</v>
       </c>
       <c r="B265" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>cloth</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>161</v>
       </c>
+      <c r="D265" s="10" t="s">
+        <v>291</v>
+      </c>
       <c r="E265" s="4" t="s">
         <v>147</v>
       </c>
@@ -5184,17 +5360,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266" s="4">
         <v>7270265</v>
       </c>
       <c r="B266" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>tin_can</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="D266" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="E266" s="4" t="s">
         <v>147</v>
       </c>
@@ -5202,17 +5381,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267" s="4">
         <v>7270266</v>
       </c>
       <c r="B267" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>gold_block_24_carat</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>163</v>
       </c>
+      <c r="D267" s="10" t="s">
+        <v>293</v>
+      </c>
       <c r="E267" s="4" t="s">
         <v>147</v>
       </c>
@@ -5220,17 +5402,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268" s="4">
         <v>7270267</v>
       </c>
       <c r="B268" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>reinforced_alloy_plate</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>164</v>
       </c>
+      <c r="D268" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="E268" s="4" t="s">
         <v>147</v>
       </c>
@@ -5238,17 +5423,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269" s="4">
         <v>7270268</v>
       </c>
       <c r="B269" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>tape</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="D269" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="E269" s="4" t="s">
         <v>147</v>
       </c>
@@ -5256,17 +5444,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270" s="4">
         <v>7270269</v>
       </c>
       <c r="B270" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>food_in_tin_can</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>166</v>
       </c>
+      <c r="D270" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="E270" s="4" t="s">
         <v>147</v>
       </c>
@@ -5274,17 +5465,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271" s="4">
         <v>7270270</v>
       </c>
       <c r="B271" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>fertilizer_in_tin_can</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="D271" s="10" t="s">
+        <v>297</v>
+      </c>
       <c r="E271" s="4" t="s">
         <v>147</v>
       </c>
@@ -5292,1472 +5486,1701 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272" s="4">
         <v>7270271</v>
       </c>
       <c r="B272" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>147</v>
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>basic_circuit_board</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E272" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="F272" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="4">
         <v>7270272</v>
       </c>
       <c r="B273" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>advanced_circuit_board</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274" s="4">
         <v>7270273</v>
       </c>
       <c r="B274" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>battery</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275" s="4">
         <v>7270274</v>
       </c>
       <c r="B275" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>steel_pusher</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E275" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276" s="4">
         <v>7270275</v>
       </c>
       <c r="B276" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>energy_crystal</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277" s="4">
         <v>7270276</v>
       </c>
       <c r="B277" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>solar_board</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278" s="4">
         <v>7270277</v>
       </c>
       <c r="B278" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>magnet</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E278" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="4">
         <v>7270278</v>
       </c>
       <c r="B279" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>electric_magnet</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="4">
         <v>7270279</v>
       </c>
       <c r="B280" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>motor</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="4">
         <v>7270280</v>
       </c>
       <c r="B281" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>heating_coil</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="4">
         <v>7270281</v>
       </c>
       <c r="B282" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>copper_string</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E282" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="4">
         <v>7270282</v>
       </c>
       <c r="B283" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>steeled_glass</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E283" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="4">
         <v>7270283</v>
       </c>
       <c r="B284" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>cooling_unit</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E284" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285" s="4">
         <v>7270284</v>
       </c>
       <c r="B285" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>anti_wither_obsidian</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E285" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="4">
         <v>7270285</v>
       </c>
       <c r="B286" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>plastic_pieces</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E286" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="4">
         <v>7270286</v>
       </c>
       <c r="B287" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>robot_core</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E287" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288" s="4">
         <v>7270287</v>
       </c>
       <c r="B288" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>anti_wither_glass</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289" s="4">
         <v>7270288</v>
       </c>
       <c r="B289" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>collant_cell</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E289" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290" s="4">
         <v>7270289</v>
       </c>
       <c r="B290" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v>nether_ice_collant_cell</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291" s="4">
         <v>7270290</v>
       </c>
       <c r="B291" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+      <c r="E291" s="10"/>
+      <c r="F291" s="7"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="4">
         <v>7270291</v>
       </c>
       <c r="B292" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+      <c r="E292" s="10"/>
+      <c r="F292" s="7"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="4">
         <v>7270292</v>
       </c>
       <c r="B293" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+      <c r="E293" s="10"/>
+      <c r="F293" s="7"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="4">
         <v>7270293</v>
       </c>
       <c r="B294" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+      <c r="E294" s="10"/>
+      <c r="F294" s="7"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295" s="4">
         <v>7270294</v>
       </c>
       <c r="B295" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+      <c r="E295" s="10"/>
+      <c r="F295" s="7"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296" s="4">
         <v>7270295</v>
       </c>
       <c r="B296" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+      <c r="E296" s="10"/>
+      <c r="F296" s="7"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297" s="4">
         <v>7270296</v>
       </c>
       <c r="B297" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+      <c r="E297" s="10"/>
+      <c r="F297" s="7"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298" s="4">
         <v>7270297</v>
       </c>
       <c r="B298" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299" s="4">
         <v>7270298</v>
       </c>
       <c r="B299" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300" s="4">
         <v>7270299</v>
       </c>
       <c r="B300" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301" s="4">
         <v>7270300</v>
       </c>
       <c r="B301" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302" s="4">
         <v>7270301</v>
       </c>
       <c r="B302" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303" s="4">
         <v>7270302</v>
       </c>
       <c r="B303" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304" s="4">
         <v>7270303</v>
       </c>
       <c r="B304" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="4">
         <v>7270304</v>
       </c>
       <c r="B305" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="4">
         <v>7270305</v>
       </c>
       <c r="B306" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="4">
         <v>7270306</v>
       </c>
       <c r="B307" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="4">
         <v>7270307</v>
       </c>
       <c r="B308" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="4">
         <v>7270308</v>
       </c>
       <c r="B309" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="4">
         <v>7270309</v>
       </c>
       <c r="B310" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="4">
         <v>7270310</v>
       </c>
       <c r="B311" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="4">
         <v>7270311</v>
       </c>
       <c r="B312" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="4">
         <v>7270312</v>
       </c>
       <c r="B313" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="4">
         <v>7270313</v>
       </c>
       <c r="B314" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="4">
         <v>7270314</v>
       </c>
       <c r="B315" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="4">
         <v>7270315</v>
       </c>
       <c r="B316" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="4">
         <v>7270316</v>
       </c>
       <c r="B317" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="4">
         <v>7270317</v>
       </c>
       <c r="B318" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="4">
         <v>7270318</v>
       </c>
       <c r="B319" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="4">
         <v>7270319</v>
       </c>
       <c r="B320" s="7" t="str">
-        <f t="shared" ref="B320:B383" si="8">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="4">
         <v>7270320</v>
       </c>
       <c r="B321" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="4">
         <v>7270321</v>
       </c>
       <c r="B322" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="4">
         <v>7270322</v>
       </c>
       <c r="B323" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="4">
         <v>7270323</v>
       </c>
       <c r="B324" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="4">
         <v>7270324</v>
       </c>
       <c r="B325" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="4">
         <v>7270325</v>
       </c>
       <c r="B326" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="4">
         <v>7270326</v>
       </c>
       <c r="B327" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="4">
         <v>7270327</v>
       </c>
       <c r="B328" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="4">
         <v>7270328</v>
       </c>
       <c r="B329" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="4">
         <v>7270329</v>
       </c>
       <c r="B330" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="4">
         <v>7270330</v>
       </c>
       <c r="B331" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="4">
         <v>7270331</v>
       </c>
       <c r="B332" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="4">
         <v>7270332</v>
       </c>
       <c r="B333" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="4">
         <v>7270333</v>
       </c>
       <c r="B334" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="4">
         <v>7270334</v>
       </c>
       <c r="B335" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="4">
         <v>7270335</v>
       </c>
       <c r="B336" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="4">
         <v>7270336</v>
       </c>
       <c r="B337" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="4">
         <v>7270337</v>
       </c>
       <c r="B338" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="4">
         <v>7270338</v>
       </c>
       <c r="B339" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="4">
         <v>7270339</v>
       </c>
       <c r="B340" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="4">
         <v>7270340</v>
       </c>
       <c r="B341" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="4">
         <v>7270341</v>
       </c>
       <c r="B342" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="4">
         <v>7270342</v>
       </c>
       <c r="B343" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="4">
         <v>7270343</v>
       </c>
       <c r="B344" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="4">
         <v>7270344</v>
       </c>
       <c r="B345" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="4">
         <v>7270345</v>
       </c>
       <c r="B346" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="4">
         <v>7270346</v>
       </c>
       <c r="B347" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="4">
         <v>7270347</v>
       </c>
       <c r="B348" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="4">
         <v>7270348</v>
       </c>
       <c r="B349" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="4">
         <v>7270349</v>
       </c>
       <c r="B350" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="4">
         <v>7270350</v>
       </c>
       <c r="B351" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="4">
         <v>7270351</v>
       </c>
       <c r="B352" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="4">
         <v>7270352</v>
       </c>
       <c r="B353" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="4">
         <v>7270353</v>
       </c>
       <c r="B354" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="4">
         <v>7270354</v>
       </c>
       <c r="B355" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="4">
         <v>7270355</v>
       </c>
       <c r="B356" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="4">
         <v>7270356</v>
       </c>
       <c r="B357" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="4">
         <v>7270357</v>
       </c>
       <c r="B358" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="4">
         <v>7270358</v>
       </c>
       <c r="B359" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="4">
         <v>7270359</v>
       </c>
       <c r="B360" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="4">
         <v>7270360</v>
       </c>
       <c r="B361" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="4">
         <v>7270361</v>
       </c>
       <c r="B362" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="4">
         <v>7270362</v>
       </c>
       <c r="B363" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="4">
         <v>7270363</v>
       </c>
       <c r="B364" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="4">
         <v>7270364</v>
       </c>
       <c r="B365" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="4">
         <v>7270365</v>
       </c>
       <c r="B366" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="4">
         <v>7270366</v>
       </c>
       <c r="B367" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="4">
         <v>7270367</v>
       </c>
       <c r="B368" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="4">
         <v>7270368</v>
       </c>
       <c r="B369" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="4">
         <v>7270369</v>
       </c>
       <c r="B370" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="4">
         <v>7270370</v>
       </c>
       <c r="B371" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="4">
         <v>7270371</v>
       </c>
       <c r="B372" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="4">
         <v>7270372</v>
       </c>
       <c r="B373" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="4">
         <v>7270373</v>
       </c>
       <c r="B374" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="4">
         <v>7270374</v>
       </c>
       <c r="B375" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="4">
         <v>7270375</v>
       </c>
       <c r="B376" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="4">
         <v>7270376</v>
       </c>
       <c r="B377" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="4">
         <v>7270377</v>
       </c>
       <c r="B378" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="4">
         <v>7270378</v>
       </c>
       <c r="B379" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="4">
         <v>7270379</v>
       </c>
       <c r="B380" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="4">
         <v>7270380</v>
       </c>
       <c r="B381" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="4">
         <v>7270381</v>
       </c>
       <c r="B382" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="4">
         <v>7270382</v>
       </c>
       <c r="B383" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="4">
         <v>7270383</v>
       </c>
       <c r="B384" s="7" t="str">
-        <f t="shared" ref="B384:B425" si="9">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="4">
         <v>7270384</v>
       </c>
       <c r="B385" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="4">
         <v>7270385</v>
       </c>
       <c r="B386" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="4">
         <v>7270386</v>
       </c>
       <c r="B387" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="4">
         <v>7270387</v>
       </c>
       <c r="B388" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="4">
         <v>7270388</v>
       </c>
       <c r="B389" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="4">
         <v>7270389</v>
       </c>
       <c r="B390" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="4">
         <v>7270390</v>
       </c>
       <c r="B391" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="4">
         <v>7270391</v>
       </c>
       <c r="B392" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="4">
         <v>7270392</v>
       </c>
       <c r="B393" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="4">
         <v>7270393</v>
       </c>
       <c r="B394" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="4">
         <v>7270394</v>
       </c>
       <c r="B395" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="4">
         <v>7270395</v>
       </c>
       <c r="B396" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="4">
         <v>7270396</v>
       </c>
       <c r="B397" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="4">
         <v>7270397</v>
       </c>
       <c r="B398" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="4">
         <v>7270398</v>
       </c>
       <c r="B399" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="4">
         <v>7270399</v>
       </c>
       <c r="B400" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="4">
         <v>7270400</v>
       </c>
       <c r="B401" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="4">
         <v>7270401</v>
       </c>
       <c r="B402" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="4">
         <v>7270402</v>
       </c>
       <c r="B403" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="4">
         <v>7270403</v>
       </c>
       <c r="B404" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="4">
         <v>7270404</v>
       </c>
       <c r="B405" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="4">
         <v>7270405</v>
       </c>
       <c r="B406" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="4">
         <v>7270406</v>
       </c>
       <c r="B407" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="4">
         <v>7270407</v>
       </c>
       <c r="B408" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="4">
         <v>7270408</v>
       </c>
       <c r="B409" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="4">
         <v>7270409</v>
       </c>
       <c r="B410" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="4">
         <v>7270410</v>
       </c>
       <c r="B411" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="4">
         <v>7270411</v>
       </c>
       <c r="B412" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="4">
         <v>7270412</v>
       </c>
       <c r="B413" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="4">
         <v>7270413</v>
       </c>
       <c r="B414" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="4">
         <v>7270414</v>
       </c>
       <c r="B415" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="4">
         <v>7270415</v>
       </c>
       <c r="B416" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="4">
         <v>7270416</v>
       </c>
       <c r="B417" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="4">
         <v>7270417</v>
       </c>
       <c r="B418" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="4">
         <v>7270418</v>
       </c>
       <c r="B419" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="4">
         <v>7270419</v>
       </c>
       <c r="B420" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="4">
         <v>7270420</v>
       </c>
       <c r="B421" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="4">
         <v>7270421</v>
       </c>
       <c r="B422" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="4">
         <v>7270422</v>
       </c>
       <c r="B423" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="4">
         <v>7270423</v>
       </c>
       <c r="B424" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
+        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="4">
         <v>7270424</v>
       </c>
-      <c r="B425" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="F192:F202">
-    <sortCondition ref="F192:F202" descending="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F192:F202">
+    <sortCondition descending="1" ref="F192:F202"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.7" defaultRowHeight="22" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="29.75" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.7" style="1"/>
-    <col min="2" max="16384" width="29.7" style="1" customWidth="1"/>
+    <col min="1" max="2" width="29.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="29.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+    <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>76</v>
@@ -6766,10 +7189,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -6778,20 +7201,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>44</v>
@@ -6800,309 +7223,309 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
       <c r="B34" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
       <c r="B35" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9"/>
       <c r="B37" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
       <c r="B38" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
       <c r="B39" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9"/>
       <c r="B41" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>52</v>
@@ -7114,10 +7537,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>54</v>
@@ -7129,424 +7552,424 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
+      <c r="B45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="9"/>
+      <c r="B46" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="9"/>
+      <c r="B47" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
+      <c r="B48" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="9"/>
+      <c r="B49" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9"/>
+      <c r="B50" s="1" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:4">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:4">
-      <c r="A53" s="2"/>
+    <row r="53" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="9"/>
       <c r="B53" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="9"/>
+      <c r="B54" s="3" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="2"/>
+    <row r="55" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="9"/>
       <c r="B55" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="9"/>
       <c r="B56" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="9"/>
       <c r="B57" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="9"/>
       <c r="B58" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="9"/>
       <c r="B59" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="9"/>
       <c r="B60" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="9"/>
       <c r="B61" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:4">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
+      <c r="B63" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="9"/>
+      <c r="B64" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="9"/>
+      <c r="B65" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="9"/>
+      <c r="B66" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="9"/>
+      <c r="B67" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:3">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:3">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="3" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="2"/>
+    <row r="71" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="9"/>
       <c r="B71" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="2"/>
+    <row r="72" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="9"/>
       <c r="B72" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="2"/>
+    <row r="73" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="9"/>
       <c r="B73" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="2"/>
+    <row r="74" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="9"/>
       <c r="B74" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="2"/>
+    <row r="75" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
       <c r="B75" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="2"/>
+    <row r="76" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="9"/>
       <c r="B76" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="2"/>
+    <row r="77" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="9"/>
       <c r="B77" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="2"/>
+    <row r="78" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="9"/>
       <c r="B78" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="2"/>
+    <row r="79" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="9"/>
       <c r="B79" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="2"/>
+    <row r="80" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
       <c r="B80" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="2"/>
+    <row r="81" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="9"/>
       <c r="B81" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="2"/>
+    <row r="82" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="9"/>
       <c r="B82" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="2"/>
+    <row r="83" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="9"/>
       <c r="B83" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="2"/>
+    <row r="84" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="9"/>
       <c r="B84" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="9"/>
       <c r="B85" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="2"/>
+    <row r="86" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="9"/>
       <c r="B86" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="2"/>
+    <row r="87" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="9"/>
       <c r="B87" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="2"/>
+    <row r="88" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="9"/>
       <c r="B88" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="2"/>
+    <row r="89" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="9"/>
       <c r="B89" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>144</v>
@@ -7560,11 +7983,11 @@
     <mergeCell ref="A62:A67"/>
     <mergeCell ref="A69:A89"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="更多的合成 (Crafting++)" tooltip="https://www.mcmod.cn/class/1297.html"/>
-    <hyperlink ref="D1" r:id="rId2" display="RF的原版工艺 (RFTR's Craft)" tooltip="https://www.mcmod.cn/class/1548.html"/>
+    <hyperlink ref="C1" r:id="rId1" tooltip="https://www.mcmod.cn/class/1297.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D1" r:id="rId2" tooltip="https://www.mcmod.cn/class/1548.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/物品ID.xlsx
+++ b/doc/物品ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\SF\Slimefunction\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589E68D2-056A-44BE-A3D5-40F6146F123F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84190F2B-43CC-469C-A057-C469A3CDECEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="344">
   <si>
     <t>CustomModelData</t>
   </si>
@@ -1513,6 +1513,94 @@
         <scheme val="minor"/>
       </rPr>
       <t>ether Ice Collant Cell</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货运马达</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>argo Motor</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slime_tools</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PS路径点标记工具</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PS Waypoint Marker</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ortable GEO Scanner</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>便携式G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EO资源扫描器</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1605,10 +1693,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1957,17 +2045,17 @@
   <dimension ref="A1:XFC425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I287" sqref="I287"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D294" sqref="D294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
     <col min="8" max="16383" width="9" style="4"/>
@@ -2017,7 +2105,7 @@
         <v>7270001</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" ref="B2:B65" si="0">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
@@ -2026,7 +2114,7 @@
         <v>7270002</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2035,7 +2123,7 @@
         <v>7270003</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2044,7 +2132,7 @@
         <v>7270004</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2053,7 +2141,7 @@
         <v>7270005</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2062,7 +2150,7 @@
         <v>7270006</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2071,7 +2159,7 @@
         <v>7270007</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2080,7 +2168,7 @@
         <v>7270008</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2089,7 +2177,7 @@
         <v>7270009</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2098,7 +2186,7 @@
         <v>7270010</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2107,7 +2195,7 @@
         <v>7270011</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2116,7 +2204,7 @@
         <v>7270012</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2125,7 +2213,7 @@
         <v>7270013</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2134,7 +2222,7 @@
         <v>7270014</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2143,7 +2231,7 @@
         <v>7270015</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2152,7 +2240,7 @@
         <v>7270016</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2161,7 +2249,7 @@
         <v>7270017</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2170,7 +2258,7 @@
         <v>7270018</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2179,7 +2267,7 @@
         <v>7270019</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2188,7 +2276,7 @@
         <v>7270020</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2197,7 +2285,7 @@
         <v>7270021</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2206,7 +2294,7 @@
         <v>7270022</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2215,7 +2303,7 @@
         <v>7270023</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2224,7 +2312,7 @@
         <v>7270024</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2233,7 +2321,7 @@
         <v>7270025</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2242,7 +2330,7 @@
         <v>7270026</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2251,7 +2339,7 @@
         <v>7270027</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2260,7 +2348,7 @@
         <v>7270028</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2269,7 +2357,7 @@
         <v>7270029</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2278,7 +2366,7 @@
         <v>7270030</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2287,7 +2375,7 @@
         <v>7270031</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2296,7 +2384,7 @@
         <v>7270032</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2305,7 +2393,7 @@
         <v>7270033</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2314,7 +2402,7 @@
         <v>7270034</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2323,7 +2411,7 @@
         <v>7270035</v>
       </c>
       <c r="B36" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2332,7 +2420,7 @@
         <v>7270036</v>
       </c>
       <c r="B37" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2341,7 +2429,7 @@
         <v>7270037</v>
       </c>
       <c r="B38" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2350,7 +2438,7 @@
         <v>7270038</v>
       </c>
       <c r="B39" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2359,7 +2447,7 @@
         <v>7270039</v>
       </c>
       <c r="B40" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2368,7 +2456,7 @@
         <v>7270040</v>
       </c>
       <c r="B41" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2377,7 +2465,7 @@
         <v>7270041</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2386,7 +2474,7 @@
         <v>7270042</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2395,7 +2483,7 @@
         <v>7270043</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2404,7 +2492,7 @@
         <v>7270044</v>
       </c>
       <c r="B45" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2413,7 +2501,7 @@
         <v>7270045</v>
       </c>
       <c r="B46" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2422,7 +2510,7 @@
         <v>7270046</v>
       </c>
       <c r="B47" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2431,7 +2519,7 @@
         <v>7270047</v>
       </c>
       <c r="B48" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2440,7 +2528,7 @@
         <v>7270048</v>
       </c>
       <c r="B49" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2449,7 +2537,7 @@
         <v>7270049</v>
       </c>
       <c r="B50" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2458,7 +2546,7 @@
         <v>7270050</v>
       </c>
       <c r="B51" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2467,7 +2555,7 @@
         <v>7270051</v>
       </c>
       <c r="B52" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2476,7 +2564,7 @@
         <v>7270052</v>
       </c>
       <c r="B53" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2485,7 +2573,7 @@
         <v>7270053</v>
       </c>
       <c r="B54" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2494,7 +2582,7 @@
         <v>7270054</v>
       </c>
       <c r="B55" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2503,7 +2591,7 @@
         <v>7270055</v>
       </c>
       <c r="B56" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2512,7 +2600,7 @@
         <v>7270056</v>
       </c>
       <c r="B57" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2521,7 +2609,7 @@
         <v>7270057</v>
       </c>
       <c r="B58" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2530,7 +2618,7 @@
         <v>7270058</v>
       </c>
       <c r="B59" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2539,7 +2627,7 @@
         <v>7270059</v>
       </c>
       <c r="B60" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2548,7 +2636,7 @@
         <v>7270060</v>
       </c>
       <c r="B61" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2557,7 +2645,7 @@
         <v>7270061</v>
       </c>
       <c r="B62" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2566,7 +2654,7 @@
         <v>7270062</v>
       </c>
       <c r="B63" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2575,7 +2663,7 @@
         <v>7270063</v>
       </c>
       <c r="B64" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2584,7 +2672,7 @@
         <v>7270064</v>
       </c>
       <c r="B65" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2593,7 +2681,7 @@
         <v>7270065</v>
       </c>
       <c r="B66" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" ref="B66:B129" si="1">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
@@ -2602,7 +2690,7 @@
         <v>7270066</v>
       </c>
       <c r="B67" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2611,7 +2699,7 @@
         <v>7270067</v>
       </c>
       <c r="B68" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2620,7 +2708,7 @@
         <v>7270068</v>
       </c>
       <c r="B69" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2629,7 +2717,7 @@
         <v>7270069</v>
       </c>
       <c r="B70" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2638,7 +2726,7 @@
         <v>7270070</v>
       </c>
       <c r="B71" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2647,7 +2735,7 @@
         <v>7270071</v>
       </c>
       <c r="B72" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2656,7 +2744,7 @@
         <v>7270072</v>
       </c>
       <c r="B73" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2665,7 +2753,7 @@
         <v>7270073</v>
       </c>
       <c r="B74" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2674,7 +2762,7 @@
         <v>7270074</v>
       </c>
       <c r="B75" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2683,7 +2771,7 @@
         <v>7270075</v>
       </c>
       <c r="B76" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2692,7 +2780,7 @@
         <v>7270076</v>
       </c>
       <c r="B77" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2701,7 +2789,7 @@
         <v>7270077</v>
       </c>
       <c r="B78" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2710,7 +2798,7 @@
         <v>7270078</v>
       </c>
       <c r="B79" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2719,7 +2807,7 @@
         <v>7270079</v>
       </c>
       <c r="B80" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2728,7 +2816,7 @@
         <v>7270080</v>
       </c>
       <c r="B81" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2737,7 +2825,7 @@
         <v>7270081</v>
       </c>
       <c r="B82" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2746,7 +2834,7 @@
         <v>7270082</v>
       </c>
       <c r="B83" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2755,7 +2843,7 @@
         <v>7270083</v>
       </c>
       <c r="B84" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2764,7 +2852,7 @@
         <v>7270084</v>
       </c>
       <c r="B85" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2773,7 +2861,7 @@
         <v>7270085</v>
       </c>
       <c r="B86" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2782,7 +2870,7 @@
         <v>7270086</v>
       </c>
       <c r="B87" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2791,7 +2879,7 @@
         <v>7270087</v>
       </c>
       <c r="B88" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2800,7 +2888,7 @@
         <v>7270088</v>
       </c>
       <c r="B89" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2809,7 +2897,7 @@
         <v>7270089</v>
       </c>
       <c r="B90" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2818,7 +2906,7 @@
         <v>7270090</v>
       </c>
       <c r="B91" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2827,7 +2915,7 @@
         <v>7270091</v>
       </c>
       <c r="B92" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2836,7 +2924,7 @@
         <v>7270092</v>
       </c>
       <c r="B93" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2845,7 +2933,7 @@
         <v>7270093</v>
       </c>
       <c r="B94" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2854,7 +2942,7 @@
         <v>7270094</v>
       </c>
       <c r="B95" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2863,7 +2951,7 @@
         <v>7270095</v>
       </c>
       <c r="B96" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2872,7 +2960,7 @@
         <v>7270096</v>
       </c>
       <c r="B97" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2881,7 +2969,7 @@
         <v>7270097</v>
       </c>
       <c r="B98" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2890,7 +2978,7 @@
         <v>7270098</v>
       </c>
       <c r="B99" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2899,7 +2987,7 @@
         <v>7270099</v>
       </c>
       <c r="B100" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2908,7 +2996,7 @@
         <v>7270100</v>
       </c>
       <c r="B101" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2917,7 +3005,7 @@
         <v>7270101</v>
       </c>
       <c r="B102" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2926,7 +3014,7 @@
         <v>7270102</v>
       </c>
       <c r="B103" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2935,7 +3023,7 @@
         <v>7270103</v>
       </c>
       <c r="B104" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2944,7 +3032,7 @@
         <v>7270104</v>
       </c>
       <c r="B105" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2953,7 +3041,7 @@
         <v>7270105</v>
       </c>
       <c r="B106" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2962,7 +3050,7 @@
         <v>7270106</v>
       </c>
       <c r="B107" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2971,7 +3059,7 @@
         <v>7270107</v>
       </c>
       <c r="B108" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2980,7 +3068,7 @@
         <v>7270108</v>
       </c>
       <c r="B109" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2989,7 +3077,7 @@
         <v>7270109</v>
       </c>
       <c r="B110" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2998,7 +3086,7 @@
         <v>7270110</v>
       </c>
       <c r="B111" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3007,7 +3095,7 @@
         <v>7270111</v>
       </c>
       <c r="B112" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3016,7 +3104,7 @@
         <v>7270112</v>
       </c>
       <c r="B113" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3025,7 +3113,7 @@
         <v>7270113</v>
       </c>
       <c r="B114" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3034,7 +3122,7 @@
         <v>7270114</v>
       </c>
       <c r="B115" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3043,7 +3131,7 @@
         <v>7270115</v>
       </c>
       <c r="B116" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3052,7 +3140,7 @@
         <v>7270116</v>
       </c>
       <c r="B117" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3061,7 +3149,7 @@
         <v>7270117</v>
       </c>
       <c r="B118" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3070,7 +3158,7 @@
         <v>7270118</v>
       </c>
       <c r="B119" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3079,7 +3167,7 @@
         <v>7270119</v>
       </c>
       <c r="B120" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3088,7 +3176,7 @@
         <v>7270120</v>
       </c>
       <c r="B121" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3097,7 +3185,7 @@
         <v>7270121</v>
       </c>
       <c r="B122" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3106,7 +3194,7 @@
         <v>7270122</v>
       </c>
       <c r="B123" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3115,7 +3203,7 @@
         <v>7270123</v>
       </c>
       <c r="B124" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3124,7 +3212,7 @@
         <v>7270124</v>
       </c>
       <c r="B125" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3133,7 +3221,7 @@
         <v>7270125</v>
       </c>
       <c r="B126" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3142,7 +3230,7 @@
         <v>7270126</v>
       </c>
       <c r="B127" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3151,7 +3239,7 @@
         <v>7270127</v>
       </c>
       <c r="B128" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3160,7 +3248,7 @@
         <v>7270128</v>
       </c>
       <c r="B129" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3169,7 +3257,7 @@
         <v>7270129</v>
       </c>
       <c r="B130" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" ref="B130:B193" si="2">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
@@ -3178,7 +3266,7 @@
         <v>7270130</v>
       </c>
       <c r="B131" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3187,7 +3275,7 @@
         <v>7270131</v>
       </c>
       <c r="B132" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3196,7 +3284,7 @@
         <v>7270132</v>
       </c>
       <c r="B133" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3205,7 +3293,7 @@
         <v>7270133</v>
       </c>
       <c r="B134" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3214,7 +3302,7 @@
         <v>7270134</v>
       </c>
       <c r="B135" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3223,7 +3311,7 @@
         <v>7270135</v>
       </c>
       <c r="B136" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3232,7 +3320,7 @@
         <v>7270136</v>
       </c>
       <c r="B137" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3241,7 +3329,7 @@
         <v>7270137</v>
       </c>
       <c r="B138" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3250,7 +3338,7 @@
         <v>7270138</v>
       </c>
       <c r="B139" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3259,7 +3347,7 @@
         <v>7270139</v>
       </c>
       <c r="B140" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3268,7 +3356,7 @@
         <v>7270140</v>
       </c>
       <c r="B141" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3277,7 +3365,7 @@
         <v>7270141</v>
       </c>
       <c r="B142" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3286,7 +3374,7 @@
         <v>7270142</v>
       </c>
       <c r="B143" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3295,7 +3383,7 @@
         <v>7270143</v>
       </c>
       <c r="B144" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3304,7 +3392,7 @@
         <v>7270144</v>
       </c>
       <c r="B145" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3313,7 +3401,7 @@
         <v>7270145</v>
       </c>
       <c r="B146" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3322,7 +3410,7 @@
         <v>7270146</v>
       </c>
       <c r="B147" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3331,7 +3419,7 @@
         <v>7270147</v>
       </c>
       <c r="B148" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3340,7 +3428,7 @@
         <v>7270148</v>
       </c>
       <c r="B149" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3349,7 +3437,7 @@
         <v>7270149</v>
       </c>
       <c r="B150" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3358,7 +3446,7 @@
         <v>7270150</v>
       </c>
       <c r="B151" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3367,7 +3455,7 @@
         <v>7270151</v>
       </c>
       <c r="B152" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3376,7 +3464,7 @@
         <v>7270152</v>
       </c>
       <c r="B153" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>reinforced_alloy_ingot</v>
       </c>
       <c r="C153" s="3" t="s">
@@ -3397,7 +3485,7 @@
         <v>7270153</v>
       </c>
       <c r="B154" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>hardened_metal</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -3413,12 +3501,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="4">
         <v>7270154</v>
       </c>
       <c r="B155" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>damascus_steel_ingot</v>
       </c>
       <c r="C155" s="3" t="s">
@@ -3439,7 +3527,7 @@
         <v>7270155</v>
       </c>
       <c r="B156" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>steel_ingot</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -3460,7 +3548,7 @@
         <v>7270156</v>
       </c>
       <c r="B157" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>bronze_ingot</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -3481,7 +3569,7 @@
         <v>7270157</v>
       </c>
       <c r="B158" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>duralumin_ingot</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -3502,7 +3590,7 @@
         <v>7270158</v>
       </c>
       <c r="B159" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>billon_ingot</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -3523,7 +3611,7 @@
         <v>7270159</v>
       </c>
       <c r="B160" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>brass_ingot</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -3544,7 +3632,7 @@
         <v>7270160</v>
       </c>
       <c r="B161" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>aluminum_brass_ingot</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -3565,7 +3653,7 @@
         <v>7270161</v>
       </c>
       <c r="B162" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>aluminum_bronze_ingot</v>
       </c>
       <c r="C162" s="3" t="s">
@@ -3581,12 +3669,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
         <v>7270162</v>
       </c>
       <c r="B163" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>corinthian_bronze_ingot</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -3607,7 +3695,7 @@
         <v>7270163</v>
       </c>
       <c r="B164" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>solder_ingot</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -3628,7 +3716,7 @@
         <v>7270164</v>
       </c>
       <c r="B165" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>synthetic_sapphire</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -3649,7 +3737,7 @@
         <v>7270165</v>
       </c>
       <c r="B166" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>synthetic_diamond</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -3665,12 +3753,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
         <v>7270166</v>
       </c>
       <c r="B167" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>raw_carbonado</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -3691,7 +3779,7 @@
         <v>7270167</v>
       </c>
       <c r="B168" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>nickel_ingot</v>
       </c>
       <c r="C168" s="3" t="s">
@@ -3712,7 +3800,7 @@
         <v>7270168</v>
       </c>
       <c r="B169" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>cobalt_ingot</v>
       </c>
       <c r="C169" s="3" t="s">
@@ -3733,7 +3821,7 @@
         <v>7270169</v>
       </c>
       <c r="B170" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>carbonado</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -3754,7 +3842,7 @@
         <v>7270170</v>
       </c>
       <c r="B171" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>ferrosilicon</v>
       </c>
       <c r="C171" s="3" t="s">
@@ -3775,7 +3863,7 @@
         <v>7270171</v>
       </c>
       <c r="B172" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>iron_dust</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -3796,7 +3884,7 @@
         <v>7270172</v>
       </c>
       <c r="B173" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>gold_dust</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -3817,7 +3905,7 @@
         <v>7270173</v>
       </c>
       <c r="B174" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>copper_dust</v>
       </c>
       <c r="C174" s="3" t="s">
@@ -3838,7 +3926,7 @@
         <v>7270174</v>
       </c>
       <c r="B175" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>tin_dust</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -3859,7 +3947,7 @@
         <v>7270175</v>
       </c>
       <c r="B176" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>silver_dust</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -3880,7 +3968,7 @@
         <v>7270176</v>
       </c>
       <c r="B177" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>aluminum_dust</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -3901,7 +3989,7 @@
         <v>7270177</v>
       </c>
       <c r="B178" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>lead_dust</v>
       </c>
       <c r="C178" s="3" t="s">
@@ -3922,7 +4010,7 @@
         <v>7270178</v>
       </c>
       <c r="B179" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>zinc_dust</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -3943,7 +4031,7 @@
         <v>7270179</v>
       </c>
       <c r="B180" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>magnesium_dust</v>
       </c>
       <c r="C180" s="3" t="s">
@@ -3964,7 +4052,7 @@
         <v>7270180</v>
       </c>
       <c r="B181" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>copper_ingot</v>
       </c>
       <c r="C181" s="3" t="s">
@@ -3985,7 +4073,7 @@
         <v>7270181</v>
       </c>
       <c r="B182" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>tin_ingot</v>
       </c>
       <c r="C182" s="3" t="s">
@@ -4006,7 +4094,7 @@
         <v>7270182</v>
       </c>
       <c r="B183" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>silver_ingot</v>
       </c>
       <c r="C183" s="3" t="s">
@@ -4027,7 +4115,7 @@
         <v>7270183</v>
       </c>
       <c r="B184" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>aluminum_ingot</v>
       </c>
       <c r="C184" s="3" t="s">
@@ -4048,7 +4136,7 @@
         <v>7270184</v>
       </c>
       <c r="B185" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>lead_ingot</v>
       </c>
       <c r="C185" s="3" t="s">
@@ -4069,7 +4157,7 @@
         <v>7270185</v>
       </c>
       <c r="B186" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>zinc_ingot</v>
       </c>
       <c r="C186" s="3" t="s">
@@ -4090,7 +4178,7 @@
         <v>7270186</v>
       </c>
       <c r="B187" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>magnesium_ingot</v>
       </c>
       <c r="C187" s="3" t="s">
@@ -4111,7 +4199,7 @@
         <v>7270187</v>
       </c>
       <c r="B188" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>sulfate</v>
       </c>
       <c r="C188" s="3" t="s">
@@ -4132,7 +4220,7 @@
         <v>7270188</v>
       </c>
       <c r="B189" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>carbon</v>
       </c>
       <c r="C189" s="3" t="s">
@@ -4153,7 +4241,7 @@
         <v>7270189</v>
       </c>
       <c r="B190" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>compressed_carbon</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -4174,7 +4262,7 @@
         <v>7270190</v>
       </c>
       <c r="B191" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>carbon_chunk</v>
       </c>
       <c r="C191" s="3" t="s">
@@ -4190,12 +4278,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="4">
         <v>7270191</v>
       </c>
       <c r="B192" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>gold_ingot_24_carat</v>
       </c>
       <c r="C192" s="3" t="s">
@@ -4211,12 +4299,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="4">
         <v>7270192</v>
       </c>
       <c r="B193" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="2"/>
         <v>gold_ingot_22_carat</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -4232,12 +4320,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="4">
         <v>7270193</v>
       </c>
       <c r="B194" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" ref="B194:B257" si="3">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>gold_ingot_20_carat</v>
       </c>
       <c r="C194" s="3" t="s">
@@ -4253,12 +4341,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="4">
         <v>7270194</v>
       </c>
       <c r="B195" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>gold_ingot_18_carat</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -4274,12 +4362,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="4">
         <v>7270195</v>
       </c>
       <c r="B196" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>gold_ingot_16_carat</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -4295,12 +4383,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="4">
         <v>7270196</v>
       </c>
       <c r="B197" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>gold_ingot_14_carat</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -4316,12 +4404,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="4">
         <v>7270197</v>
       </c>
       <c r="B198" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>gold_ingot_12_carat</v>
       </c>
       <c r="C198" s="3" t="s">
@@ -4337,12 +4425,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="4">
         <v>7270198</v>
       </c>
       <c r="B199" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>gold_ingot_10_carat</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -4363,7 +4451,7 @@
         <v>7270199</v>
       </c>
       <c r="B200" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>gold_ingot_8_carat</v>
       </c>
       <c r="C200" s="3" t="s">
@@ -4384,7 +4472,7 @@
         <v>7270200</v>
       </c>
       <c r="B201" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>gold_ingot_6_carat</v>
       </c>
       <c r="C201" s="3" t="s">
@@ -4405,7 +4493,7 @@
         <v>7270201</v>
       </c>
       <c r="B202" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>gold_ingot_4_carat</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -4426,7 +4514,7 @@
         <v>7270202</v>
       </c>
       <c r="B203" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>silicon</v>
       </c>
       <c r="C203" s="3" t="s">
@@ -4447,7 +4535,7 @@
         <v>7270203</v>
       </c>
       <c r="B204" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>gilded_iron</v>
       </c>
       <c r="C204" s="3" t="s">
@@ -4468,7 +4556,7 @@
         <v>7270204</v>
       </c>
       <c r="B205" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>synthetic_emerald</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -4489,7 +4577,7 @@
         <v>7270205</v>
       </c>
       <c r="B206" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>uranium</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -4510,7 +4598,7 @@
         <v>7270206</v>
       </c>
       <c r="B207" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>redstone_alloy_ingot</v>
       </c>
       <c r="C207" s="3" t="s">
@@ -4531,7 +4619,7 @@
         <v>7270207</v>
       </c>
       <c r="B208" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>magnesium_salt</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -4552,7 +4640,7 @@
         <v>7270208</v>
       </c>
       <c r="B209" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>bucket_of_oil</v>
       </c>
       <c r="C209" s="3" t="s">
@@ -4573,7 +4661,7 @@
         <v>7270209</v>
       </c>
       <c r="B210" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>bucket_of_fuel</v>
       </c>
       <c r="C210" s="3" t="s">
@@ -4594,7 +4682,7 @@
         <v>7270210</v>
       </c>
       <c r="B211" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>nether_ice</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -4615,7 +4703,7 @@
         <v>7270211</v>
       </c>
       <c r="B212" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>blistering_ingot_33</v>
       </c>
       <c r="C212" s="3" t="s">
@@ -4636,7 +4724,7 @@
         <v>7270212</v>
       </c>
       <c r="B213" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>blistering_ingot_66</v>
       </c>
       <c r="C213" s="3" t="s">
@@ -4657,7 +4745,7 @@
         <v>7270213</v>
       </c>
       <c r="B214" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>blistering_ingot</v>
       </c>
       <c r="C214" s="3" t="s">
@@ -4678,7 +4766,7 @@
         <v>7270214</v>
       </c>
       <c r="B215" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>enriched_nether_ice</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -4699,7 +4787,7 @@
         <v>7270215</v>
       </c>
       <c r="B216" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>neptunium</v>
       </c>
       <c r="C216" s="3" t="s">
@@ -4720,7 +4808,7 @@
         <v>7270216</v>
       </c>
       <c r="B217" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>plutonium</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -4741,7 +4829,7 @@
         <v>7270217</v>
       </c>
       <c r="B218" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>boosted_uranium</v>
       </c>
       <c r="C218" s="3" t="s">
@@ -4762,7 +4850,7 @@
         <v>7270218</v>
       </c>
       <c r="B219" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4771,7 +4859,7 @@
         <v>7270219</v>
       </c>
       <c r="B220" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4780,7 +4868,7 @@
         <v>7270220</v>
       </c>
       <c r="B221" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4789,7 +4877,7 @@
         <v>7270221</v>
       </c>
       <c r="B222" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4798,7 +4886,7 @@
         <v>7270222</v>
       </c>
       <c r="B223" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4807,7 +4895,7 @@
         <v>7270223</v>
       </c>
       <c r="B224" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4816,7 +4904,7 @@
         <v>7270224</v>
       </c>
       <c r="B225" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4825,7 +4913,7 @@
         <v>7270225</v>
       </c>
       <c r="B226" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4834,7 +4922,7 @@
         <v>7270226</v>
       </c>
       <c r="B227" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4843,7 +4931,7 @@
         <v>7270227</v>
       </c>
       <c r="B228" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4852,7 +4940,7 @@
         <v>7270228</v>
       </c>
       <c r="B229" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4861,7 +4949,7 @@
         <v>7270229</v>
       </c>
       <c r="B230" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4870,7 +4958,7 @@
         <v>7270230</v>
       </c>
       <c r="B231" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4879,7 +4967,7 @@
         <v>7270231</v>
       </c>
       <c r="B232" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4888,7 +4976,7 @@
         <v>7270232</v>
       </c>
       <c r="B233" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4897,7 +4985,7 @@
         <v>7270233</v>
       </c>
       <c r="B234" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4906,7 +4994,7 @@
         <v>7270234</v>
       </c>
       <c r="B235" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4915,7 +5003,7 @@
         <v>7270235</v>
       </c>
       <c r="B236" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4924,7 +5012,7 @@
         <v>7270236</v>
       </c>
       <c r="B237" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4933,7 +5021,7 @@
         <v>7270237</v>
       </c>
       <c r="B238" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4942,7 +5030,7 @@
         <v>7270238</v>
       </c>
       <c r="B239" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4951,7 +5039,7 @@
         <v>7270239</v>
       </c>
       <c r="B240" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4960,7 +5048,7 @@
         <v>7270240</v>
       </c>
       <c r="B241" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4969,7 +5057,7 @@
         <v>7270241</v>
       </c>
       <c r="B242" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4978,7 +5066,7 @@
         <v>7270242</v>
       </c>
       <c r="B243" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4987,7 +5075,7 @@
         <v>7270243</v>
       </c>
       <c r="B244" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4996,7 +5084,7 @@
         <v>7270244</v>
       </c>
       <c r="B245" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5005,7 +5093,7 @@
         <v>7270245</v>
       </c>
       <c r="B246" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5014,7 +5102,7 @@
         <v>7270246</v>
       </c>
       <c r="B247" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5023,7 +5111,7 @@
         <v>7270247</v>
       </c>
       <c r="B248" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5032,7 +5120,7 @@
         <v>7270248</v>
       </c>
       <c r="B249" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5041,7 +5129,7 @@
         <v>7270249</v>
       </c>
       <c r="B250" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5050,13 +5138,13 @@
         <v>7270250</v>
       </c>
       <c r="B251" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>ore_dust</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D251" s="10" t="s">
+      <c r="D251" s="9" t="s">
         <v>277</v>
       </c>
       <c r="E251" s="4" t="s">
@@ -5071,13 +5159,13 @@
         <v>7270251</v>
       </c>
       <c r="B252" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>wheat_dust</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D252" s="10" t="s">
+      <c r="D252" s="9" t="s">
         <v>278</v>
       </c>
       <c r="E252" s="4" t="s">
@@ -5092,13 +5180,13 @@
         <v>7270252</v>
       </c>
       <c r="B253" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>steel_plate</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D253" s="10" t="s">
+      <c r="D253" s="9" t="s">
         <v>279</v>
       </c>
       <c r="E253" s="4" t="s">
@@ -5113,13 +5201,13 @@
         <v>7270253</v>
       </c>
       <c r="B254" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>hook</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D254" s="10" t="s">
+      <c r="D254" s="9" t="s">
         <v>280</v>
       </c>
       <c r="E254" s="4" t="s">
@@ -5134,13 +5222,13 @@
         <v>7270254</v>
       </c>
       <c r="B255" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>stone_piece</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D255" s="10" t="s">
+      <c r="D255" s="9" t="s">
         <v>281</v>
       </c>
       <c r="E255" s="4" t="s">
@@ -5155,13 +5243,13 @@
         <v>7270255</v>
       </c>
       <c r="B256" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>food_salt</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D256" s="10" t="s">
+      <c r="D256" s="9" t="s">
         <v>282</v>
       </c>
       <c r="E256" s="4" t="s">
@@ -5176,13 +5264,13 @@
         <v>7270256</v>
       </c>
       <c r="B257" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="3"/>
         <v>thick_cream</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D257" s="10" t="s">
+      <c r="D257" s="9" t="s">
         <v>283</v>
       </c>
       <c r="E257" s="4" t="s">
@@ -5197,13 +5285,13 @@
         <v>7270257</v>
       </c>
       <c r="B258" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" ref="B258:B321" si="4">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v>butter</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D258" s="10" t="s">
+      <c r="D258" s="9" t="s">
         <v>284</v>
       </c>
       <c r="E258" s="4" t="s">
@@ -5218,13 +5306,13 @@
         <v>7270258</v>
       </c>
       <c r="B259" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>cheese</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D259" s="10" t="s">
+      <c r="D259" s="9" t="s">
         <v>285</v>
       </c>
       <c r="E259" s="4" t="s">
@@ -5239,13 +5327,13 @@
         <v>7270259</v>
       </c>
       <c r="B260" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>dusted_ore</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D260" s="10" t="s">
+      <c r="D260" s="9" t="s">
         <v>286</v>
       </c>
       <c r="E260" s="4" t="s">
@@ -5260,13 +5348,13 @@
         <v>7270260</v>
       </c>
       <c r="B261" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>ore_in_dust</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D261" s="10" t="s">
+      <c r="D261" s="9" t="s">
         <v>287</v>
       </c>
       <c r="E261" s="4" t="s">
@@ -5281,13 +5369,13 @@
         <v>7270261</v>
       </c>
       <c r="B262" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>pure_ore_dust</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D262" s="10" t="s">
+      <c r="D262" s="9" t="s">
         <v>288</v>
       </c>
       <c r="E262" s="4" t="s">
@@ -5302,13 +5390,13 @@
         <v>7270262</v>
       </c>
       <c r="B263" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>uranium_piece</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D263" s="10" t="s">
+      <c r="D263" s="9" t="s">
         <v>289</v>
       </c>
       <c r="E263" s="4" t="s">
@@ -5323,13 +5411,13 @@
         <v>7270263</v>
       </c>
       <c r="B264" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>uranium_dozen</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D264" s="10" t="s">
+      <c r="D264" s="9" t="s">
         <v>290</v>
       </c>
       <c r="E264" s="4" t="s">
@@ -5344,13 +5432,13 @@
         <v>7270264</v>
       </c>
       <c r="B265" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>cloth</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D265" s="10" t="s">
+      <c r="D265" s="9" t="s">
         <v>291</v>
       </c>
       <c r="E265" s="4" t="s">
@@ -5365,13 +5453,13 @@
         <v>7270265</v>
       </c>
       <c r="B266" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>tin_can</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D266" s="10" t="s">
+      <c r="D266" s="9" t="s">
         <v>292</v>
       </c>
       <c r="E266" s="4" t="s">
@@ -5386,13 +5474,13 @@
         <v>7270266</v>
       </c>
       <c r="B267" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>gold_block_24_carat</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="10" t="s">
+      <c r="D267" s="9" t="s">
         <v>293</v>
       </c>
       <c r="E267" s="4" t="s">
@@ -5407,13 +5495,13 @@
         <v>7270267</v>
       </c>
       <c r="B268" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>reinforced_alloy_plate</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="10" t="s">
+      <c r="D268" s="9" t="s">
         <v>294</v>
       </c>
       <c r="E268" s="4" t="s">
@@ -5428,13 +5516,13 @@
         <v>7270268</v>
       </c>
       <c r="B269" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>tape</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="10" t="s">
+      <c r="D269" s="9" t="s">
         <v>295</v>
       </c>
       <c r="E269" s="4" t="s">
@@ -5449,13 +5537,13 @@
         <v>7270269</v>
       </c>
       <c r="B270" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>food_in_tin_can</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="10" t="s">
+      <c r="D270" s="9" t="s">
         <v>296</v>
       </c>
       <c r="E270" s="4" t="s">
@@ -5470,13 +5558,13 @@
         <v>7270270</v>
       </c>
       <c r="B271" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>fertilizer_in_tin_can</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="10" t="s">
+      <c r="D271" s="9" t="s">
         <v>297</v>
       </c>
       <c r="E271" s="4" t="s">
@@ -5491,16 +5579,16 @@
         <v>7270271</v>
       </c>
       <c r="B272" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>basic_circuit_board</v>
       </c>
-      <c r="C272" s="10" t="s">
+      <c r="C272" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D272" s="10" t="s">
+      <c r="D272" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E272" s="10" t="s">
+      <c r="E272" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F272" s="7" t="s">
@@ -5512,16 +5600,16 @@
         <v>7270272</v>
       </c>
       <c r="B273" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>advanced_circuit_board</v>
       </c>
-      <c r="C273" s="10" t="s">
+      <c r="C273" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D273" s="10" t="s">
+      <c r="D273" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E273" s="10" t="s">
+      <c r="E273" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F273" s="7" t="s">
@@ -5533,16 +5621,16 @@
         <v>7270273</v>
       </c>
       <c r="B274" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>battery</v>
       </c>
-      <c r="C274" s="10" t="s">
+      <c r="C274" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D274" s="10" t="s">
+      <c r="D274" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E274" s="10" t="s">
+      <c r="E274" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F274" s="7" t="s">
@@ -5554,16 +5642,16 @@
         <v>7270274</v>
       </c>
       <c r="B275" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>steel_pusher</v>
       </c>
-      <c r="C275" s="10" t="s">
+      <c r="C275" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D275" s="10" t="s">
+      <c r="D275" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E275" s="10" t="s">
+      <c r="E275" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F275" s="7" t="s">
@@ -5575,16 +5663,16 @@
         <v>7270275</v>
       </c>
       <c r="B276" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>energy_crystal</v>
       </c>
-      <c r="C276" s="10" t="s">
+      <c r="C276" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D276" s="10" t="s">
+      <c r="D276" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E276" s="10" t="s">
+      <c r="E276" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F276" s="7" t="s">
@@ -5596,16 +5684,16 @@
         <v>7270276</v>
       </c>
       <c r="B277" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>solar_board</v>
       </c>
-      <c r="C277" s="10" t="s">
+      <c r="C277" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D277" s="10" t="s">
+      <c r="D277" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E277" s="10" t="s">
+      <c r="E277" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F277" s="7" t="s">
@@ -5617,16 +5705,16 @@
         <v>7270277</v>
       </c>
       <c r="B278" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>magnet</v>
       </c>
-      <c r="C278" s="10" t="s">
+      <c r="C278" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D278" s="10" t="s">
+      <c r="D278" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E278" s="10" t="s">
+      <c r="E278" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F278" s="7" t="s">
@@ -5638,16 +5726,16 @@
         <v>7270278</v>
       </c>
       <c r="B279" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>electric_magnet</v>
       </c>
-      <c r="C279" s="10" t="s">
+      <c r="C279" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D279" s="10" t="s">
+      <c r="D279" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E279" s="10" t="s">
+      <c r="E279" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F279" s="7" t="s">
@@ -5659,16 +5747,16 @@
         <v>7270279</v>
       </c>
       <c r="B280" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>motor</v>
       </c>
-      <c r="C280" s="10" t="s">
+      <c r="C280" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D280" s="10" t="s">
+      <c r="D280" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E280" s="10" t="s">
+      <c r="E280" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F280" s="7" t="s">
@@ -5680,16 +5768,16 @@
         <v>7270280</v>
       </c>
       <c r="B281" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>heating_coil</v>
       </c>
-      <c r="C281" s="10" t="s">
+      <c r="C281" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D281" s="10" t="s">
+      <c r="D281" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="E281" s="10" t="s">
+      <c r="E281" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F281" s="7" t="s">
@@ -5701,16 +5789,16 @@
         <v>7270281</v>
       </c>
       <c r="B282" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>copper_string</v>
       </c>
-      <c r="C282" s="10" t="s">
+      <c r="C282" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D282" s="10" t="s">
+      <c r="D282" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E282" s="10" t="s">
+      <c r="E282" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F282" s="7" t="s">
@@ -5722,16 +5810,16 @@
         <v>7270282</v>
       </c>
       <c r="B283" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>steeled_glass</v>
       </c>
-      <c r="C283" s="10" t="s">
+      <c r="C283" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D283" s="10" t="s">
+      <c r="D283" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="E283" s="10" t="s">
+      <c r="E283" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F283" s="7" t="s">
@@ -5743,16 +5831,16 @@
         <v>7270283</v>
       </c>
       <c r="B284" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>cooling_unit</v>
       </c>
-      <c r="C284" s="10" t="s">
+      <c r="C284" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D284" s="10" t="s">
+      <c r="D284" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E284" s="10" t="s">
+      <c r="E284" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F284" s="7" t="s">
@@ -5764,16 +5852,16 @@
         <v>7270284</v>
       </c>
       <c r="B285" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>anti_wither_obsidian</v>
       </c>
-      <c r="C285" s="10" t="s">
+      <c r="C285" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D285" s="10" t="s">
+      <c r="D285" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E285" s="10" t="s">
+      <c r="E285" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F285" s="7" t="s">
@@ -5785,16 +5873,16 @@
         <v>7270285</v>
       </c>
       <c r="B286" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>plastic_pieces</v>
       </c>
-      <c r="C286" s="10" t="s">
+      <c r="C286" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D286" s="10" t="s">
+      <c r="D286" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="E286" s="10" t="s">
+      <c r="E286" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F286" s="7" t="s">
@@ -5806,16 +5894,16 @@
         <v>7270286</v>
       </c>
       <c r="B287" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>robot_core</v>
       </c>
-      <c r="C287" s="10" t="s">
+      <c r="C287" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D287" s="10" t="s">
+      <c r="D287" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E287" s="10" t="s">
+      <c r="E287" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F287" s="7" t="s">
@@ -5827,16 +5915,16 @@
         <v>7270287</v>
       </c>
       <c r="B288" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>anti_wither_glass</v>
       </c>
-      <c r="C288" s="10" t="s">
+      <c r="C288" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D288" s="10" t="s">
+      <c r="D288" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E288" s="10" t="s">
+      <c r="E288" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F288" s="7" t="s">
@@ -5848,16 +5936,16 @@
         <v>7270288</v>
       </c>
       <c r="B289" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>collant_cell</v>
       </c>
-      <c r="C289" s="10" t="s">
+      <c r="C289" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D289" s="10" t="s">
+      <c r="D289" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E289" s="10" t="s">
+      <c r="E289" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F289" s="7" t="s">
@@ -5869,16 +5957,16 @@
         <v>7270289</v>
       </c>
       <c r="B290" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v>nether_ice_collant_cell</v>
       </c>
-      <c r="C290" s="10" t="s">
+      <c r="C290" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="D290" s="10" t="s">
+      <c r="D290" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E290" s="10" t="s">
+      <c r="E290" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F290" s="7" t="s">
@@ -5890,43 +5978,73 @@
         <v>7270290</v>
       </c>
       <c r="B291" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-      <c r="E291" s="10"/>
-      <c r="F291" s="7"/>
+        <f t="shared" si="4"/>
+        <v>cargo_motor</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="4">
         <v>7270291</v>
       </c>
       <c r="B292" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-      <c r="E292" s="10"/>
-      <c r="F292" s="7"/>
+        <f t="shared" si="4"/>
+        <v>gps_waypoint_marker</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="4">
         <v>7270292</v>
       </c>
       <c r="B293" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-      <c r="E293" s="10"/>
-      <c r="F293" s="7"/>
+        <f t="shared" si="4"/>
+        <v>portable_geo_scanner</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="4">
         <v>7270293</v>
       </c>
       <c r="B294" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-      <c r="E294" s="10"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E294" s="9"/>
       <c r="F294" s="7"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
@@ -5934,10 +6052,10 @@
         <v>7270294</v>
       </c>
       <c r="B295" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-      <c r="E295" s="10"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E295" s="9"/>
       <c r="F295" s="7"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
@@ -5945,10 +6063,10 @@
         <v>7270295</v>
       </c>
       <c r="B296" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-      <c r="E296" s="10"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E296" s="9"/>
       <c r="F296" s="7"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
@@ -5956,10 +6074,10 @@
         <v>7270296</v>
       </c>
       <c r="B297" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
-        <v/>
-      </c>
-      <c r="E297" s="10"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E297" s="9"/>
       <c r="F297" s="7"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
@@ -5967,7 +6085,7 @@
         <v>7270297</v>
       </c>
       <c r="B298" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5976,7 +6094,7 @@
         <v>7270298</v>
       </c>
       <c r="B299" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5985,7 +6103,7 @@
         <v>7270299</v>
       </c>
       <c r="B300" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5994,7 +6112,7 @@
         <v>7270300</v>
       </c>
       <c r="B301" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6003,7 +6121,7 @@
         <v>7270301</v>
       </c>
       <c r="B302" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6012,7 +6130,7 @@
         <v>7270302</v>
       </c>
       <c r="B303" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6021,7 +6139,7 @@
         <v>7270303</v>
       </c>
       <c r="B304" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6030,7 +6148,7 @@
         <v>7270304</v>
       </c>
       <c r="B305" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6039,7 +6157,7 @@
         <v>7270305</v>
       </c>
       <c r="B306" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6048,7 +6166,7 @@
         <v>7270306</v>
       </c>
       <c r="B307" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6057,7 +6175,7 @@
         <v>7270307</v>
       </c>
       <c r="B308" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6066,7 +6184,7 @@
         <v>7270308</v>
       </c>
       <c r="B309" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6075,7 +6193,7 @@
         <v>7270309</v>
       </c>
       <c r="B310" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6084,7 +6202,7 @@
         <v>7270310</v>
       </c>
       <c r="B311" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6093,7 +6211,7 @@
         <v>7270311</v>
       </c>
       <c r="B312" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6102,7 +6220,7 @@
         <v>7270312</v>
       </c>
       <c r="B313" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6111,7 +6229,7 @@
         <v>7270313</v>
       </c>
       <c r="B314" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6120,7 +6238,7 @@
         <v>7270314</v>
       </c>
       <c r="B315" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6129,7 +6247,7 @@
         <v>7270315</v>
       </c>
       <c r="B316" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6138,7 +6256,7 @@
         <v>7270316</v>
       </c>
       <c r="B317" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6147,7 +6265,7 @@
         <v>7270317</v>
       </c>
       <c r="B318" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6156,7 +6274,7 @@
         <v>7270318</v>
       </c>
       <c r="B319" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6165,7 +6283,7 @@
         <v>7270319</v>
       </c>
       <c r="B320" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6174,7 +6292,7 @@
         <v>7270320</v>
       </c>
       <c r="B321" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6183,7 +6301,7 @@
         <v>7270321</v>
       </c>
       <c r="B322" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" ref="B322:B385" si="5">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
@@ -6192,7 +6310,7 @@
         <v>7270322</v>
       </c>
       <c r="B323" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6201,7 +6319,7 @@
         <v>7270323</v>
       </c>
       <c r="B324" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6210,7 +6328,7 @@
         <v>7270324</v>
       </c>
       <c r="B325" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6219,7 +6337,7 @@
         <v>7270325</v>
       </c>
       <c r="B326" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6228,7 +6346,7 @@
         <v>7270326</v>
       </c>
       <c r="B327" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6237,7 +6355,7 @@
         <v>7270327</v>
       </c>
       <c r="B328" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6246,7 +6364,7 @@
         <v>7270328</v>
       </c>
       <c r="B329" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6255,7 +6373,7 @@
         <v>7270329</v>
       </c>
       <c r="B330" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6264,7 +6382,7 @@
         <v>7270330</v>
       </c>
       <c r="B331" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6273,7 +6391,7 @@
         <v>7270331</v>
       </c>
       <c r="B332" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6282,7 +6400,7 @@
         <v>7270332</v>
       </c>
       <c r="B333" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6291,7 +6409,7 @@
         <v>7270333</v>
       </c>
       <c r="B334" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6300,7 +6418,7 @@
         <v>7270334</v>
       </c>
       <c r="B335" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6309,7 +6427,7 @@
         <v>7270335</v>
       </c>
       <c r="B336" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6318,7 +6436,7 @@
         <v>7270336</v>
       </c>
       <c r="B337" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6327,7 +6445,7 @@
         <v>7270337</v>
       </c>
       <c r="B338" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6336,7 +6454,7 @@
         <v>7270338</v>
       </c>
       <c r="B339" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6345,7 +6463,7 @@
         <v>7270339</v>
       </c>
       <c r="B340" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6354,7 +6472,7 @@
         <v>7270340</v>
       </c>
       <c r="B341" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6363,7 +6481,7 @@
         <v>7270341</v>
       </c>
       <c r="B342" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6372,7 +6490,7 @@
         <v>7270342</v>
       </c>
       <c r="B343" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6381,7 +6499,7 @@
         <v>7270343</v>
       </c>
       <c r="B344" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6390,7 +6508,7 @@
         <v>7270344</v>
       </c>
       <c r="B345" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6399,7 +6517,7 @@
         <v>7270345</v>
       </c>
       <c r="B346" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6408,7 +6526,7 @@
         <v>7270346</v>
       </c>
       <c r="B347" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6417,7 +6535,7 @@
         <v>7270347</v>
       </c>
       <c r="B348" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6426,7 +6544,7 @@
         <v>7270348</v>
       </c>
       <c r="B349" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6435,7 +6553,7 @@
         <v>7270349</v>
       </c>
       <c r="B350" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6444,7 +6562,7 @@
         <v>7270350</v>
       </c>
       <c r="B351" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6453,7 +6571,7 @@
         <v>7270351</v>
       </c>
       <c r="B352" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6462,7 +6580,7 @@
         <v>7270352</v>
       </c>
       <c r="B353" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6471,7 +6589,7 @@
         <v>7270353</v>
       </c>
       <c r="B354" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6480,7 +6598,7 @@
         <v>7270354</v>
       </c>
       <c r="B355" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6489,7 +6607,7 @@
         <v>7270355</v>
       </c>
       <c r="B356" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6498,7 +6616,7 @@
         <v>7270356</v>
       </c>
       <c r="B357" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6507,7 +6625,7 @@
         <v>7270357</v>
       </c>
       <c r="B358" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6516,7 +6634,7 @@
         <v>7270358</v>
       </c>
       <c r="B359" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6525,7 +6643,7 @@
         <v>7270359</v>
       </c>
       <c r="B360" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6534,7 +6652,7 @@
         <v>7270360</v>
       </c>
       <c r="B361" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6543,7 +6661,7 @@
         <v>7270361</v>
       </c>
       <c r="B362" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6552,7 +6670,7 @@
         <v>7270362</v>
       </c>
       <c r="B363" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6561,7 +6679,7 @@
         <v>7270363</v>
       </c>
       <c r="B364" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6570,7 +6688,7 @@
         <v>7270364</v>
       </c>
       <c r="B365" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6579,7 +6697,7 @@
         <v>7270365</v>
       </c>
       <c r="B366" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6588,7 +6706,7 @@
         <v>7270366</v>
       </c>
       <c r="B367" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6597,7 +6715,7 @@
         <v>7270367</v>
       </c>
       <c r="B368" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6606,7 +6724,7 @@
         <v>7270368</v>
       </c>
       <c r="B369" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6615,7 +6733,7 @@
         <v>7270369</v>
       </c>
       <c r="B370" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6624,7 +6742,7 @@
         <v>7270370</v>
       </c>
       <c r="B371" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6633,7 +6751,7 @@
         <v>7270371</v>
       </c>
       <c r="B372" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6642,7 +6760,7 @@
         <v>7270372</v>
       </c>
       <c r="B373" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6651,7 +6769,7 @@
         <v>7270373</v>
       </c>
       <c r="B374" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6660,7 +6778,7 @@
         <v>7270374</v>
       </c>
       <c r="B375" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6669,7 +6787,7 @@
         <v>7270375</v>
       </c>
       <c r="B376" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6678,7 +6796,7 @@
         <v>7270376</v>
       </c>
       <c r="B377" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6687,7 +6805,7 @@
         <v>7270377</v>
       </c>
       <c r="B378" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6696,7 +6814,7 @@
         <v>7270378</v>
       </c>
       <c r="B379" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6705,7 +6823,7 @@
         <v>7270379</v>
       </c>
       <c r="B380" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6714,7 +6832,7 @@
         <v>7270380</v>
       </c>
       <c r="B381" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6723,7 +6841,7 @@
         <v>7270381</v>
       </c>
       <c r="B382" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6732,7 +6850,7 @@
         <v>7270382</v>
       </c>
       <c r="B383" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6741,7 +6859,7 @@
         <v>7270383</v>
       </c>
       <c r="B384" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6750,7 +6868,7 @@
         <v>7270384</v>
       </c>
       <c r="B385" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6759,7 +6877,7 @@
         <v>7270385</v>
       </c>
       <c r="B386" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" ref="B386:B424" si="6">LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
         <v/>
       </c>
     </row>
@@ -6768,7 +6886,7 @@
         <v>7270386</v>
       </c>
       <c r="B387" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6777,7 +6895,7 @@
         <v>7270387</v>
       </c>
       <c r="B388" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6786,7 +6904,7 @@
         <v>7270388</v>
       </c>
       <c r="B389" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6795,7 +6913,7 @@
         <v>7270389</v>
       </c>
       <c r="B390" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6804,7 +6922,7 @@
         <v>7270390</v>
       </c>
       <c r="B391" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6813,7 +6931,7 @@
         <v>7270391</v>
       </c>
       <c r="B392" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6822,7 +6940,7 @@
         <v>7270392</v>
       </c>
       <c r="B393" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6831,7 +6949,7 @@
         <v>7270393</v>
       </c>
       <c r="B394" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6840,7 +6958,7 @@
         <v>7270394</v>
       </c>
       <c r="B395" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6849,7 +6967,7 @@
         <v>7270395</v>
       </c>
       <c r="B396" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6858,7 +6976,7 @@
         <v>7270396</v>
       </c>
       <c r="B397" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6867,7 +6985,7 @@
         <v>7270397</v>
       </c>
       <c r="B398" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6876,7 +6994,7 @@
         <v>7270398</v>
       </c>
       <c r="B399" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6885,7 +7003,7 @@
         <v>7270399</v>
       </c>
       <c r="B400" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6894,7 +7012,7 @@
         <v>7270400</v>
       </c>
       <c r="B401" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6903,7 +7021,7 @@
         <v>7270401</v>
       </c>
       <c r="B402" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6912,7 +7030,7 @@
         <v>7270402</v>
       </c>
       <c r="B403" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6921,7 +7039,7 @@
         <v>7270403</v>
       </c>
       <c r="B404" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6930,7 +7048,7 @@
         <v>7270404</v>
       </c>
       <c r="B405" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6939,7 +7057,7 @@
         <v>7270405</v>
       </c>
       <c r="B406" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6948,7 +7066,7 @@
         <v>7270406</v>
       </c>
       <c r="B407" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6957,7 +7075,7 @@
         <v>7270407</v>
       </c>
       <c r="B408" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6966,7 +7084,7 @@
         <v>7270408</v>
       </c>
       <c r="B409" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6975,7 +7093,7 @@
         <v>7270409</v>
       </c>
       <c r="B410" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6984,7 +7102,7 @@
         <v>7270410</v>
       </c>
       <c r="B411" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6993,7 +7111,7 @@
         <v>7270411</v>
       </c>
       <c r="B412" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7002,7 +7120,7 @@
         <v>7270412</v>
       </c>
       <c r="B413" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7011,7 +7129,7 @@
         <v>7270413</v>
       </c>
       <c r="B414" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7020,7 +7138,7 @@
         <v>7270414</v>
       </c>
       <c r="B415" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7029,7 +7147,7 @@
         <v>7270415</v>
       </c>
       <c r="B416" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7038,7 +7156,7 @@
         <v>7270416</v>
       </c>
       <c r="B417" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7047,7 +7165,7 @@
         <v>7270417</v>
       </c>
       <c r="B418" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7056,7 +7174,7 @@
         <v>7270418</v>
       </c>
       <c r="B419" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7065,7 +7183,7 @@
         <v>7270419</v>
       </c>
       <c r="B420" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7074,7 +7192,7 @@
         <v>7270420</v>
       </c>
       <c r="B421" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7083,7 +7201,7 @@
         <v>7270421</v>
       </c>
       <c r="B422" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7092,7 +7210,7 @@
         <v>7270422</v>
       </c>
       <c r="B423" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7101,7 +7219,7 @@
         <v>7270423</v>
       </c>
       <c r="B424" s="7" t="str">
-        <f>LOWER(ASC(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D:D,"%",""),"-","_"),")",""),"(","")," ","_")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7135,8 +7253,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
         <v>168</v>
       </c>
@@ -7148,7 +7266,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7160,7 +7278,7 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>174</v>
       </c>
@@ -7169,7 +7287,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>175</v>
       </c>
@@ -7178,7 +7296,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>177</v>
       </c>
@@ -7190,7 +7308,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>178</v>
       </c>
@@ -7202,7 +7320,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>179</v>
       </c>
@@ -7212,7 +7330,7 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>180</v>
       </c>
@@ -7224,7 +7342,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>181</v>
       </c>
@@ -7233,7 +7351,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>182</v>
       </c>
@@ -7242,7 +7360,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>183</v>
       </c>
@@ -7251,7 +7369,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>184</v>
       </c>
@@ -7260,7 +7378,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>185</v>
       </c>
@@ -7269,7 +7387,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>186</v>
       </c>
@@ -7278,7 +7396,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>187</v>
       </c>
@@ -7287,7 +7405,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>188</v>
       </c>
@@ -7296,7 +7414,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>189</v>
       </c>
@@ -7305,7 +7423,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>190</v>
       </c>
@@ -7314,7 +7432,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>191</v>
       </c>
@@ -7323,7 +7441,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>192</v>
       </c>
@@ -7332,7 +7450,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>193</v>
       </c>
@@ -7341,7 +7459,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>194</v>
       </c>
@@ -7350,7 +7468,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>195</v>
       </c>
@@ -7359,7 +7477,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>196</v>
       </c>
@@ -7368,7 +7486,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>197</v>
       </c>
@@ -7377,7 +7495,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>198</v>
       </c>
@@ -7386,7 +7504,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
         <v>199</v>
       </c>
@@ -7395,7 +7513,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>200</v>
       </c>
@@ -7404,7 +7522,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>201</v>
       </c>
@@ -7413,7 +7531,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
         <v>202</v>
       </c>
@@ -7422,7 +7540,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>203</v>
       </c>
@@ -7431,7 +7549,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>180</v>
       </c>
@@ -7440,7 +7558,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>204</v>
       </c>
@@ -7449,7 +7567,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>205</v>
       </c>
@@ -7458,7 +7576,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>206</v>
       </c>
@@ -7467,7 +7585,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
         <v>177</v>
       </c>
@@ -7476,7 +7594,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>207</v>
       </c>
@@ -7485,7 +7603,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>208</v>
       </c>
@@ -7494,7 +7612,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="3" t="s">
         <v>209</v>
       </c>
@@ -7503,7 +7621,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="3" t="s">
         <v>210</v>
       </c>
@@ -7512,7 +7630,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="3" t="s">
         <v>211</v>
       </c>
@@ -7521,7 +7639,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>212</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -7538,7 +7656,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="1" t="s">
         <v>214</v>
       </c>
@@ -7553,7 +7671,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="1" t="s">
         <v>215</v>
       </c>
@@ -7565,7 +7683,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="1" t="s">
         <v>217</v>
       </c>
@@ -7574,7 +7692,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>219</v>
       </c>
@@ -7583,7 +7701,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="9"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
         <v>221</v>
       </c>
@@ -7592,7 +7710,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
         <v>223</v>
       </c>
@@ -7601,7 +7719,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>225</v>
       </c>
@@ -7610,7 +7728,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>227</v>
       </c>
@@ -7619,7 +7737,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="1" t="s">
         <v>228</v>
       </c>
@@ -7628,7 +7746,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>229</v>
       </c>
@@ -7637,7 +7755,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="1" t="s">
         <v>230</v>
       </c>
@@ -7646,7 +7764,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="3" t="s">
         <v>232</v>
       </c>
@@ -7655,7 +7773,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="9"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="3" t="s">
         <v>229</v>
       </c>
@@ -7664,7 +7782,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="3" t="s">
         <v>233</v>
       </c>
@@ -7673,7 +7791,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="9"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="3" t="s">
         <v>234</v>
       </c>
@@ -7682,7 +7800,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="3" t="s">
         <v>227</v>
       </c>
@@ -7691,7 +7809,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="3" t="s">
         <v>228</v>
       </c>
@@ -7700,7 +7818,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="3" t="s">
         <v>235</v>
       </c>
@@ -7709,7 +7827,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
         <v>236</v>
       </c>
@@ -7718,7 +7836,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>238</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -7729,7 +7847,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="9"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>241</v>
       </c>
@@ -7738,7 +7856,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="1" t="s">
         <v>243</v>
       </c>
@@ -7747,7 +7865,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="9"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="1" t="s">
         <v>245</v>
       </c>
@@ -7756,7 +7874,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="1" t="s">
         <v>247</v>
       </c>
@@ -7765,7 +7883,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="9"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="1" t="s">
         <v>249</v>
       </c>
@@ -7785,7 +7903,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>254</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -7796,7 +7914,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="3" t="s">
         <v>257</v>
       </c>
@@ -7805,7 +7923,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="9"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="3" t="s">
         <v>258</v>
       </c>
@@ -7814,7 +7932,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="9"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="3" t="s">
         <v>259</v>
       </c>
@@ -7823,7 +7941,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="9"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="3" t="s">
         <v>260</v>
       </c>
@@ -7832,7 +7950,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="9"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="3" t="s">
         <v>261</v>
       </c>
@@ -7841,7 +7959,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="9"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="3" t="s">
         <v>262</v>
       </c>
@@ -7850,7 +7968,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="9"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="3" t="s">
         <v>263</v>
       </c>
@@ -7859,7 +7977,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="9"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="3" t="s">
         <v>264</v>
       </c>
@@ -7868,7 +7986,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="9"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="3" t="s">
         <v>265</v>
       </c>
@@ -7877,7 +7995,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="9"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="3" t="s">
         <v>266</v>
       </c>
@@ -7886,7 +8004,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="3" t="s">
         <v>267</v>
       </c>
@@ -7895,7 +8013,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="9"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="3" t="s">
         <v>268</v>
       </c>
@@ -7904,7 +8022,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="9"/>
+      <c r="A82" s="10"/>
       <c r="B82" s="3" t="s">
         <v>269</v>
       </c>
@@ -7913,7 +8031,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="9"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="3" t="s">
         <v>270</v>
       </c>
@@ -7922,7 +8040,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="9"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="3" t="s">
         <v>271</v>
       </c>
@@ -7931,7 +8049,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="9"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="3" t="s">
         <v>272</v>
       </c>
@@ -7940,7 +8058,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="9"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="3" t="s">
         <v>273</v>
       </c>
@@ -7949,7 +8067,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="9"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="3" t="s">
         <v>274</v>
       </c>
@@ -7958,7 +8076,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="9"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="3" t="s">
         <v>275</v>
       </c>
@@ -7967,7 +8085,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="9"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="3" t="s">
         <v>276</v>
       </c>
